--- a/2-Requisitos/1.5-Planilha_de_Contagem/nova contagem.xlsx
+++ b/2-Requisitos/1.5-Planilha_de_Contagem/nova contagem.xlsx
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="CF">Funções!$K$8:$K$123</definedName>
+    <definedName name="CF">Funções!$K$8:$K$122</definedName>
     <definedName name="Data">Contagem!$X$7</definedName>
     <definedName name="Projeto">Contagem!$F$6</definedName>
     <definedName name="Responsável">Contagem!$F$7</definedName>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="116">
   <si>
     <t>Sumário da Contagem</t>
   </si>
@@ -1584,24 +1584,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1611,18 +1595,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1630,37 +1610,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1671,25 +1648,49 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1703,6 +1704,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1712,10 +1716,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1725,42 +1741,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1768,7 +1776,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1782,16 +1789,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2051,6 +2051,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2360,6 +2408,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2605,6 +2701,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 8"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2964,36 +3108,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="82"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="74"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
@@ -3002,34 +3146,34 @@
       <c r="AI1" s="2"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="85"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="77"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -3039,34 +3183,34 @@
       <c r="AI2" s="2"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="86"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="88"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="80"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -3076,45 +3220,45 @@
       <c r="AI3" s="2"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="74" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="73"/>
+      <c r="S4" s="83"/>
       <c r="T4" s="4">
         <v>500</v>
       </c>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="73"/>
-      <c r="W4" s="94">
+      <c r="V4" s="83"/>
+      <c r="W4" s="86">
         <f>W5*T4</f>
-        <v>217500</v>
-      </c>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="73"/>
+        <v>212000</v>
+      </c>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="83"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
@@ -3124,41 +3268,41 @@
       <c r="AI4" s="2"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="74" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="73"/>
-      <c r="W5" s="76">
+      <c r="V5" s="83"/>
+      <c r="W5" s="88">
         <f>SUM(Y11:Y14)</f>
-        <v>435</v>
-      </c>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="73"/>
+        <v>424</v>
+      </c>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="83"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
@@ -3168,36 +3312,36 @@
       <c r="AI5" s="2"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="73"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="83"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -3207,38 +3351,38 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="72" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="V7" s="75"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="73"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="83"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -3248,38 +3392,38 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="72" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="V8" s="75"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="73"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="83"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -3325,46 +3469,46 @@
       <c r="AI9" s="2"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="92" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="73"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="83"/>
       <c r="L10" s="19"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="90" t="s">
+      <c r="O10" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="74" t="s">
+      <c r="P10" s="73"/>
+      <c r="Q10" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="74" t="s">
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="74" t="s">
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="73"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="83"/>
       <c r="AC10" s="23"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -3374,46 +3518,46 @@
       <c r="AI10" s="2"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
-      <c r="A11" s="83"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="92" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="73"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
       <c r="L11" s="19"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="72" t="s">
+      <c r="O11" s="75"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="73"/>
-      <c r="S11" s="76">
+      <c r="R11" s="83"/>
+      <c r="S11" s="88">
         <f>Sumário!E55</f>
-        <v>435</v>
-      </c>
-      <c r="T11" s="73"/>
-      <c r="U11" s="77">
+        <v>424</v>
+      </c>
+      <c r="T11" s="83"/>
+      <c r="U11" s="92">
         <v>1</v>
       </c>
-      <c r="V11" s="75"/>
-      <c r="W11" s="75"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="76">
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="88">
         <f t="shared" ref="Y11:Y14" si="0">S11*U11</f>
-        <v>435</v>
-      </c>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="73"/>
+        <v>424</v>
+      </c>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="83"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -3423,46 +3567,46 @@
       <c r="AI11" s="2"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
-      <c r="A12" s="83"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="92" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="73"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="83"/>
       <c r="L12" s="19"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="72" t="s">
+      <c r="O12" s="75"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="R12" s="75"/>
-      <c r="S12" s="76">
+      <c r="R12" s="82"/>
+      <c r="S12" s="88">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="73"/>
-      <c r="U12" s="77">
+      <c r="T12" s="83"/>
+      <c r="U12" s="92">
         <v>1</v>
       </c>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="76">
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="73"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="83"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -3472,46 +3616,46 @@
       <c r="AI12" s="2"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
-      <c r="A13" s="83"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="92" t="s">
+      <c r="A13" s="75"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="73"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="83"/>
       <c r="L13" s="19"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="72" t="s">
+      <c r="O13" s="75"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="75"/>
-      <c r="S13" s="76">
+      <c r="R13" s="82"/>
+      <c r="S13" s="88">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="73"/>
-      <c r="U13" s="77">
+      <c r="T13" s="83"/>
+      <c r="U13" s="92">
         <v>1</v>
       </c>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="76">
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="73"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="83"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -3521,8 +3665,8 @@
       <c r="AI13" s="2"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
-      <c r="A14" s="86"/>
-      <c r="B14" s="88"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3535,26 +3679,26 @@
       <c r="L14" s="2"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="76">
+      <c r="O14" s="78"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="88">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="73"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="76">
+      <c r="T14" s="83"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="73"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="83"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -3614,17 +3758,17 @@
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -3643,34 +3787,34 @@
       <c r="AI16" s="2"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="82"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="74"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -3680,34 +3824,34 @@
       <c r="AI17" s="2"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
-      <c r="A18" s="83"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="85"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="77"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -3717,34 +3861,34 @@
       <c r="AI18" s="2"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
-      <c r="A19" s="83"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="84"/>
-      <c r="AB19" s="85"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="77"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
@@ -3754,34 +3898,34 @@
       <c r="AI19" s="2"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
-      <c r="A20" s="83"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="85"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="77"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
@@ -3791,34 +3935,34 @@
       <c r="AI20" s="2"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
-      <c r="A21" s="83"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="85"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="77"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -3828,34 +3972,34 @@
       <c r="AI21" s="2"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="85"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="77"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
@@ -3865,34 +4009,34 @@
       <c r="AI22" s="2"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
-      <c r="A23" s="83"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="85"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="77"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
@@ -3902,34 +4046,34 @@
       <c r="AI23" s="2"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="85"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="77"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
@@ -3939,34 +4083,34 @@
       <c r="AI24" s="2"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="85"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="77"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
@@ -3976,34 +4120,34 @@
       <c r="AI25" s="2"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
-      <c r="A26" s="83"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="84"/>
-      <c r="X26" s="84"/>
-      <c r="Y26" s="84"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="85"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="76"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="76"/>
+      <c r="AB26" s="77"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -4013,34 +4157,34 @@
       <c r="AI26" s="2"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
-      <c r="A27" s="83"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="84"/>
-      <c r="Y27" s="84"/>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="84"/>
-      <c r="AB27" s="85"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="76"/>
+      <c r="AB27" s="77"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
@@ -4050,34 +4194,34 @@
       <c r="AI27" s="2"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="84"/>
-      <c r="X28" s="84"/>
-      <c r="Y28" s="84"/>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="84"/>
-      <c r="AB28" s="85"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="77"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
@@ -4087,34 +4231,34 @@
       <c r="AI28" s="2"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
-      <c r="A29" s="83"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="85"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
+      <c r="V29" s="76"/>
+      <c r="W29" s="76"/>
+      <c r="X29" s="76"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="77"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
@@ -4124,34 +4268,34 @@
       <c r="AI29" s="2"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
-      <c r="A30" s="83"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="85"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="76"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="76"/>
+      <c r="AB30" s="77"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -4161,34 +4305,34 @@
       <c r="AI30" s="2"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
-      <c r="A31" s="83"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="85"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="76"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="76"/>
+      <c r="V31" s="76"/>
+      <c r="W31" s="76"/>
+      <c r="X31" s="76"/>
+      <c r="Y31" s="76"/>
+      <c r="Z31" s="76"/>
+      <c r="AA31" s="76"/>
+      <c r="AB31" s="77"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
@@ -4198,34 +4342,34 @@
       <c r="AI31" s="2"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
-      <c r="A32" s="83"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="84"/>
-      <c r="W32" s="84"/>
-      <c r="X32" s="84"/>
-      <c r="Y32" s="84"/>
-      <c r="Z32" s="84"/>
-      <c r="AA32" s="84"/>
-      <c r="AB32" s="85"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="76"/>
+      <c r="U32" s="76"/>
+      <c r="V32" s="76"/>
+      <c r="W32" s="76"/>
+      <c r="X32" s="76"/>
+      <c r="Y32" s="76"/>
+      <c r="Z32" s="76"/>
+      <c r="AA32" s="76"/>
+      <c r="AB32" s="77"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
@@ -4235,34 +4379,34 @@
       <c r="AI32" s="2"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
-      <c r="A33" s="83"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="84"/>
-      <c r="X33" s="84"/>
-      <c r="Y33" s="84"/>
-      <c r="Z33" s="84"/>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="85"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="76"/>
+      <c r="Z33" s="76"/>
+      <c r="AA33" s="76"/>
+      <c r="AB33" s="77"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
@@ -4272,34 +4416,34 @@
       <c r="AI33" s="2"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
-      <c r="A34" s="83"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="84"/>
-      <c r="X34" s="84"/>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="84"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="85"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="76"/>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
+      <c r="V34" s="76"/>
+      <c r="W34" s="76"/>
+      <c r="X34" s="76"/>
+      <c r="Y34" s="76"/>
+      <c r="Z34" s="76"/>
+      <c r="AA34" s="76"/>
+      <c r="AB34" s="77"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
@@ -4309,34 +4453,34 @@
       <c r="AI34" s="2"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
-      <c r="A35" s="83"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="84"/>
-      <c r="S35" s="84"/>
-      <c r="T35" s="84"/>
-      <c r="U35" s="84"/>
-      <c r="V35" s="84"/>
-      <c r="W35" s="84"/>
-      <c r="X35" s="84"/>
-      <c r="Y35" s="84"/>
-      <c r="Z35" s="84"/>
-      <c r="AA35" s="84"/>
-      <c r="AB35" s="85"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
+      <c r="V35" s="76"/>
+      <c r="W35" s="76"/>
+      <c r="X35" s="76"/>
+      <c r="Y35" s="76"/>
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="76"/>
+      <c r="AB35" s="77"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
@@ -4346,34 +4490,34 @@
       <c r="AI35" s="2"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
-      <c r="A36" s="83"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="84"/>
-      <c r="S36" s="84"/>
-      <c r="T36" s="84"/>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84"/>
-      <c r="W36" s="84"/>
-      <c r="X36" s="84"/>
-      <c r="Y36" s="84"/>
-      <c r="Z36" s="84"/>
-      <c r="AA36" s="84"/>
-      <c r="AB36" s="85"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
+      <c r="AB36" s="77"/>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
@@ -4383,34 +4527,34 @@
       <c r="AI36" s="2"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
-      <c r="A37" s="83"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="84"/>
-      <c r="R37" s="84"/>
-      <c r="S37" s="84"/>
-      <c r="T37" s="84"/>
-      <c r="U37" s="84"/>
-      <c r="V37" s="84"/>
-      <c r="W37" s="84"/>
-      <c r="X37" s="84"/>
-      <c r="Y37" s="84"/>
-      <c r="Z37" s="84"/>
-      <c r="AA37" s="84"/>
-      <c r="AB37" s="85"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="76"/>
+      <c r="AB37" s="77"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
@@ -4420,34 +4564,34 @@
       <c r="AI37" s="2"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
-      <c r="A38" s="86"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="87"/>
-      <c r="U38" s="87"/>
-      <c r="V38" s="87"/>
-      <c r="W38" s="87"/>
-      <c r="X38" s="87"/>
-      <c r="Y38" s="87"/>
-      <c r="Z38" s="87"/>
-      <c r="AA38" s="87"/>
-      <c r="AB38" s="88"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38" s="80"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
@@ -4504,17 +4648,17 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="91" t="s">
+      <c r="K40" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="79"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -4533,34 +4677,34 @@
       <c r="AI40" s="2"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="80"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="81"/>
-      <c r="S41" s="81"/>
-      <c r="T41" s="81"/>
-      <c r="U41" s="81"/>
-      <c r="V41" s="81"/>
-      <c r="W41" s="81"/>
-      <c r="X41" s="81"/>
-      <c r="Y41" s="81"/>
-      <c r="Z41" s="81"/>
-      <c r="AA41" s="81"/>
-      <c r="AB41" s="82"/>
+      <c r="A41" s="89"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="73"/>
+      <c r="AB41" s="74"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
@@ -4570,34 +4714,34 @@
       <c r="AI41" s="2"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
-      <c r="A42" s="83"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
-      <c r="R42" s="84"/>
-      <c r="S42" s="84"/>
-      <c r="T42" s="84"/>
-      <c r="U42" s="84"/>
-      <c r="V42" s="84"/>
-      <c r="W42" s="84"/>
-      <c r="X42" s="84"/>
-      <c r="Y42" s="84"/>
-      <c r="Z42" s="84"/>
-      <c r="AA42" s="84"/>
-      <c r="AB42" s="85"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="76"/>
+      <c r="W42" s="76"/>
+      <c r="X42" s="76"/>
+      <c r="Y42" s="76"/>
+      <c r="Z42" s="76"/>
+      <c r="AA42" s="76"/>
+      <c r="AB42" s="77"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
@@ -4607,34 +4751,34 @@
       <c r="AI42" s="2"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
-      <c r="A43" s="83"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="84"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="84"/>
-      <c r="Q43" s="84"/>
-      <c r="R43" s="84"/>
-      <c r="S43" s="84"/>
-      <c r="T43" s="84"/>
-      <c r="U43" s="84"/>
-      <c r="V43" s="84"/>
-      <c r="W43" s="84"/>
-      <c r="X43" s="84"/>
-      <c r="Y43" s="84"/>
-      <c r="Z43" s="84"/>
-      <c r="AA43" s="84"/>
-      <c r="AB43" s="85"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="76"/>
+      <c r="Q43" s="76"/>
+      <c r="R43" s="76"/>
+      <c r="S43" s="76"/>
+      <c r="T43" s="76"/>
+      <c r="U43" s="76"/>
+      <c r="V43" s="76"/>
+      <c r="W43" s="76"/>
+      <c r="X43" s="76"/>
+      <c r="Y43" s="76"/>
+      <c r="Z43" s="76"/>
+      <c r="AA43" s="76"/>
+      <c r="AB43" s="77"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
@@ -4644,34 +4788,34 @@
       <c r="AI43" s="2"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
-      <c r="A44" s="83"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="84"/>
-      <c r="R44" s="84"/>
-      <c r="S44" s="84"/>
-      <c r="T44" s="84"/>
-      <c r="U44" s="84"/>
-      <c r="V44" s="84"/>
-      <c r="W44" s="84"/>
-      <c r="X44" s="84"/>
-      <c r="Y44" s="84"/>
-      <c r="Z44" s="84"/>
-      <c r="AA44" s="84"/>
-      <c r="AB44" s="85"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="76"/>
+      <c r="W44" s="76"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="76"/>
+      <c r="Z44" s="76"/>
+      <c r="AA44" s="76"/>
+      <c r="AB44" s="77"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
@@ -4681,34 +4825,34 @@
       <c r="AI44" s="2"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
-      <c r="A45" s="83"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84"/>
-      <c r="R45" s="84"/>
-      <c r="S45" s="84"/>
-      <c r="T45" s="84"/>
-      <c r="U45" s="84"/>
-      <c r="V45" s="84"/>
-      <c r="W45" s="84"/>
-      <c r="X45" s="84"/>
-      <c r="Y45" s="84"/>
-      <c r="Z45" s="84"/>
-      <c r="AA45" s="84"/>
-      <c r="AB45" s="85"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
+      <c r="U45" s="76"/>
+      <c r="V45" s="76"/>
+      <c r="W45" s="76"/>
+      <c r="X45" s="76"/>
+      <c r="Y45" s="76"/>
+      <c r="Z45" s="76"/>
+      <c r="AA45" s="76"/>
+      <c r="AB45" s="77"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
@@ -4718,34 +4862,34 @@
       <c r="AI45" s="2"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
-      <c r="A46" s="83"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="84"/>
-      <c r="S46" s="84"/>
-      <c r="T46" s="84"/>
-      <c r="U46" s="84"/>
-      <c r="V46" s="84"/>
-      <c r="W46" s="84"/>
-      <c r="X46" s="84"/>
-      <c r="Y46" s="84"/>
-      <c r="Z46" s="84"/>
-      <c r="AA46" s="84"/>
-      <c r="AB46" s="85"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="76"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="76"/>
+      <c r="T46" s="76"/>
+      <c r="U46" s="76"/>
+      <c r="V46" s="76"/>
+      <c r="W46" s="76"/>
+      <c r="X46" s="76"/>
+      <c r="Y46" s="76"/>
+      <c r="Z46" s="76"/>
+      <c r="AA46" s="76"/>
+      <c r="AB46" s="77"/>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
@@ -4755,34 +4899,34 @@
       <c r="AI46" s="2"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
-      <c r="A47" s="83"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="84"/>
-      <c r="R47" s="84"/>
-      <c r="S47" s="84"/>
-      <c r="T47" s="84"/>
-      <c r="U47" s="84"/>
-      <c r="V47" s="84"/>
-      <c r="W47" s="84"/>
-      <c r="X47" s="84"/>
-      <c r="Y47" s="84"/>
-      <c r="Z47" s="84"/>
-      <c r="AA47" s="84"/>
-      <c r="AB47" s="85"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76"/>
+      <c r="T47" s="76"/>
+      <c r="U47" s="76"/>
+      <c r="V47" s="76"/>
+      <c r="W47" s="76"/>
+      <c r="X47" s="76"/>
+      <c r="Y47" s="76"/>
+      <c r="Z47" s="76"/>
+      <c r="AA47" s="76"/>
+      <c r="AB47" s="77"/>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
@@ -4792,34 +4936,34 @@
       <c r="AI47" s="2"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
-      <c r="A48" s="83"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="84"/>
-      <c r="R48" s="84"/>
-      <c r="S48" s="84"/>
-      <c r="T48" s="84"/>
-      <c r="U48" s="84"/>
-      <c r="V48" s="84"/>
-      <c r="W48" s="84"/>
-      <c r="X48" s="84"/>
-      <c r="Y48" s="84"/>
-      <c r="Z48" s="84"/>
-      <c r="AA48" s="84"/>
-      <c r="AB48" s="85"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="76"/>
+      <c r="P48" s="76"/>
+      <c r="Q48" s="76"/>
+      <c r="R48" s="76"/>
+      <c r="S48" s="76"/>
+      <c r="T48" s="76"/>
+      <c r="U48" s="76"/>
+      <c r="V48" s="76"/>
+      <c r="W48" s="76"/>
+      <c r="X48" s="76"/>
+      <c r="Y48" s="76"/>
+      <c r="Z48" s="76"/>
+      <c r="AA48" s="76"/>
+      <c r="AB48" s="77"/>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
@@ -4829,34 +4973,34 @@
       <c r="AI48" s="2"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
-      <c r="A49" s="83"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
-      <c r="S49" s="84"/>
-      <c r="T49" s="84"/>
-      <c r="U49" s="84"/>
-      <c r="V49" s="84"/>
-      <c r="W49" s="84"/>
-      <c r="X49" s="84"/>
-      <c r="Y49" s="84"/>
-      <c r="Z49" s="84"/>
-      <c r="AA49" s="84"/>
-      <c r="AB49" s="85"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="76"/>
+      <c r="S49" s="76"/>
+      <c r="T49" s="76"/>
+      <c r="U49" s="76"/>
+      <c r="V49" s="76"/>
+      <c r="W49" s="76"/>
+      <c r="X49" s="76"/>
+      <c r="Y49" s="76"/>
+      <c r="Z49" s="76"/>
+      <c r="AA49" s="76"/>
+      <c r="AB49" s="77"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
@@ -4866,34 +5010,34 @@
       <c r="AI49" s="2"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
-      <c r="A50" s="83"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="84"/>
-      <c r="U50" s="84"/>
-      <c r="V50" s="84"/>
-      <c r="W50" s="84"/>
-      <c r="X50" s="84"/>
-      <c r="Y50" s="84"/>
-      <c r="Z50" s="84"/>
-      <c r="AA50" s="84"/>
-      <c r="AB50" s="85"/>
+      <c r="A50" s="75"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="76"/>
+      <c r="R50" s="76"/>
+      <c r="S50" s="76"/>
+      <c r="T50" s="76"/>
+      <c r="U50" s="76"/>
+      <c r="V50" s="76"/>
+      <c r="W50" s="76"/>
+      <c r="X50" s="76"/>
+      <c r="Y50" s="76"/>
+      <c r="Z50" s="76"/>
+      <c r="AA50" s="76"/>
+      <c r="AB50" s="77"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -4903,34 +5047,34 @@
       <c r="AI50" s="2"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
-      <c r="A51" s="83"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="84"/>
-      <c r="U51" s="84"/>
-      <c r="V51" s="84"/>
-      <c r="W51" s="84"/>
-      <c r="X51" s="84"/>
-      <c r="Y51" s="84"/>
-      <c r="Z51" s="84"/>
-      <c r="AA51" s="84"/>
-      <c r="AB51" s="85"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="76"/>
+      <c r="O51" s="76"/>
+      <c r="P51" s="76"/>
+      <c r="Q51" s="76"/>
+      <c r="R51" s="76"/>
+      <c r="S51" s="76"/>
+      <c r="T51" s="76"/>
+      <c r="U51" s="76"/>
+      <c r="V51" s="76"/>
+      <c r="W51" s="76"/>
+      <c r="X51" s="76"/>
+      <c r="Y51" s="76"/>
+      <c r="Z51" s="76"/>
+      <c r="AA51" s="76"/>
+      <c r="AB51" s="77"/>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
@@ -4940,34 +5084,34 @@
       <c r="AI51" s="2"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
-      <c r="A52" s="83"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="84"/>
-      <c r="U52" s="84"/>
-      <c r="V52" s="84"/>
-      <c r="W52" s="84"/>
-      <c r="X52" s="84"/>
-      <c r="Y52" s="84"/>
-      <c r="Z52" s="84"/>
-      <c r="AA52" s="84"/>
-      <c r="AB52" s="85"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="76"/>
+      <c r="S52" s="76"/>
+      <c r="T52" s="76"/>
+      <c r="U52" s="76"/>
+      <c r="V52" s="76"/>
+      <c r="W52" s="76"/>
+      <c r="X52" s="76"/>
+      <c r="Y52" s="76"/>
+      <c r="Z52" s="76"/>
+      <c r="AA52" s="76"/>
+      <c r="AB52" s="77"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
@@ -4977,34 +5121,34 @@
       <c r="AI52" s="2"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
-      <c r="A53" s="83"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
-      <c r="U53" s="84"/>
-      <c r="V53" s="84"/>
-      <c r="W53" s="84"/>
-      <c r="X53" s="84"/>
-      <c r="Y53" s="84"/>
-      <c r="Z53" s="84"/>
-      <c r="AA53" s="84"/>
-      <c r="AB53" s="85"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="76"/>
+      <c r="S53" s="76"/>
+      <c r="T53" s="76"/>
+      <c r="U53" s="76"/>
+      <c r="V53" s="76"/>
+      <c r="W53" s="76"/>
+      <c r="X53" s="76"/>
+      <c r="Y53" s="76"/>
+      <c r="Z53" s="76"/>
+      <c r="AA53" s="76"/>
+      <c r="AB53" s="77"/>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
@@ -5014,34 +5158,34 @@
       <c r="AI53" s="2"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
-      <c r="A54" s="83"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="84"/>
-      <c r="W54" s="84"/>
-      <c r="X54" s="84"/>
-      <c r="Y54" s="84"/>
-      <c r="Z54" s="84"/>
-      <c r="AA54" s="84"/>
-      <c r="AB54" s="85"/>
+      <c r="A54" s="75"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="76"/>
+      <c r="S54" s="76"/>
+      <c r="T54" s="76"/>
+      <c r="U54" s="76"/>
+      <c r="V54" s="76"/>
+      <c r="W54" s="76"/>
+      <c r="X54" s="76"/>
+      <c r="Y54" s="76"/>
+      <c r="Z54" s="76"/>
+      <c r="AA54" s="76"/>
+      <c r="AB54" s="77"/>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
@@ -5051,34 +5195,34 @@
       <c r="AI54" s="2"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
-      <c r="A55" s="83"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="84"/>
-      <c r="U55" s="84"/>
-      <c r="V55" s="84"/>
-      <c r="W55" s="84"/>
-      <c r="X55" s="84"/>
-      <c r="Y55" s="84"/>
-      <c r="Z55" s="84"/>
-      <c r="AA55" s="84"/>
-      <c r="AB55" s="85"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="76"/>
+      <c r="Q55" s="76"/>
+      <c r="R55" s="76"/>
+      <c r="S55" s="76"/>
+      <c r="T55" s="76"/>
+      <c r="U55" s="76"/>
+      <c r="V55" s="76"/>
+      <c r="W55" s="76"/>
+      <c r="X55" s="76"/>
+      <c r="Y55" s="76"/>
+      <c r="Z55" s="76"/>
+      <c r="AA55" s="76"/>
+      <c r="AB55" s="77"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
@@ -5088,34 +5232,34 @@
       <c r="AI55" s="2"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
-      <c r="A56" s="83"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="84"/>
-      <c r="S56" s="84"/>
-      <c r="T56" s="84"/>
-      <c r="U56" s="84"/>
-      <c r="V56" s="84"/>
-      <c r="W56" s="84"/>
-      <c r="X56" s="84"/>
-      <c r="Y56" s="84"/>
-      <c r="Z56" s="84"/>
-      <c r="AA56" s="84"/>
-      <c r="AB56" s="85"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="76"/>
+      <c r="S56" s="76"/>
+      <c r="T56" s="76"/>
+      <c r="U56" s="76"/>
+      <c r="V56" s="76"/>
+      <c r="W56" s="76"/>
+      <c r="X56" s="76"/>
+      <c r="Y56" s="76"/>
+      <c r="Z56" s="76"/>
+      <c r="AA56" s="76"/>
+      <c r="AB56" s="77"/>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
@@ -5125,34 +5269,34 @@
       <c r="AI56" s="2"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
-      <c r="A57" s="83"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84"/>
-      <c r="N57" s="84"/>
-      <c r="O57" s="84"/>
-      <c r="P57" s="84"/>
-      <c r="Q57" s="84"/>
-      <c r="R57" s="84"/>
-      <c r="S57" s="84"/>
-      <c r="T57" s="84"/>
-      <c r="U57" s="84"/>
-      <c r="V57" s="84"/>
-      <c r="W57" s="84"/>
-      <c r="X57" s="84"/>
-      <c r="Y57" s="84"/>
-      <c r="Z57" s="84"/>
-      <c r="AA57" s="84"/>
-      <c r="AB57" s="85"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="76"/>
+      <c r="S57" s="76"/>
+      <c r="T57" s="76"/>
+      <c r="U57" s="76"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76"/>
+      <c r="X57" s="76"/>
+      <c r="Y57" s="76"/>
+      <c r="Z57" s="76"/>
+      <c r="AA57" s="76"/>
+      <c r="AB57" s="77"/>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
@@ -5162,34 +5306,34 @@
       <c r="AI57" s="2"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
-      <c r="A58" s="83"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="84"/>
-      <c r="Q58" s="84"/>
-      <c r="R58" s="84"/>
-      <c r="S58" s="84"/>
-      <c r="T58" s="84"/>
-      <c r="U58" s="84"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
-      <c r="X58" s="84"/>
-      <c r="Y58" s="84"/>
-      <c r="Z58" s="84"/>
-      <c r="AA58" s="84"/>
-      <c r="AB58" s="85"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="76"/>
+      <c r="Q58" s="76"/>
+      <c r="R58" s="76"/>
+      <c r="S58" s="76"/>
+      <c r="T58" s="76"/>
+      <c r="U58" s="76"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
+      <c r="X58" s="76"/>
+      <c r="Y58" s="76"/>
+      <c r="Z58" s="76"/>
+      <c r="AA58" s="76"/>
+      <c r="AB58" s="77"/>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
@@ -5199,34 +5343,34 @@
       <c r="AI58" s="2"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
-      <c r="A59" s="83"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="84"/>
-      <c r="Q59" s="84"/>
-      <c r="R59" s="84"/>
-      <c r="S59" s="84"/>
-      <c r="T59" s="84"/>
-      <c r="U59" s="84"/>
-      <c r="V59" s="84"/>
-      <c r="W59" s="84"/>
-      <c r="X59" s="84"/>
-      <c r="Y59" s="84"/>
-      <c r="Z59" s="84"/>
-      <c r="AA59" s="84"/>
-      <c r="AB59" s="85"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="76"/>
+      <c r="O59" s="76"/>
+      <c r="P59" s="76"/>
+      <c r="Q59" s="76"/>
+      <c r="R59" s="76"/>
+      <c r="S59" s="76"/>
+      <c r="T59" s="76"/>
+      <c r="U59" s="76"/>
+      <c r="V59" s="76"/>
+      <c r="W59" s="76"/>
+      <c r="X59" s="76"/>
+      <c r="Y59" s="76"/>
+      <c r="Z59" s="76"/>
+      <c r="AA59" s="76"/>
+      <c r="AB59" s="77"/>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
@@ -5236,34 +5380,34 @@
       <c r="AI59" s="2"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
-      <c r="A60" s="86"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="87"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="87"/>
-      <c r="M60" s="87"/>
-      <c r="N60" s="87"/>
-      <c r="O60" s="87"/>
-      <c r="P60" s="87"/>
-      <c r="Q60" s="87"/>
-      <c r="R60" s="87"/>
-      <c r="S60" s="87"/>
-      <c r="T60" s="87"/>
-      <c r="U60" s="87"/>
-      <c r="V60" s="87"/>
-      <c r="W60" s="87"/>
-      <c r="X60" s="87"/>
-      <c r="Y60" s="87"/>
-      <c r="Z60" s="87"/>
-      <c r="AA60" s="87"/>
-      <c r="AB60" s="88"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
+      <c r="P60" s="79"/>
+      <c r="Q60" s="79"/>
+      <c r="R60" s="79"/>
+      <c r="S60" s="79"/>
+      <c r="T60" s="79"/>
+      <c r="U60" s="79"/>
+      <c r="V60" s="79"/>
+      <c r="W60" s="79"/>
+      <c r="X60" s="79"/>
+      <c r="Y60" s="79"/>
+      <c r="Z60" s="79"/>
+      <c r="AA60" s="79"/>
+      <c r="AB60" s="80"/>
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
@@ -5311,16 +5455,29 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:AB3"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="F6:AB6"/>
+    <mergeCell ref="A17:AB38"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="O10:P14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
     <mergeCell ref="A41:AB60"/>
     <mergeCell ref="K40:S40"/>
     <mergeCell ref="K16:S16"/>
@@ -5337,29 +5494,16 @@
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="F7:T7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="F6:AB6"/>
-    <mergeCell ref="A17:AB38"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="O10:P14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A1:AB3"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="W5:AB5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf"/>
@@ -5372,11 +5516,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T123"/>
+  <dimension ref="A1:T122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <pane ySplit="7" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P113" sqref="P113:T113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -5399,23 +5543,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -5423,21 +5567,21 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="121"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -5445,21 +5589,21 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="121"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
+      <c r="A3" s="120"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -5467,89 +5611,89 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="132" t="str">
+      <c r="A4" s="136" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="119" t="str">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="128" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="73"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="83"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="131" t="str">
+      <c r="A5" s="135" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="119" t="str">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="128" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="73"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="83"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="131" t="str">
+      <c r="A6" s="135" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="119" t="str">
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="128" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 500</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="130" t="str">
+      <c r="G6" s="83"/>
+      <c r="H6" s="134" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
-        <v xml:space="preserve"> Custo= R$ 217.500,00</v>
-      </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="122" t="str">
+        <v xml:space="preserve"> Custo= R$ 212.000,00</v>
+      </c>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="121" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 435</v>
-      </c>
-      <c r="O6" s="123"/>
+        <v>PF  = 424</v>
+      </c>
+      <c r="O6" s="122"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -5557,14 +5701,14 @@
       <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -5592,13 +5736,13 @@
       <c r="O7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="128" t="s">
+      <c r="P7" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
     </row>
     <row r="8" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="125" t="s">
@@ -5648,14 +5792,14 @@
       <c r="T8" s="64"/>
     </row>
     <row r="9" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="109"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="133"/>
       <c r="G9" s="57" t="s">
         <v>30</v>
       </c>
@@ -5688,21 +5832,21 @@
         <f>IF(H9="I",N9*[1]Contagem!$U$11,IF(H9="E",N9*[1]Contagem!$U$13,IF(H9="A",N9*[1]Contagem!$U$12,IF(H9="T",N9*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
     </row>
     <row r="10" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="133"/>
       <c r="G10" s="57" t="s">
         <v>30</v>
       </c>
@@ -5735,21 +5879,21 @@
         <f>IF(H10="I",N10*[1]Contagem!$U$11,IF(H10="E",N10*[1]Contagem!$U$13,IF(H10="A",N10*[1]Contagem!$U$12,IF(H10="T",N10*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
     </row>
     <row r="11" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="109"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="57" t="s">
         <v>30</v>
       </c>
@@ -5782,21 +5926,21 @@
         <f>IF(H11="I",N11*[1]Contagem!$U$11,IF(H11="E",N11*[1]Contagem!$U$13,IF(H11="A",N11*[1]Contagem!$U$12,IF(H11="T",N11*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
     </row>
     <row r="12" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
       <c r="G12" s="57" t="s">
         <v>54</v>
       </c>
@@ -5829,19 +5973,19 @@
         <f>IF(H12="I",N12*[1]Contagem!$U$11,IF(H12="E",N12*[1]Contagem!$U$13,IF(H12="A",N12*[1]Contagem!$U$12,IF(H12="T",N12*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
-      <c r="A13" s="101"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="18"/>
       <c r="H13" s="58" t="s">
         <v>31</v>
@@ -5868,21 +6012,21 @@
         <f>IF(H13="I",N13*Contagem!$U$11,IF(H13="E",N13*Contagem!$U$13,IF(H13="A",N13*Contagem!$U$12,IF(H13="T",N13*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
     </row>
     <row r="14" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="57" t="s">
         <v>29</v>
       </c>
@@ -5915,21 +6059,21 @@
         <f>IF(H14="I",N14*[1]Contagem!$U$11,IF(H14="E",N14*[1]Contagem!$U$13,IF(H14="A",N14*[1]Contagem!$U$12,IF(H14="T",N14*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="97"/>
     </row>
     <row r="15" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="57" t="s">
         <v>30</v>
       </c>
@@ -5962,21 +6106,21 @@
         <f>IF(H15="I",N15*[1]Contagem!$U$11,IF(H15="E",N15*[1]Contagem!$U$13,IF(H15="A",N15*[1]Contagem!$U$12,IF(H15="T",N15*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
     </row>
     <row r="16" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
       <c r="G16" s="57" t="s">
         <v>30</v>
       </c>
@@ -6009,21 +6153,21 @@
         <f>IF(H16="I",N16*[1]Contagem!$U$11,IF(H16="E",N16*[1]Contagem!$U$13,IF(H16="A",N16*[1]Contagem!$U$12,IF(H16="T",N16*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="97"/>
     </row>
     <row r="17" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
       <c r="G17" s="57" t="s">
         <v>30</v>
       </c>
@@ -6056,21 +6200,21 @@
         <f>IF(H17="I",N17*[1]Contagem!$U$11,IF(H17="E",N17*[1]Contagem!$U$13,IF(H17="A",N17*[1]Contagem!$U$12,IF(H17="T",N17*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="104"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="97"/>
     </row>
     <row r="18" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
       <c r="G18" s="57" t="s">
         <v>54</v>
       </c>
@@ -6103,19 +6247,19 @@
         <f>IF(H18="I",N18*[1]Contagem!$U$11,IF(H18="E",N18*[1]Contagem!$U$13,IF(H18="A",N18*[1]Contagem!$U$12,IF(H18="T",N18*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="97"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="101"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="18"/>
       <c r="H19" s="58" t="s">
         <v>31</v>
@@ -6142,21 +6286,21 @@
         <f>IF(H19="I",N19*Contagem!$U$11,IF(H19="E",N19*Contagem!$U$13,IF(H19="A",N19*Contagem!$U$12,IF(H19="T",N19*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
     </row>
     <row r="20" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="57" t="s">
         <v>29</v>
       </c>
@@ -6189,21 +6333,21 @@
         <f>IF(H20="I",N20*[1]Contagem!$U$11,IF(H20="E",N20*[1]Contagem!$U$13,IF(H20="A",N20*[1]Contagem!$U$12,IF(H20="T",N20*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97"/>
     </row>
     <row r="21" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
       <c r="G21" s="57" t="s">
         <v>30</v>
       </c>
@@ -6236,21 +6380,21 @@
         <f>IF(H21="I",N21*[1]Contagem!$U$11,IF(H21="E",N21*[1]Contagem!$U$13,IF(H21="A",N21*[1]Contagem!$U$12,IF(H21="T",N21*[1]Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
     </row>
     <row r="22" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
       <c r="G22" s="57" t="s">
         <v>30</v>
       </c>
@@ -6283,21 +6427,21 @@
         <f>IF(H22="I",N22*[1]Contagem!$U$11,IF(H22="E",N22*[1]Contagem!$U$13,IF(H22="A",N22*[1]Contagem!$U$12,IF(H22="T",N22*[1]Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
     </row>
     <row r="23" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
       <c r="G23" s="57" t="s">
         <v>30</v>
       </c>
@@ -6330,21 +6474,21 @@
         <f>IF(H23="I",N23*[1]Contagem!$U$11,IF(H23="E",N23*[1]Contagem!$U$13,IF(H23="A",N23*[1]Contagem!$U$12,IF(H23="T",N23*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
     </row>
     <row r="24" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
       <c r="G24" s="57" t="s">
         <v>54</v>
       </c>
@@ -6377,21 +6521,21 @@
         <f>IF(H24="I",N24*[1]Contagem!$U$11,IF(H24="E",N24*[1]Contagem!$U$13,IF(H24="A",N24*[1]Contagem!$U$12,IF(H24="T",N24*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="104"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="97"/>
     </row>
     <row r="25" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
       <c r="G25" s="57" t="s">
         <v>30</v>
       </c>
@@ -6423,21 +6567,21 @@
       <c r="O25" s="67">
         <v>0</v>
       </c>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="97"/>
+      <c r="T25" s="97"/>
     </row>
     <row r="26" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
       <c r="G26" s="57" t="s">
         <v>30</v>
       </c>
@@ -6469,21 +6613,21 @@
       <c r="O26" s="67">
         <v>0</v>
       </c>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
     </row>
     <row r="27" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
       <c r="G27" s="57" t="s">
         <v>30</v>
       </c>
@@ -6515,21 +6659,21 @@
       <c r="O27" s="67">
         <v>0</v>
       </c>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
     </row>
     <row r="28" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
       <c r="G28" s="57" t="s">
         <v>30</v>
       </c>
@@ -6561,21 +6705,21 @@
       <c r="O28" s="67">
         <v>0</v>
       </c>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="97"/>
     </row>
     <row r="29" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="117"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
       <c r="G29" s="57" t="s">
         <v>54</v>
       </c>
@@ -6607,21 +6751,21 @@
       <c r="O29" s="67">
         <v>0</v>
       </c>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="97"/>
     </row>
     <row r="30" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
       <c r="G30" s="57" t="s">
         <v>54</v>
       </c>
@@ -6653,19 +6797,19 @@
       <c r="O30" s="67">
         <v>0</v>
       </c>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="97"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
-      <c r="A31" s="101"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="103"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="104"/>
       <c r="G31" s="18"/>
       <c r="H31" s="58" t="s">
         <v>31</v>
@@ -6673,40 +6817,40 @@
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
       <c r="K31" s="18" t="str">
-        <f t="shared" ref="K31:K123" si="8">CONCATENATE(G31,L31)</f>
+        <f t="shared" ref="K31:K122" si="8">CONCATENATE(G31,L31)</f>
         <v/>
       </c>
       <c r="L31" s="24" t="str">
-        <f t="shared" ref="L31:L123" si="9">IF(OR(ISBLANK(I31),ISBLANK(J31)),IF(OR(G31="ALI",G31="AIE"),"L",IF(ISBLANK(G31),"","A")),IF(G31="EE",IF(J31&gt;=3,IF(I31&gt;=5,"H","A"),IF(J31&gt;=2,IF(I31&gt;=16,"H",IF(I31&lt;=4,"L","A")),IF(I31&lt;=15,"L","A"))),IF(OR(G31="SE",G31="CE"),IF(J31&gt;=4,IF(I31&gt;=6,"H","A"),IF(J31&gt;=2,IF(I31&gt;=20,"H",IF(I31&lt;=5,"L","A")),IF(I31&lt;=19,"L","A"))),IF(OR(G31="ALI",G31="AIE"),IF(J31&gt;=6,IF(I31&gt;=20,"H","A"),IF(J31&gt;=2,IF(I31&gt;=51,"H",IF(I31&lt;=19,"L","A")),IF(I31&lt;=50,"L","A")))))))</f>
+        <f t="shared" ref="L31:L122" si="9">IF(OR(ISBLANK(I31),ISBLANK(J31)),IF(OR(G31="ALI",G31="AIE"),"L",IF(ISBLANK(G31),"","A")),IF(G31="EE",IF(J31&gt;=3,IF(I31&gt;=5,"H","A"),IF(J31&gt;=2,IF(I31&gt;=16,"H",IF(I31&lt;=4,"L","A")),IF(I31&lt;=15,"L","A"))),IF(OR(G31="SE",G31="CE"),IF(J31&gt;=4,IF(I31&gt;=6,"H","A"),IF(J31&gt;=2,IF(I31&gt;=20,"H",IF(I31&lt;=5,"L","A")),IF(I31&lt;=19,"L","A"))),IF(OR(G31="ALI",G31="AIE"),IF(J31&gt;=6,IF(I31&gt;=20,"H","A"),IF(J31&gt;=2,IF(I31&gt;=51,"H",IF(I31&lt;=19,"L","A")),IF(I31&lt;=50,"L","A")))))))</f>
         <v/>
       </c>
       <c r="M31" s="26" t="str">
-        <f t="shared" ref="M31:M123" si="10">IF(L31="L","Baixa",IF(L31="A","Média",IF(L31="","","Alta")))</f>
+        <f t="shared" ref="M31:M122" si="10">IF(L31="L","Baixa",IF(L31="A","Média",IF(L31="","","Alta")))</f>
         <v/>
       </c>
       <c r="N31" s="29" t="str">
-        <f t="shared" ref="N31:N123" si="11">IF(ISBLANK(G31),"",IF(G31="ALI",IF(L31="L",7,IF(L31="A",10,15)),IF(G31="AIE",IF(L31="L",5,IF(L31="A",7,10)),IF(G31="SE",IF(L31="L",4,IF(L31="A",5,7)),IF(OR(G31="EE",G31="CE"),IF(L31="L",3,IF(L31="A",4,6)))))))</f>
+        <f t="shared" ref="N31:N122" si="11">IF(ISBLANK(G31),"",IF(G31="ALI",IF(L31="L",7,IF(L31="A",10,15)),IF(G31="AIE",IF(L31="L",5,IF(L31="A",7,10)),IF(G31="SE",IF(L31="L",4,IF(L31="A",5,7)),IF(OR(G31="EE",G31="CE"),IF(L31="L",3,IF(L31="A",4,6)))))))</f>
         <v/>
       </c>
       <c r="O31" s="32" t="e">
         <f>IF(H31="I",N31*Contagem!$U$11,IF(H31="E",N31*Contagem!$U$13,IF(H31="A",N31*Contagem!$U$12,IF(H31="T",N31*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="97"/>
-      <c r="S31" s="97"/>
-      <c r="T31" s="97"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="107"/>
     </row>
     <row r="32" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="112"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
       <c r="G32" s="57" t="s">
         <v>54</v>
       </c>
@@ -6739,19 +6883,19 @@
         <f>IF(H32="I",N32*[1]Contagem!$U$11,IF(H32="E",N32*[1]Contagem!$U$13,IF(H32="A",N32*[1]Contagem!$U$12,IF(H32="T",N32*[1]Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="97"/>
+      <c r="T32" s="97"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="A33" s="101"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="103"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="104"/>
       <c r="G33" s="18"/>
       <c r="H33" s="58" t="s">
         <v>31</v>
@@ -6778,21 +6922,21 @@
         <f>IF(H33="I",N33*Contagem!$U$11,IF(H33="E",N33*Contagem!$U$13,IF(H33="A",N33*Contagem!$U$12,IF(H33="T",N33*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="97"/>
-      <c r="S33" s="97"/>
-      <c r="T33" s="97"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
     </row>
     <row r="34" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="113" t="s">
+      <c r="A34" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
       <c r="G34" s="57" t="s">
         <v>29</v>
       </c>
@@ -6825,21 +6969,21 @@
         <f>IF(H34="I",N34*[1]Contagem!$U$11,IF(H34="E",N34*[1]Contagem!$U$13,IF(H34="A",N34*[1]Contagem!$U$12,IF(H34="T",N34*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
     </row>
     <row r="35" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
       <c r="G35" s="57" t="s">
         <v>30</v>
       </c>
@@ -6872,21 +7016,21 @@
         <f>IF(H35="I",N35*[1]Contagem!$U$11,IF(H35="E",N35*[1]Contagem!$U$13,IF(H35="A",N35*[1]Contagem!$U$12,IF(H35="T",N35*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="104"/>
-      <c r="T35" s="104"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="97"/>
+      <c r="S35" s="97"/>
+      <c r="T35" s="97"/>
     </row>
     <row r="36" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
       <c r="G36" s="57" t="s">
         <v>30</v>
       </c>
@@ -6919,21 +7063,21 @@
         <f>IF(H36="I",N36*[1]Contagem!$U$11,IF(H36="E",N36*[1]Contagem!$U$13,IF(H36="A",N36*[1]Contagem!$U$12,IF(H36="T",N36*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="104"/>
-      <c r="S36" s="104"/>
-      <c r="T36" s="104"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="97"/>
+      <c r="S36" s="97"/>
+      <c r="T36" s="97"/>
     </row>
     <row r="37" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
       <c r="G37" s="57" t="s">
         <v>30</v>
       </c>
@@ -6966,21 +7110,21 @@
         <f>IF(H37="I",N37*[1]Contagem!$U$11,IF(H37="E",N37*[1]Contagem!$U$13,IF(H37="A",N37*[1]Contagem!$U$12,IF(H37="T",N37*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P37" s="104"/>
-      <c r="Q37" s="104"/>
-      <c r="R37" s="104"/>
-      <c r="S37" s="104"/>
-      <c r="T37" s="104"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="97"/>
+      <c r="S37" s="97"/>
+      <c r="T37" s="97"/>
     </row>
     <row r="38" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="106" t="s">
+      <c r="A38" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
       <c r="G38" s="57" t="s">
         <v>54</v>
       </c>
@@ -7013,19 +7157,19 @@
         <f>IF(H38="I",N38*[1]Contagem!$U$11,IF(H38="E",N38*[1]Contagem!$U$13,IF(H38="A",N38*[1]Contagem!$U$12,IF(H38="T",N38*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
-      <c r="S38" s="104"/>
-      <c r="T38" s="104"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="97"/>
+      <c r="S38" s="97"/>
+      <c r="T38" s="97"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="A39" s="101"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="103"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="104"/>
       <c r="G39" s="18"/>
       <c r="H39" s="58" t="s">
         <v>31</v>
@@ -7052,21 +7196,21 @@
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="97"/>
-      <c r="R39" s="97"/>
-      <c r="S39" s="97"/>
-      <c r="T39" s="97"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="107"/>
     </row>
     <row r="40" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="114" t="s">
+      <c r="A40" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="116"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="140"/>
       <c r="G40" s="57" t="s">
         <v>29</v>
       </c>
@@ -7099,21 +7243,21 @@
         <f>IF(H40="I",N40*[1]Contagem!$U$11,IF(H40="E",N40*[1]Contagem!$U$13,IF(H40="A",N40*[1]Contagem!$U$12,IF(H40="T",N40*[1]Contagem!$U$14,""))))</f>
         <v>15</v>
       </c>
-      <c r="P40" s="104"/>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="104"/>
-      <c r="S40" s="104"/>
-      <c r="T40" s="104"/>
+      <c r="P40" s="97"/>
+      <c r="Q40" s="97"/>
+      <c r="R40" s="97"/>
+      <c r="S40" s="97"/>
+      <c r="T40" s="97"/>
     </row>
     <row r="41" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="107" t="s">
+      <c r="A41" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="109"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="133"/>
       <c r="G41" s="57" t="s">
         <v>30</v>
       </c>
@@ -7146,21 +7290,21 @@
         <f>IF(H41="I",N41*[1]Contagem!$U$11,IF(H41="E",N41*[1]Contagem!$U$13,IF(H41="A",N41*[1]Contagem!$U$12,IF(H41="T",N41*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P41" s="104"/>
-      <c r="Q41" s="104"/>
-      <c r="R41" s="104"/>
-      <c r="S41" s="104"/>
-      <c r="T41" s="104"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="97"/>
+      <c r="S41" s="97"/>
+      <c r="T41" s="97"/>
     </row>
     <row r="42" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="106" t="s">
+      <c r="A42" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
       <c r="G42" s="57" t="s">
         <v>30</v>
       </c>
@@ -7193,21 +7337,21 @@
         <f>IF(H42="I",N42*[1]Contagem!$U$11,IF(H42="E",N42*[1]Contagem!$U$13,IF(H42="A",N42*[1]Contagem!$U$12,IF(H42="T",N42*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="104"/>
-      <c r="R42" s="104"/>
-      <c r="S42" s="104"/>
-      <c r="T42" s="104"/>
+      <c r="P42" s="124"/>
+      <c r="Q42" s="97"/>
+      <c r="R42" s="97"/>
+      <c r="S42" s="97"/>
+      <c r="T42" s="97"/>
     </row>
     <row r="43" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
       <c r="G43" s="57" t="s">
         <v>30</v>
       </c>
@@ -7240,21 +7384,21 @@
         <f>IF(H43="I",N43*[1]Contagem!$U$11,IF(H43="E",N43*[1]Contagem!$U$13,IF(H43="A",N43*[1]Contagem!$U$12,IF(H43="T",N43*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P43" s="105"/>
-      <c r="Q43" s="104"/>
-      <c r="R43" s="104"/>
-      <c r="S43" s="104"/>
-      <c r="T43" s="104"/>
+      <c r="P43" s="124"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="97"/>
     </row>
     <row r="44" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="117" t="s">
+      <c r="A44" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="117"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
       <c r="G44" s="57" t="s">
         <v>54</v>
       </c>
@@ -7287,21 +7431,21 @@
         <f>IF(H44="I",N44*[1]Contagem!$U$11,IF(H44="E",N44*[1]Contagem!$U$13,IF(H44="A",N44*[1]Contagem!$U$12,IF(H44="T",N44*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P44" s="104"/>
-      <c r="Q44" s="104"/>
-      <c r="R44" s="104"/>
-      <c r="S44" s="104"/>
-      <c r="T44" s="104"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="97"/>
+      <c r="S44" s="97"/>
+      <c r="T44" s="97"/>
     </row>
     <row r="45" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="117" t="s">
+      <c r="A45" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="117"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
       <c r="G45" s="57" t="s">
         <v>30</v>
       </c>
@@ -7334,21 +7478,21 @@
         <f>IF(H45="I",N45*[1]Contagem!$U$11,IF(H45="E",N45*[1]Contagem!$U$13,IF(H45="A",N45*[1]Contagem!$U$12,IF(H45="T",N45*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P45" s="104"/>
-      <c r="Q45" s="104"/>
-      <c r="R45" s="104"/>
-      <c r="S45" s="104"/>
-      <c r="T45" s="104"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="97"/>
+      <c r="S45" s="97"/>
+      <c r="T45" s="97"/>
     </row>
     <row r="46" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A46" s="117" t="s">
+      <c r="A46" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="117"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
       <c r="G46" s="57" t="s">
         <v>30</v>
       </c>
@@ -7381,19 +7525,19 @@
         <f>IF(H46="I",N46*[1]Contagem!$U$11,IF(H46="E",N46*[1]Contagem!$U$13,IF(H46="A",N46*[1]Contagem!$U$12,IF(H46="T",N46*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P46" s="104"/>
-      <c r="Q46" s="104"/>
-      <c r="R46" s="104"/>
-      <c r="S46" s="104"/>
-      <c r="T46" s="104"/>
+      <c r="P46" s="97"/>
+      <c r="Q46" s="97"/>
+      <c r="R46" s="97"/>
+      <c r="S46" s="97"/>
+      <c r="T46" s="97"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="A47" s="101"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="103"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="104"/>
       <c r="G47" s="18"/>
       <c r="H47" s="58" t="s">
         <v>31</v>
@@ -7420,21 +7564,21 @@
         <f>IF(H47="I",N47*Contagem!$U$11,IF(H47="E",N47*Contagem!$U$13,IF(H47="A",N47*Contagem!$U$12,IF(H47="T",N47*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="97"/>
-      <c r="R47" s="97"/>
-      <c r="S47" s="97"/>
-      <c r="T47" s="97"/>
+      <c r="P47" s="106"/>
+      <c r="Q47" s="107"/>
+      <c r="R47" s="107"/>
+      <c r="S47" s="107"/>
+      <c r="T47" s="107"/>
     </row>
     <row r="48" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="113" t="s">
+      <c r="A48" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="113"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
       <c r="G48" s="57" t="s">
         <v>29</v>
       </c>
@@ -7467,21 +7611,21 @@
         <f>IF(H48="I",N48*[1]Contagem!$U$11,IF(H48="E",N48*[1]Contagem!$U$13,IF(H48="A",N48*[1]Contagem!$U$12,IF(H48="T",N48*[1]Contagem!$U$14,""))))</f>
         <v>10</v>
       </c>
-      <c r="P48" s="104"/>
-      <c r="Q48" s="104"/>
-      <c r="R48" s="104"/>
-      <c r="S48" s="104"/>
-      <c r="T48" s="104"/>
+      <c r="P48" s="97"/>
+      <c r="Q48" s="97"/>
+      <c r="R48" s="97"/>
+      <c r="S48" s="97"/>
+      <c r="T48" s="97"/>
     </row>
     <row r="49" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="106"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
       <c r="G49" s="57" t="s">
         <v>30</v>
       </c>
@@ -7514,21 +7658,21 @@
         <f>IF(H49="I",N49*[1]Contagem!$U$11,IF(H49="E",N49*[1]Contagem!$U$13,IF(H49="A",N49*[1]Contagem!$U$12,IF(H49="T",N49*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P49" s="104"/>
-      <c r="Q49" s="104"/>
-      <c r="R49" s="104"/>
-      <c r="S49" s="104"/>
-      <c r="T49" s="104"/>
+      <c r="P49" s="97"/>
+      <c r="Q49" s="97"/>
+      <c r="R49" s="97"/>
+      <c r="S49" s="97"/>
+      <c r="T49" s="97"/>
     </row>
     <row r="50" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="106"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
       <c r="G50" s="57" t="s">
         <v>30</v>
       </c>
@@ -7561,21 +7705,21 @@
         <f>IF(H50="I",N50*[1]Contagem!$U$11,IF(H50="E",N50*[1]Contagem!$U$13,IF(H50="A",N50*[1]Contagem!$U$12,IF(H50="T",N50*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P50" s="104"/>
-      <c r="Q50" s="104"/>
-      <c r="R50" s="104"/>
-      <c r="S50" s="104"/>
-      <c r="T50" s="104"/>
+      <c r="P50" s="97"/>
+      <c r="Q50" s="97"/>
+      <c r="R50" s="97"/>
+      <c r="S50" s="97"/>
+      <c r="T50" s="97"/>
     </row>
     <row r="51" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A51" s="106" t="s">
+      <c r="A51" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
       <c r="G51" s="57" t="s">
         <v>30</v>
       </c>
@@ -7608,21 +7752,21 @@
         <f>IF(H51="I",N51*[1]Contagem!$U$11,IF(H51="E",N51*[1]Contagem!$U$13,IF(H51="A",N51*[1]Contagem!$U$12,IF(H51="T",N51*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P51" s="104"/>
-      <c r="Q51" s="104"/>
-      <c r="R51" s="104"/>
-      <c r="S51" s="104"/>
-      <c r="T51" s="104"/>
+      <c r="P51" s="97"/>
+      <c r="Q51" s="97"/>
+      <c r="R51" s="97"/>
+      <c r="S51" s="97"/>
+      <c r="T51" s="97"/>
     </row>
     <row r="52" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A52" s="117" t="s">
+      <c r="A52" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="117"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="117"/>
-      <c r="F52" s="117"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
       <c r="G52" s="57" t="s">
         <v>54</v>
       </c>
@@ -7655,21 +7799,21 @@
         <f>IF(H52="I",N52*[1]Contagem!$U$11,IF(H52="E",N52*[1]Contagem!$U$13,IF(H52="A",N52*[1]Contagem!$U$12,IF(H52="T",N52*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P52" s="104"/>
-      <c r="Q52" s="104"/>
-      <c r="R52" s="104"/>
-      <c r="S52" s="104"/>
-      <c r="T52" s="104"/>
+      <c r="P52" s="97"/>
+      <c r="Q52" s="97"/>
+      <c r="R52" s="97"/>
+      <c r="S52" s="97"/>
+      <c r="T52" s="97"/>
     </row>
     <row r="53" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="117" t="s">
+      <c r="A53" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="117"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="117"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
       <c r="G53" s="57" t="s">
         <v>30</v>
       </c>
@@ -7702,21 +7846,21 @@
         <f>IF(H53="I",N53*[1]Contagem!$U$11,IF(H53="E",N53*[1]Contagem!$U$13,IF(H53="A",N53*[1]Contagem!$U$12,IF(H53="T",N53*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P53" s="104"/>
-      <c r="Q53" s="104"/>
-      <c r="R53" s="104"/>
-      <c r="S53" s="104"/>
-      <c r="T53" s="104"/>
+      <c r="P53" s="97"/>
+      <c r="Q53" s="97"/>
+      <c r="R53" s="97"/>
+      <c r="S53" s="97"/>
+      <c r="T53" s="97"/>
     </row>
     <row r="54" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A54" s="117" t="s">
+      <c r="A54" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="117"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="117"/>
-      <c r="F54" s="117"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
       <c r="G54" s="57" t="s">
         <v>30</v>
       </c>
@@ -7749,19 +7893,19 @@
         <f>IF(H54="I",N54*[1]Contagem!$U$11,IF(H54="E",N54*[1]Contagem!$U$13,IF(H54="A",N54*[1]Contagem!$U$12,IF(H54="T",N54*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P54" s="104"/>
-      <c r="Q54" s="104"/>
-      <c r="R54" s="104"/>
-      <c r="S54" s="104"/>
-      <c r="T54" s="104"/>
+      <c r="P54" s="97"/>
+      <c r="Q54" s="97"/>
+      <c r="R54" s="97"/>
+      <c r="S54" s="97"/>
+      <c r="T54" s="97"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
-      <c r="A55" s="101"/>
-      <c r="B55" s="102"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
-      <c r="F55" s="103"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="104"/>
       <c r="G55" s="18"/>
       <c r="H55" s="58" t="s">
         <v>31</v>
@@ -7788,21 +7932,21 @@
         <f>IF(H55="I",N55*Contagem!$U$11,IF(H55="E",N55*Contagem!$U$13,IF(H55="A",N55*Contagem!$U$12,IF(H55="T",N55*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P55" s="96"/>
-      <c r="Q55" s="97"/>
-      <c r="R55" s="97"/>
-      <c r="S55" s="97"/>
-      <c r="T55" s="97"/>
+      <c r="P55" s="106"/>
+      <c r="Q55" s="107"/>
+      <c r="R55" s="107"/>
+      <c r="S55" s="107"/>
+      <c r="T55" s="107"/>
     </row>
     <row r="56" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A56" s="113" t="s">
+      <c r="A56" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="B56" s="113"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
       <c r="G56" s="57" t="s">
         <v>29</v>
       </c>
@@ -7835,21 +7979,21 @@
         <f>IF(H56="I",N56*[1]Contagem!$U$11,IF(H56="E",N56*[1]Contagem!$U$13,IF(H56="A",N56*[1]Contagem!$U$12,IF(H56="T",N56*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P56" s="104"/>
-      <c r="Q56" s="104"/>
-      <c r="R56" s="104"/>
-      <c r="S56" s="104"/>
-      <c r="T56" s="104"/>
+      <c r="P56" s="97"/>
+      <c r="Q56" s="97"/>
+      <c r="R56" s="97"/>
+      <c r="S56" s="97"/>
+      <c r="T56" s="97"/>
     </row>
     <row r="57" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A57" s="106" t="s">
+      <c r="A57" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="106"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
       <c r="G57" s="57" t="s">
         <v>30</v>
       </c>
@@ -7882,21 +8026,21 @@
         <f>IF(H57="I",N57*[1]Contagem!$U$11,IF(H57="E",N57*[1]Contagem!$U$13,IF(H57="A",N57*[1]Contagem!$U$12,IF(H57="T",N57*[1]Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P57" s="104"/>
-      <c r="Q57" s="104"/>
-      <c r="R57" s="104"/>
-      <c r="S57" s="104"/>
-      <c r="T57" s="104"/>
+      <c r="P57" s="97"/>
+      <c r="Q57" s="97"/>
+      <c r="R57" s="97"/>
+      <c r="S57" s="97"/>
+      <c r="T57" s="97"/>
     </row>
     <row r="58" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A58" s="106" t="s">
+      <c r="A58" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="106"/>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
       <c r="G58" s="57" t="s">
         <v>30</v>
       </c>
@@ -7929,21 +8073,21 @@
         <f>IF(H58="I",N58*[1]Contagem!$U$11,IF(H58="E",N58*[1]Contagem!$U$13,IF(H58="A",N58*[1]Contagem!$U$12,IF(H58="T",N58*[1]Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P58" s="104"/>
-      <c r="Q58" s="104"/>
-      <c r="R58" s="104"/>
-      <c r="S58" s="104"/>
-      <c r="T58" s="104"/>
+      <c r="P58" s="97"/>
+      <c r="Q58" s="97"/>
+      <c r="R58" s="97"/>
+      <c r="S58" s="97"/>
+      <c r="T58" s="97"/>
     </row>
     <row r="59" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A59" s="106" t="s">
+      <c r="A59" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="106"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
       <c r="G59" s="57" t="s">
         <v>30</v>
       </c>
@@ -7976,19 +8120,19 @@
         <f>IF(H59="I",N59*[1]Contagem!$U$11,IF(H59="E",N59*[1]Contagem!$U$13,IF(H59="A",N59*[1]Contagem!$U$12,IF(H59="T",N59*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P59" s="104"/>
-      <c r="Q59" s="104"/>
-      <c r="R59" s="104"/>
-      <c r="S59" s="104"/>
-      <c r="T59" s="104"/>
+      <c r="P59" s="97"/>
+      <c r="Q59" s="97"/>
+      <c r="R59" s="97"/>
+      <c r="S59" s="97"/>
+      <c r="T59" s="97"/>
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
-      <c r="A60" s="101"/>
-      <c r="B60" s="102"/>
-      <c r="C60" s="102"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="103"/>
+      <c r="A60" s="102"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="104"/>
       <c r="G60" s="18"/>
       <c r="H60" s="58" t="s">
         <v>31</v>
@@ -8015,21 +8159,21 @@
         <f>IF(H60="I",N60*Contagem!$U$11,IF(H60="E",N60*Contagem!$U$13,IF(H60="A",N60*Contagem!$U$12,IF(H60="T",N60*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P60" s="96"/>
-      <c r="Q60" s="97"/>
-      <c r="R60" s="97"/>
-      <c r="S60" s="97"/>
-      <c r="T60" s="97"/>
+      <c r="P60" s="106"/>
+      <c r="Q60" s="107"/>
+      <c r="R60" s="107"/>
+      <c r="S60" s="107"/>
+      <c r="T60" s="107"/>
     </row>
     <row r="61" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A61" s="113" t="s">
+      <c r="A61" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="113"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="113"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
       <c r="G61" s="57" t="s">
         <v>29</v>
       </c>
@@ -8062,21 +8206,21 @@
         <f>IF(H61="I",N61*[1]Contagem!$U$11,IF(H61="E",N61*[1]Contagem!$U$13,IF(H61="A",N61*[1]Contagem!$U$12,IF(H61="T",N61*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P61" s="104"/>
-      <c r="Q61" s="104"/>
-      <c r="R61" s="104"/>
-      <c r="S61" s="104"/>
-      <c r="T61" s="104"/>
+      <c r="P61" s="97"/>
+      <c r="Q61" s="97"/>
+      <c r="R61" s="97"/>
+      <c r="S61" s="97"/>
+      <c r="T61" s="97"/>
     </row>
     <row r="62" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A62" s="106" t="s">
+      <c r="A62" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="106"/>
-      <c r="C62" s="106"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="106"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
       <c r="G62" s="57" t="s">
         <v>30</v>
       </c>
@@ -8109,21 +8253,21 @@
         <f>IF(H62="I",N62*[1]Contagem!$U$11,IF(H62="E",N62*[1]Contagem!$U$13,IF(H62="A",N62*[1]Contagem!$U$12,IF(H62="T",N62*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P62" s="104"/>
-      <c r="Q62" s="104"/>
-      <c r="R62" s="104"/>
-      <c r="S62" s="104"/>
-      <c r="T62" s="104"/>
+      <c r="P62" s="97"/>
+      <c r="Q62" s="97"/>
+      <c r="R62" s="97"/>
+      <c r="S62" s="97"/>
+      <c r="T62" s="97"/>
     </row>
     <row r="63" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A63" s="106" t="s">
+      <c r="A63" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="106"/>
-      <c r="C63" s="106"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="106"/>
-      <c r="F63" s="106"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="96"/>
       <c r="G63" s="57" t="s">
         <v>30</v>
       </c>
@@ -8156,21 +8300,21 @@
         <f>IF(H63="I",N63*[1]Contagem!$U$11,IF(H63="E",N63*[1]Contagem!$U$13,IF(H63="A",N63*[1]Contagem!$U$12,IF(H63="T",N63*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P63" s="104"/>
-      <c r="Q63" s="104"/>
-      <c r="R63" s="104"/>
-      <c r="S63" s="104"/>
-      <c r="T63" s="104"/>
+      <c r="P63" s="97"/>
+      <c r="Q63" s="97"/>
+      <c r="R63" s="97"/>
+      <c r="S63" s="97"/>
+      <c r="T63" s="97"/>
     </row>
     <row r="64" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A64" s="106" t="s">
+      <c r="A64" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="106"/>
-      <c r="C64" s="106"/>
-      <c r="D64" s="106"/>
-      <c r="E64" s="106"/>
-      <c r="F64" s="106"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96"/>
       <c r="G64" s="57" t="s">
         <v>30</v>
       </c>
@@ -8203,21 +8347,21 @@
         <f>IF(H64="I",N64*[1]Contagem!$U$11,IF(H64="E",N64*[1]Contagem!$U$13,IF(H64="A",N64*[1]Contagem!$U$12,IF(H64="T",N64*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P64" s="104"/>
-      <c r="Q64" s="104"/>
-      <c r="R64" s="104"/>
-      <c r="S64" s="104"/>
-      <c r="T64" s="104"/>
+      <c r="P64" s="97"/>
+      <c r="Q64" s="97"/>
+      <c r="R64" s="97"/>
+      <c r="S64" s="97"/>
+      <c r="T64" s="97"/>
     </row>
     <row r="65" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="106"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="96"/>
       <c r="G65" s="57" t="s">
         <v>54</v>
       </c>
@@ -8250,19 +8394,19 @@
         <f>IF(H65="I",N65*[1]Contagem!$U$11,IF(H65="E",N65*[1]Contagem!$U$13,IF(H65="A",N65*[1]Contagem!$U$12,IF(H65="T",N65*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P65" s="104"/>
-      <c r="Q65" s="104"/>
-      <c r="R65" s="104"/>
-      <c r="S65" s="104"/>
-      <c r="T65" s="104"/>
+      <c r="P65" s="97"/>
+      <c r="Q65" s="97"/>
+      <c r="R65" s="97"/>
+      <c r="S65" s="97"/>
+      <c r="T65" s="97"/>
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
-      <c r="A66" s="101"/>
-      <c r="B66" s="102"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="102"/>
-      <c r="F66" s="103"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="104"/>
       <c r="G66" s="18"/>
       <c r="H66" s="58" t="s">
         <v>31</v>
@@ -8289,21 +8433,21 @@
         <f>IF(H66="I",N66*Contagem!$U$11,IF(H66="E",N66*Contagem!$U$13,IF(H66="A",N66*Contagem!$U$12,IF(H66="T",N66*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P66" s="96"/>
-      <c r="Q66" s="97"/>
-      <c r="R66" s="97"/>
-      <c r="S66" s="97"/>
-      <c r="T66" s="97"/>
+      <c r="P66" s="106"/>
+      <c r="Q66" s="107"/>
+      <c r="R66" s="107"/>
+      <c r="S66" s="107"/>
+      <c r="T66" s="107"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
-      <c r="A67" s="133" t="s">
+      <c r="A67" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="133"/>
-      <c r="C67" s="133"/>
-      <c r="D67" s="133"/>
-      <c r="E67" s="133"/>
-      <c r="F67" s="133"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="115"/>
+      <c r="D67" s="115"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="115"/>
       <c r="G67" s="57" t="s">
         <v>29</v>
       </c>
@@ -8336,21 +8480,21 @@
         <f>IF(H67="I",N67*[1]Contagem!$U$11,IF(H67="E",N67*[1]Contagem!$U$13,IF(H67="A",N67*[1]Contagem!$U$12,IF(H67="T",N67*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P67" s="104"/>
-      <c r="Q67" s="104"/>
-      <c r="R67" s="104"/>
-      <c r="S67" s="104"/>
-      <c r="T67" s="104"/>
+      <c r="P67" s="97"/>
+      <c r="Q67" s="97"/>
+      <c r="R67" s="97"/>
+      <c r="S67" s="97"/>
+      <c r="T67" s="97"/>
     </row>
     <row r="68" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="106" t="s">
+      <c r="A68" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="106"/>
-      <c r="C68" s="106"/>
-      <c r="D68" s="106"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="106"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
       <c r="G68" s="57" t="s">
         <v>30</v>
       </c>
@@ -8383,21 +8527,21 @@
         <f>IF(H68="I",N68*[1]Contagem!$U$11,IF(H68="E",N68*[1]Contagem!$U$13,IF(H68="A",N68*[1]Contagem!$U$12,IF(H68="T",N68*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P68" s="104"/>
-      <c r="Q68" s="104"/>
-      <c r="R68" s="104"/>
-      <c r="S68" s="104"/>
-      <c r="T68" s="104"/>
+      <c r="P68" s="97"/>
+      <c r="Q68" s="97"/>
+      <c r="R68" s="97"/>
+      <c r="S68" s="97"/>
+      <c r="T68" s="97"/>
     </row>
     <row r="69" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A69" s="106" t="s">
+      <c r="A69" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="106"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="106"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="106"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="96"/>
       <c r="G69" s="57" t="s">
         <v>30</v>
       </c>
@@ -8430,21 +8574,21 @@
         <f>IF(H69="I",N69*[1]Contagem!$U$11,IF(H69="E",N69*[1]Contagem!$U$13,IF(H69="A",N69*[1]Contagem!$U$12,IF(H69="T",N69*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P69" s="104"/>
-      <c r="Q69" s="104"/>
-      <c r="R69" s="104"/>
-      <c r="S69" s="104"/>
-      <c r="T69" s="104"/>
+      <c r="P69" s="97"/>
+      <c r="Q69" s="97"/>
+      <c r="R69" s="97"/>
+      <c r="S69" s="97"/>
+      <c r="T69" s="97"/>
     </row>
     <row r="70" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A70" s="106" t="s">
+      <c r="A70" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="106"/>
-      <c r="C70" s="106"/>
-      <c r="D70" s="106"/>
-      <c r="E70" s="106"/>
-      <c r="F70" s="106"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="96"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="96"/>
       <c r="G70" s="57" t="s">
         <v>30</v>
       </c>
@@ -8477,21 +8621,21 @@
         <f>IF(H70="I",N70*[1]Contagem!$U$11,IF(H70="E",N70*[1]Contagem!$U$13,IF(H70="A",N70*[1]Contagem!$U$12,IF(H70="T",N70*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P70" s="104"/>
-      <c r="Q70" s="104"/>
-      <c r="R70" s="104"/>
-      <c r="S70" s="104"/>
-      <c r="T70" s="104"/>
+      <c r="P70" s="97"/>
+      <c r="Q70" s="97"/>
+      <c r="R70" s="97"/>
+      <c r="S70" s="97"/>
+      <c r="T70" s="97"/>
     </row>
     <row r="71" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A71" s="117" t="s">
+      <c r="A71" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="117"/>
-      <c r="C71" s="117"/>
-      <c r="D71" s="117"/>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
+      <c r="B71" s="98"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="98"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="98"/>
       <c r="G71" s="57" t="s">
         <v>54</v>
       </c>
@@ -8524,21 +8668,21 @@
         <f>IF(H71="I",N71*[1]Contagem!$U$11,IF(H71="E",N71*[1]Contagem!$U$13,IF(H71="A",N71*[1]Contagem!$U$12,IF(H71="T",N71*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P71" s="104"/>
-      <c r="Q71" s="104"/>
-      <c r="R71" s="104"/>
-      <c r="S71" s="104"/>
-      <c r="T71" s="104"/>
+      <c r="P71" s="97"/>
+      <c r="Q71" s="97"/>
+      <c r="R71" s="97"/>
+      <c r="S71" s="97"/>
+      <c r="T71" s="97"/>
     </row>
     <row r="72" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A72" s="117" t="s">
+      <c r="A72" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="117"/>
-      <c r="C72" s="117"/>
-      <c r="D72" s="117"/>
-      <c r="E72" s="117"/>
-      <c r="F72" s="117"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="98"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="98"/>
       <c r="G72" s="57" t="s">
         <v>30</v>
       </c>
@@ -8571,21 +8715,21 @@
         <f>IF(H72="I",N72*[1]Contagem!$U$11,IF(H72="E",N72*[1]Contagem!$U$13,IF(H72="A",N72*[1]Contagem!$U$12,IF(H72="T",N72*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P72" s="104"/>
-      <c r="Q72" s="104"/>
-      <c r="R72" s="104"/>
-      <c r="S72" s="104"/>
-      <c r="T72" s="104"/>
+      <c r="P72" s="97"/>
+      <c r="Q72" s="97"/>
+      <c r="R72" s="97"/>
+      <c r="S72" s="97"/>
+      <c r="T72" s="97"/>
     </row>
     <row r="73" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A73" s="117" t="s">
+      <c r="A73" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="B73" s="117"/>
-      <c r="C73" s="117"/>
-      <c r="D73" s="117"/>
-      <c r="E73" s="117"/>
-      <c r="F73" s="117"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="98"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="98"/>
       <c r="G73" s="57" t="s">
         <v>30</v>
       </c>
@@ -8618,21 +8762,21 @@
         <f>IF(H73="I",N73*[1]Contagem!$U$11,IF(H73="E",N73*[1]Contagem!$U$13,IF(H73="A",N73*[1]Contagem!$U$12,IF(H73="T",N73*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P73" s="104"/>
-      <c r="Q73" s="104"/>
-      <c r="R73" s="104"/>
-      <c r="S73" s="104"/>
-      <c r="T73" s="104"/>
+      <c r="P73" s="97"/>
+      <c r="Q73" s="97"/>
+      <c r="R73" s="97"/>
+      <c r="S73" s="97"/>
+      <c r="T73" s="97"/>
     </row>
     <row r="74" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A74" s="117" t="s">
+      <c r="A74" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="117"/>
-      <c r="C74" s="117"/>
-      <c r="D74" s="117"/>
-      <c r="E74" s="117"/>
-      <c r="F74" s="117"/>
+      <c r="B74" s="98"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="98"/>
+      <c r="E74" s="98"/>
+      <c r="F74" s="98"/>
       <c r="G74" s="57" t="s">
         <v>30</v>
       </c>
@@ -8665,19 +8809,19 @@
         <f>IF(H74="I",N74*[1]Contagem!$U$11,IF(H74="E",N74*[1]Contagem!$U$13,IF(H74="A",N74*[1]Contagem!$U$12,IF(H74="T",N74*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P74" s="104"/>
-      <c r="Q74" s="104"/>
-      <c r="R74" s="104"/>
-      <c r="S74" s="104"/>
-      <c r="T74" s="104"/>
+      <c r="P74" s="97"/>
+      <c r="Q74" s="97"/>
+      <c r="R74" s="97"/>
+      <c r="S74" s="97"/>
+      <c r="T74" s="97"/>
     </row>
     <row r="75" spans="1:20" ht="18" customHeight="1">
-      <c r="A75" s="101"/>
-      <c r="B75" s="102"/>
-      <c r="C75" s="102"/>
-      <c r="D75" s="102"/>
-      <c r="E75" s="102"/>
-      <c r="F75" s="103"/>
+      <c r="A75" s="102"/>
+      <c r="B75" s="103"/>
+      <c r="C75" s="103"/>
+      <c r="D75" s="103"/>
+      <c r="E75" s="103"/>
+      <c r="F75" s="104"/>
       <c r="G75" s="18"/>
       <c r="H75" s="58" t="s">
         <v>31</v>
@@ -8704,21 +8848,21 @@
         <f>IF(H75="I",N75*Contagem!$U$11,IF(H75="E",N75*Contagem!$U$13,IF(H75="A",N75*Contagem!$U$12,IF(H75="T",N75*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P75" s="96"/>
-      <c r="Q75" s="97"/>
-      <c r="R75" s="97"/>
-      <c r="S75" s="97"/>
-      <c r="T75" s="97"/>
+      <c r="P75" s="106"/>
+      <c r="Q75" s="107"/>
+      <c r="R75" s="107"/>
+      <c r="S75" s="107"/>
+      <c r="T75" s="107"/>
     </row>
     <row r="76" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A76" s="133" t="s">
+      <c r="A76" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="133"/>
-      <c r="C76" s="133"/>
-      <c r="D76" s="133"/>
-      <c r="E76" s="133"/>
-      <c r="F76" s="133"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="115"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="115"/>
       <c r="G76" s="57"/>
       <c r="H76" s="58" t="s">
         <v>31</v>
@@ -8745,21 +8889,21 @@
         <f>IF(H76="I",N76*[1]Contagem!$U$11,IF(H76="E",N76*[1]Contagem!$U$13,IF(H76="A",N76*[1]Contagem!$U$12,IF(H76="T",N76*[1]Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P76" s="104"/>
-      <c r="Q76" s="104"/>
-      <c r="R76" s="104"/>
-      <c r="S76" s="104"/>
-      <c r="T76" s="104"/>
+      <c r="P76" s="97"/>
+      <c r="Q76" s="97"/>
+      <c r="R76" s="97"/>
+      <c r="S76" s="97"/>
+      <c r="T76" s="97"/>
     </row>
     <row r="77" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A77" s="106" t="s">
+      <c r="A77" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="106"/>
-      <c r="C77" s="106"/>
-      <c r="D77" s="106"/>
-      <c r="E77" s="106"/>
-      <c r="F77" s="106"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
       <c r="G77" s="57" t="s">
         <v>30</v>
       </c>
@@ -8792,21 +8936,21 @@
         <f>IF(H77="I",N77*[1]Contagem!$U$11,IF(H77="E",N77*[1]Contagem!$U$13,IF(H77="A",N77*[1]Contagem!$U$12,IF(H77="T",N77*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P77" s="104"/>
-      <c r="Q77" s="104"/>
-      <c r="R77" s="104"/>
-      <c r="S77" s="104"/>
-      <c r="T77" s="104"/>
+      <c r="P77" s="97"/>
+      <c r="Q77" s="97"/>
+      <c r="R77" s="97"/>
+      <c r="S77" s="97"/>
+      <c r="T77" s="97"/>
     </row>
     <row r="78" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A78" s="106" t="s">
+      <c r="A78" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="106"/>
-      <c r="C78" s="106"/>
-      <c r="D78" s="106"/>
-      <c r="E78" s="106"/>
-      <c r="F78" s="106"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="96"/>
+      <c r="E78" s="96"/>
+      <c r="F78" s="96"/>
       <c r="G78" s="57" t="s">
         <v>30</v>
       </c>
@@ -8839,21 +8983,21 @@
         <f>IF(H78="I",N78*[1]Contagem!$U$11,IF(H78="E",N78*[1]Contagem!$U$13,IF(H78="A",N78*[1]Contagem!$U$12,IF(H78="T",N78*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P78" s="104"/>
-      <c r="Q78" s="104"/>
-      <c r="R78" s="104"/>
-      <c r="S78" s="104"/>
-      <c r="T78" s="104"/>
+      <c r="P78" s="97"/>
+      <c r="Q78" s="97"/>
+      <c r="R78" s="97"/>
+      <c r="S78" s="97"/>
+      <c r="T78" s="97"/>
     </row>
     <row r="79" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A79" s="106" t="s">
+      <c r="A79" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="106"/>
-      <c r="C79" s="106"/>
-      <c r="D79" s="106"/>
-      <c r="E79" s="106"/>
-      <c r="F79" s="106"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="96"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="96"/>
       <c r="G79" s="57" t="s">
         <v>30</v>
       </c>
@@ -8886,11 +9030,11 @@
         <f>IF(H79="I",N79*[1]Contagem!$U$11,IF(H79="E",N79*[1]Contagem!$U$13,IF(H79="A",N79*[1]Contagem!$U$12,IF(H79="T",N79*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P79" s="104"/>
-      <c r="Q79" s="104"/>
-      <c r="R79" s="104"/>
-      <c r="S79" s="104"/>
-      <c r="T79" s="104"/>
+      <c r="P79" s="97"/>
+      <c r="Q79" s="97"/>
+      <c r="R79" s="97"/>
+      <c r="S79" s="97"/>
+      <c r="T79" s="97"/>
     </row>
     <row r="80" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
       <c r="A80" s="68"/>
@@ -8932,14 +9076,14 @@
       <c r="T80" s="64"/>
     </row>
     <row r="81" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A81" s="133" t="s">
+      <c r="A81" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="B81" s="133"/>
-      <c r="C81" s="133"/>
-      <c r="D81" s="133"/>
-      <c r="E81" s="133"/>
-      <c r="F81" s="133"/>
+      <c r="B81" s="115"/>
+      <c r="C81" s="115"/>
+      <c r="D81" s="115"/>
+      <c r="E81" s="115"/>
+      <c r="F81" s="115"/>
       <c r="G81" s="57"/>
       <c r="H81" s="58" t="s">
         <v>31</v>
@@ -8966,21 +9110,21 @@
         <f>IF(H81="I",N81*[1]Contagem!$U$11,IF(H81="E",N81*[1]Contagem!$U$13,IF(H81="A",N81*[1]Contagem!$U$12,IF(H81="T",N81*[1]Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P81" s="104"/>
-      <c r="Q81" s="104"/>
-      <c r="R81" s="104"/>
-      <c r="S81" s="104"/>
-      <c r="T81" s="104"/>
+      <c r="P81" s="97"/>
+      <c r="Q81" s="97"/>
+      <c r="R81" s="97"/>
+      <c r="S81" s="97"/>
+      <c r="T81" s="97"/>
     </row>
     <row r="82" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A82" s="106" t="s">
+      <c r="A82" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="106"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="106"/>
-      <c r="E82" s="106"/>
-      <c r="F82" s="106"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="96"/>
+      <c r="E82" s="96"/>
+      <c r="F82" s="96"/>
       <c r="G82" s="57" t="s">
         <v>30</v>
       </c>
@@ -9013,21 +9157,21 @@
         <f>IF(H82="I",N82*[1]Contagem!$U$11,IF(H82="E",N82*[1]Contagem!$U$13,IF(H82="A",N82*[1]Contagem!$U$12,IF(H82="T",N82*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P82" s="104"/>
-      <c r="Q82" s="104"/>
-      <c r="R82" s="104"/>
-      <c r="S82" s="104"/>
-      <c r="T82" s="104"/>
+      <c r="P82" s="97"/>
+      <c r="Q82" s="97"/>
+      <c r="R82" s="97"/>
+      <c r="S82" s="97"/>
+      <c r="T82" s="97"/>
     </row>
     <row r="83" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A83" s="106" t="s">
+      <c r="A83" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="106"/>
-      <c r="C83" s="106"/>
-      <c r="D83" s="106"/>
-      <c r="E83" s="106"/>
-      <c r="F83" s="106"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
+      <c r="F83" s="96"/>
       <c r="G83" s="57" t="s">
         <v>30</v>
       </c>
@@ -9060,21 +9204,21 @@
         <f>IF(H83="I",N83*[1]Contagem!$U$11,IF(H83="E",N83*[1]Contagem!$U$13,IF(H83="A",N83*[1]Contagem!$U$12,IF(H83="T",N83*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P83" s="104"/>
-      <c r="Q83" s="104"/>
-      <c r="R83" s="104"/>
-      <c r="S83" s="104"/>
-      <c r="T83" s="104"/>
+      <c r="P83" s="97"/>
+      <c r="Q83" s="97"/>
+      <c r="R83" s="97"/>
+      <c r="S83" s="97"/>
+      <c r="T83" s="97"/>
     </row>
     <row r="84" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A84" s="106" t="s">
+      <c r="A84" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B84" s="106"/>
-      <c r="C84" s="106"/>
-      <c r="D84" s="106"/>
-      <c r="E84" s="106"/>
-      <c r="F84" s="106"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="96"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="96"/>
       <c r="G84" s="57" t="s">
         <v>30</v>
       </c>
@@ -9107,19 +9251,19 @@
         <f>IF(H84="I",N84*[1]Contagem!$U$11,IF(H84="E",N84*[1]Contagem!$U$13,IF(H84="A",N84*[1]Contagem!$U$12,IF(H84="T",N84*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P84" s="104"/>
-      <c r="Q84" s="104"/>
-      <c r="R84" s="104"/>
-      <c r="S84" s="104"/>
-      <c r="T84" s="104"/>
+      <c r="P84" s="97"/>
+      <c r="Q84" s="97"/>
+      <c r="R84" s="97"/>
+      <c r="S84" s="97"/>
+      <c r="T84" s="97"/>
     </row>
     <row r="85" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A85" s="101"/>
-      <c r="B85" s="102"/>
-      <c r="C85" s="102"/>
-      <c r="D85" s="102"/>
-      <c r="E85" s="102"/>
-      <c r="F85" s="103"/>
+      <c r="A85" s="102"/>
+      <c r="B85" s="103"/>
+      <c r="C85" s="103"/>
+      <c r="D85" s="103"/>
+      <c r="E85" s="103"/>
+      <c r="F85" s="104"/>
       <c r="G85" s="18"/>
       <c r="H85" s="58" t="s">
         <v>31</v>
@@ -9146,21 +9290,21 @@
         <f>IF(H85="I",N85*Contagem!$U$11,IF(H85="E",N85*Contagem!$U$13,IF(H85="A",N85*Contagem!$U$12,IF(H85="T",N85*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P85" s="96"/>
-      <c r="Q85" s="97"/>
-      <c r="R85" s="97"/>
-      <c r="S85" s="97"/>
-      <c r="T85" s="97"/>
+      <c r="P85" s="106"/>
+      <c r="Q85" s="107"/>
+      <c r="R85" s="107"/>
+      <c r="S85" s="107"/>
+      <c r="T85" s="107"/>
     </row>
     <row r="86" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A86" s="140" t="s">
+      <c r="A86" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="141"/>
-      <c r="C86" s="141"/>
-      <c r="D86" s="141"/>
-      <c r="E86" s="141"/>
-      <c r="F86" s="142"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="117"/>
+      <c r="E86" s="117"/>
+      <c r="F86" s="118"/>
       <c r="G86" s="57"/>
       <c r="H86" s="58" t="s">
         <v>31</v>
@@ -9187,21 +9331,21 @@
         <f>IF(H86="I",N86*[1]Contagem!$U$11,IF(H86="E",N86*[1]Contagem!$U$13,IF(H86="A",N86*[1]Contagem!$U$12,IF(H86="T",N86*[1]Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P86" s="105"/>
-      <c r="Q86" s="104"/>
-      <c r="R86" s="104"/>
-      <c r="S86" s="104"/>
-      <c r="T86" s="104"/>
+      <c r="P86" s="124"/>
+      <c r="Q86" s="97"/>
+      <c r="R86" s="97"/>
+      <c r="S86" s="97"/>
+      <c r="T86" s="97"/>
     </row>
     <row r="87" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A87" s="137" t="s">
+      <c r="A87" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B87" s="138"/>
-      <c r="C87" s="138"/>
-      <c r="D87" s="138"/>
-      <c r="E87" s="138"/>
-      <c r="F87" s="139"/>
+      <c r="B87" s="110"/>
+      <c r="C87" s="110"/>
+      <c r="D87" s="110"/>
+      <c r="E87" s="110"/>
+      <c r="F87" s="111"/>
       <c r="G87" s="57" t="s">
         <v>30</v>
       </c>
@@ -9234,21 +9378,21 @@
         <f>IF(H87="I",N87*[1]Contagem!$U$11,IF(H87="E",N87*[1]Contagem!$U$13,IF(H87="A",N87*[1]Contagem!$U$12,IF(H87="T",N87*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P87" s="104"/>
-      <c r="Q87" s="104"/>
-      <c r="R87" s="104"/>
-      <c r="S87" s="104"/>
-      <c r="T87" s="104"/>
+      <c r="P87" s="97"/>
+      <c r="Q87" s="97"/>
+      <c r="R87" s="97"/>
+      <c r="S87" s="97"/>
+      <c r="T87" s="97"/>
     </row>
     <row r="88" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A88" s="137" t="s">
+      <c r="A88" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B88" s="138"/>
-      <c r="C88" s="138"/>
-      <c r="D88" s="138"/>
-      <c r="E88" s="138"/>
-      <c r="F88" s="139"/>
+      <c r="B88" s="110"/>
+      <c r="C88" s="110"/>
+      <c r="D88" s="110"/>
+      <c r="E88" s="110"/>
+      <c r="F88" s="111"/>
       <c r="G88" s="57" t="s">
         <v>30</v>
       </c>
@@ -9281,21 +9425,21 @@
         <f>IF(H88="I",N88*[1]Contagem!$U$11,IF(H88="E",N88*[1]Contagem!$U$13,IF(H88="A",N88*[1]Contagem!$U$12,IF(H88="T",N88*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P88" s="104"/>
-      <c r="Q88" s="104"/>
-      <c r="R88" s="104"/>
-      <c r="S88" s="104"/>
-      <c r="T88" s="104"/>
+      <c r="P88" s="97"/>
+      <c r="Q88" s="97"/>
+      <c r="R88" s="97"/>
+      <c r="S88" s="97"/>
+      <c r="T88" s="97"/>
     </row>
     <row r="89" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A89" s="137" t="s">
+      <c r="A89" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="B89" s="138"/>
-      <c r="C89" s="138"/>
-      <c r="D89" s="138"/>
-      <c r="E89" s="138"/>
-      <c r="F89" s="139"/>
+      <c r="B89" s="110"/>
+      <c r="C89" s="110"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="110"/>
+      <c r="F89" s="111"/>
       <c r="G89" s="57" t="s">
         <v>54</v>
       </c>
@@ -9328,21 +9472,21 @@
         <f>IF(H89="I",N89*[1]Contagem!$U$11,IF(H89="E",N89*[1]Contagem!$U$13,IF(H89="A",N89*[1]Contagem!$U$12,IF(H89="T",N89*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P89" s="104"/>
-      <c r="Q89" s="104"/>
-      <c r="R89" s="104"/>
-      <c r="S89" s="104"/>
-      <c r="T89" s="104"/>
+      <c r="P89" s="97"/>
+      <c r="Q89" s="97"/>
+      <c r="R89" s="97"/>
+      <c r="S89" s="97"/>
+      <c r="T89" s="97"/>
     </row>
     <row r="90" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A90" s="137" t="s">
+      <c r="A90" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="B90" s="138"/>
-      <c r="C90" s="138"/>
-      <c r="D90" s="138"/>
-      <c r="E90" s="138"/>
-      <c r="F90" s="139"/>
+      <c r="B90" s="110"/>
+      <c r="C90" s="110"/>
+      <c r="D90" s="110"/>
+      <c r="E90" s="110"/>
+      <c r="F90" s="111"/>
       <c r="G90" s="57" t="s">
         <v>30</v>
       </c>
@@ -9375,21 +9519,21 @@
         <f>IF(H90="I",N90*[1]Contagem!$U$11,IF(H90="E",N90*[1]Contagem!$U$13,IF(H90="A",N90*[1]Contagem!$U$12,IF(H90="T",N90*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P90" s="104"/>
-      <c r="Q90" s="104"/>
-      <c r="R90" s="104"/>
-      <c r="S90" s="104"/>
-      <c r="T90" s="104"/>
+      <c r="P90" s="97"/>
+      <c r="Q90" s="97"/>
+      <c r="R90" s="97"/>
+      <c r="S90" s="97"/>
+      <c r="T90" s="97"/>
     </row>
     <row r="91" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A91" s="137" t="s">
+      <c r="A91" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="B91" s="138"/>
-      <c r="C91" s="138"/>
-      <c r="D91" s="138"/>
-      <c r="E91" s="138"/>
-      <c r="F91" s="139"/>
+      <c r="B91" s="110"/>
+      <c r="C91" s="110"/>
+      <c r="D91" s="110"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="111"/>
       <c r="G91" s="57" t="s">
         <v>49</v>
       </c>
@@ -9422,19 +9566,19 @@
         <f>IF(H91="I",N91*[1]Contagem!$U$11,IF(H91="E",N91*[1]Contagem!$U$13,IF(H91="A",N91*[1]Contagem!$U$12,IF(H91="T",N91*[1]Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P91" s="104"/>
-      <c r="Q91" s="104"/>
-      <c r="R91" s="104"/>
-      <c r="S91" s="104"/>
-      <c r="T91" s="104"/>
+      <c r="P91" s="97"/>
+      <c r="Q91" s="97"/>
+      <c r="R91" s="97"/>
+      <c r="S91" s="97"/>
+      <c r="T91" s="97"/>
     </row>
     <row r="92" spans="1:20" ht="18" customHeight="1">
-      <c r="A92" s="101"/>
-      <c r="B92" s="102"/>
-      <c r="C92" s="102"/>
-      <c r="D92" s="102"/>
-      <c r="E92" s="102"/>
-      <c r="F92" s="103"/>
+      <c r="A92" s="102"/>
+      <c r="B92" s="103"/>
+      <c r="C92" s="103"/>
+      <c r="D92" s="103"/>
+      <c r="E92" s="103"/>
+      <c r="F92" s="104"/>
       <c r="G92" s="18"/>
       <c r="H92" s="58" t="s">
         <v>31</v>
@@ -9461,21 +9605,21 @@
         <f>IF(H92="I",N92*Contagem!$U$11,IF(H92="E",N92*Contagem!$U$13,IF(H92="A",N92*Contagem!$U$12,IF(H92="T",N92*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P92" s="96"/>
-      <c r="Q92" s="97"/>
-      <c r="R92" s="97"/>
-      <c r="S92" s="97"/>
-      <c r="T92" s="97"/>
+      <c r="P92" s="106"/>
+      <c r="Q92" s="107"/>
+      <c r="R92" s="107"/>
+      <c r="S92" s="107"/>
+      <c r="T92" s="107"/>
     </row>
     <row r="93" spans="1:20" ht="18" customHeight="1">
-      <c r="A93" s="133" t="s">
+      <c r="A93" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="133"/>
-      <c r="C93" s="133"/>
-      <c r="D93" s="133"/>
-      <c r="E93" s="133"/>
-      <c r="F93" s="133"/>
+      <c r="B93" s="115"/>
+      <c r="C93" s="115"/>
+      <c r="D93" s="115"/>
+      <c r="E93" s="115"/>
+      <c r="F93" s="115"/>
       <c r="G93" s="57" t="s">
         <v>29</v>
       </c>
@@ -9489,40 +9633,40 @@
         <v>5</v>
       </c>
       <c r="K93" s="57" t="str">
-        <f t="shared" ref="K93:K107" si="12">CONCATENATE(G93,L93)</f>
+        <f t="shared" ref="K93:K106" si="12">CONCATENATE(G93,L93)</f>
         <v>ALIL</v>
       </c>
       <c r="L93" s="66" t="str">
-        <f t="shared" ref="L93:L107" si="13">IF(OR(ISBLANK(I93),ISBLANK(J93)),IF(OR(G93="ALI",G93="AIE"),"L",IF(ISBLANK(G93),"","A")),IF(G93="EE",IF(J93&gt;=3,IF(I93&gt;=5,"H","A"),IF(J93&gt;=2,IF(I93&gt;=16,"H",IF(I93&lt;=4,"L","A")),IF(I93&lt;=15,"L","A"))),IF(OR(G93="SE",G93="CE"),IF(J93&gt;=4,IF(I93&gt;=6,"H","A"),IF(J93&gt;=2,IF(I93&gt;=20,"H",IF(I93&lt;=5,"L","A")),IF(I93&lt;=19,"L","A"))),IF(OR(G93="ALI",G93="AIE"),IF(J93&gt;=6,IF(I93&gt;=20,"H","A"),IF(J93&gt;=2,IF(I93&gt;=51,"H",IF(I93&lt;=19,"L","A")),IF(I93&lt;=50,"L","A")))))))</f>
+        <f t="shared" ref="L93:L106" si="13">IF(OR(ISBLANK(I93),ISBLANK(J93)),IF(OR(G93="ALI",G93="AIE"),"L",IF(ISBLANK(G93),"","A")),IF(G93="EE",IF(J93&gt;=3,IF(I93&gt;=5,"H","A"),IF(J93&gt;=2,IF(I93&gt;=16,"H",IF(I93&lt;=4,"L","A")),IF(I93&lt;=15,"L","A"))),IF(OR(G93="SE",G93="CE"),IF(J93&gt;=4,IF(I93&gt;=6,"H","A"),IF(J93&gt;=2,IF(I93&gt;=20,"H",IF(I93&lt;=5,"L","A")),IF(I93&lt;=19,"L","A"))),IF(OR(G93="ALI",G93="AIE"),IF(J93&gt;=6,IF(I93&gt;=20,"H","A"),IF(J93&gt;=2,IF(I93&gt;=51,"H",IF(I93&lt;=19,"L","A")),IF(I93&lt;=50,"L","A")))))))</f>
         <v>L</v>
       </c>
       <c r="M93" s="61" t="str">
-        <f t="shared" ref="M93:M107" si="14">IF(L93="L","Baixa",IF(L93="A","Média",IF(L93="","","Alta")))</f>
+        <f t="shared" ref="M93:M106" si="14">IF(L93="L","Baixa",IF(L93="A","Média",IF(L93="","","Alta")))</f>
         <v>Baixa</v>
       </c>
       <c r="N93" s="62">
-        <f t="shared" ref="N93:N107" si="15">IF(ISBLANK(G93),"",IF(G93="ALI",IF(L93="L",7,IF(L93="A",10,15)),IF(G93="AIE",IF(L93="L",5,IF(L93="A",7,10)),IF(G93="SE",IF(L93="L",4,IF(L93="A",5,7)),IF(OR(G93="EE",G93="CE"),IF(L93="L",3,IF(L93="A",4,6)))))))</f>
+        <f t="shared" ref="N93:N106" si="15">IF(ISBLANK(G93),"",IF(G93="ALI",IF(L93="L",7,IF(L93="A",10,15)),IF(G93="AIE",IF(L93="L",5,IF(L93="A",7,10)),IF(G93="SE",IF(L93="L",4,IF(L93="A",5,7)),IF(OR(G93="EE",G93="CE"),IF(L93="L",3,IF(L93="A",4,6)))))))</f>
         <v>7</v>
       </c>
       <c r="O93" s="67">
         <f>IF(H93="I",N93*[1]Contagem!$U$11,IF(H93="E",N93*[1]Contagem!$U$13,IF(H93="A",N93*[1]Contagem!$U$12,IF(H93="T",N93*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P93" s="104"/>
-      <c r="Q93" s="104"/>
-      <c r="R93" s="104"/>
-      <c r="S93" s="104"/>
-      <c r="T93" s="104"/>
+      <c r="P93" s="97"/>
+      <c r="Q93" s="97"/>
+      <c r="R93" s="97"/>
+      <c r="S93" s="97"/>
+      <c r="T93" s="97"/>
     </row>
     <row r="94" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A94" s="106" t="s">
+      <c r="A94" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="B94" s="106"/>
-      <c r="C94" s="106"/>
-      <c r="D94" s="106"/>
-      <c r="E94" s="106"/>
-      <c r="F94" s="106"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="96"/>
+      <c r="D94" s="96"/>
+      <c r="E94" s="96"/>
+      <c r="F94" s="96"/>
       <c r="G94" s="57" t="s">
         <v>30</v>
       </c>
@@ -9555,21 +9699,21 @@
         <f>IF(H94="I",N94*[1]Contagem!$U$11,IF(H94="E",N94*[1]Contagem!$U$13,IF(H94="A",N94*[1]Contagem!$U$12,IF(H94="T",N94*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P94" s="104"/>
-      <c r="Q94" s="104"/>
-      <c r="R94" s="104"/>
-      <c r="S94" s="104"/>
-      <c r="T94" s="104"/>
+      <c r="P94" s="97"/>
+      <c r="Q94" s="97"/>
+      <c r="R94" s="97"/>
+      <c r="S94" s="97"/>
+      <c r="T94" s="97"/>
     </row>
     <row r="95" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A95" s="106" t="s">
+      <c r="A95" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B95" s="106"/>
-      <c r="C95" s="106"/>
-      <c r="D95" s="106"/>
-      <c r="E95" s="106"/>
-      <c r="F95" s="106"/>
+      <c r="B95" s="96"/>
+      <c r="C95" s="96"/>
+      <c r="D95" s="96"/>
+      <c r="E95" s="96"/>
+      <c r="F95" s="96"/>
       <c r="G95" s="57" t="s">
         <v>30</v>
       </c>
@@ -9602,21 +9746,21 @@
         <f>IF(H95="I",N95*[1]Contagem!$U$11,IF(H95="E",N95*[1]Contagem!$U$13,IF(H95="A",N95*[1]Contagem!$U$12,IF(H95="T",N95*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P95" s="104"/>
-      <c r="Q95" s="104"/>
-      <c r="R95" s="104"/>
-      <c r="S95" s="104"/>
-      <c r="T95" s="104"/>
+      <c r="P95" s="97"/>
+      <c r="Q95" s="97"/>
+      <c r="R95" s="97"/>
+      <c r="S95" s="97"/>
+      <c r="T95" s="97"/>
     </row>
     <row r="96" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A96" s="106" t="s">
+      <c r="A96" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B96" s="106"/>
-      <c r="C96" s="106"/>
-      <c r="D96" s="106"/>
-      <c r="E96" s="106"/>
-      <c r="F96" s="106"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="96"/>
+      <c r="E96" s="96"/>
+      <c r="F96" s="96"/>
       <c r="G96" s="57" t="s">
         <v>30</v>
       </c>
@@ -9649,21 +9793,21 @@
         <f>IF(H96="I",N96*[1]Contagem!$U$11,IF(H96="E",N96*[1]Contagem!$U$13,IF(H96="A",N96*[1]Contagem!$U$12,IF(H96="T",N96*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P96" s="104"/>
-      <c r="Q96" s="104"/>
-      <c r="R96" s="104"/>
-      <c r="S96" s="104"/>
-      <c r="T96" s="104"/>
+      <c r="P96" s="97"/>
+      <c r="Q96" s="97"/>
+      <c r="R96" s="97"/>
+      <c r="S96" s="97"/>
+      <c r="T96" s="97"/>
     </row>
     <row r="97" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A97" s="117" t="s">
+      <c r="A97" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="B97" s="117"/>
-      <c r="C97" s="117"/>
-      <c r="D97" s="117"/>
-      <c r="E97" s="117"/>
-      <c r="F97" s="117"/>
+      <c r="B97" s="98"/>
+      <c r="C97" s="98"/>
+      <c r="D97" s="98"/>
+      <c r="E97" s="98"/>
+      <c r="F97" s="98"/>
       <c r="G97" s="57" t="s">
         <v>54</v>
       </c>
@@ -9696,19 +9840,19 @@
         <f>IF(H97="I",N97*[1]Contagem!$U$11,IF(H97="E",N97*[1]Contagem!$U$13,IF(H97="A",N97*[1]Contagem!$U$12,IF(H97="T",N97*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P97" s="104"/>
-      <c r="Q97" s="104"/>
-      <c r="R97" s="104"/>
-      <c r="S97" s="104"/>
-      <c r="T97" s="104"/>
+      <c r="P97" s="97"/>
+      <c r="Q97" s="97"/>
+      <c r="R97" s="97"/>
+      <c r="S97" s="97"/>
+      <c r="T97" s="97"/>
     </row>
     <row r="98" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A98" s="117"/>
-      <c r="B98" s="117"/>
-      <c r="C98" s="117"/>
-      <c r="D98" s="117"/>
-      <c r="E98" s="117"/>
-      <c r="F98" s="117"/>
+      <c r="A98" s="98"/>
+      <c r="B98" s="98"/>
+      <c r="C98" s="98"/>
+      <c r="D98" s="98"/>
+      <c r="E98" s="98"/>
+      <c r="F98" s="98"/>
       <c r="G98" s="57"/>
       <c r="H98" s="58" t="s">
         <v>31</v>
@@ -9735,21 +9879,21 @@
         <f>IF(H98="I",N98*[1]Contagem!$U$11,IF(H98="E",N98*[1]Contagem!$U$13,IF(H98="A",N98*[1]Contagem!$U$12,IF(H98="T",N98*[1]Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P98" s="104"/>
-      <c r="Q98" s="104"/>
-      <c r="R98" s="104"/>
-      <c r="S98" s="104"/>
-      <c r="T98" s="104"/>
+      <c r="P98" s="97"/>
+      <c r="Q98" s="97"/>
+      <c r="R98" s="97"/>
+      <c r="S98" s="97"/>
+      <c r="T98" s="97"/>
     </row>
     <row r="99" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A99" s="134" t="s">
+      <c r="A99" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="B99" s="135"/>
-      <c r="C99" s="135"/>
-      <c r="D99" s="135"/>
-      <c r="E99" s="135"/>
-      <c r="F99" s="136"/>
+      <c r="B99" s="113"/>
+      <c r="C99" s="113"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="113"/>
+      <c r="F99" s="114"/>
       <c r="G99" s="57" t="s">
         <v>29</v>
       </c>
@@ -9782,21 +9926,21 @@
         <f>IF(H99="I",N99*[1]Contagem!$U$11,IF(H99="E",N99*[1]Contagem!$U$13,IF(H99="A",N99*[1]Contagem!$U$12,IF(H99="T",N99*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P99" s="104"/>
-      <c r="Q99" s="104"/>
-      <c r="R99" s="104"/>
-      <c r="S99" s="104"/>
-      <c r="T99" s="104"/>
+      <c r="P99" s="97"/>
+      <c r="Q99" s="97"/>
+      <c r="R99" s="97"/>
+      <c r="S99" s="97"/>
+      <c r="T99" s="97"/>
     </row>
     <row r="100" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A100" s="137" t="s">
+      <c r="A100" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="B100" s="138"/>
-      <c r="C100" s="138"/>
-      <c r="D100" s="138"/>
-      <c r="E100" s="138"/>
-      <c r="F100" s="139"/>
+      <c r="B100" s="110"/>
+      <c r="C100" s="110"/>
+      <c r="D100" s="110"/>
+      <c r="E100" s="110"/>
+      <c r="F100" s="111"/>
       <c r="G100" s="57" t="s">
         <v>30</v>
       </c>
@@ -9829,21 +9973,21 @@
         <f>IF(H100="I",N100*[1]Contagem!$U$11,IF(H100="E",N100*[1]Contagem!$U$13,IF(H100="A",N100*[1]Contagem!$U$12,IF(H100="T",N100*[1]Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P100" s="105"/>
-      <c r="Q100" s="104"/>
-      <c r="R100" s="104"/>
-      <c r="S100" s="104"/>
-      <c r="T100" s="104"/>
+      <c r="P100" s="124"/>
+      <c r="Q100" s="97"/>
+      <c r="R100" s="97"/>
+      <c r="S100" s="97"/>
+      <c r="T100" s="97"/>
     </row>
     <row r="101" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A101" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="B101" s="138"/>
-      <c r="C101" s="138"/>
-      <c r="D101" s="138"/>
-      <c r="E101" s="138"/>
-      <c r="F101" s="139"/>
+      <c r="A101" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" s="98"/>
+      <c r="C101" s="98"/>
+      <c r="D101" s="98"/>
+      <c r="E101" s="98"/>
+      <c r="F101" s="98"/>
       <c r="G101" s="57" t="s">
         <v>30</v>
       </c>
@@ -9851,46 +9995,46 @@
         <v>31</v>
       </c>
       <c r="I101" s="57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J101" s="57">
         <v>2</v>
       </c>
       <c r="K101" s="57" t="str">
         <f t="shared" si="12"/>
-        <v>EEA</v>
+        <v>EEL</v>
       </c>
       <c r="L101" s="66" t="str">
         <f t="shared" si="13"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M101" s="61" t="str">
         <f t="shared" si="14"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N101" s="62">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O101" s="67">
         <f>IF(H101="I",N101*[1]Contagem!$U$11,IF(H101="E",N101*[1]Contagem!$U$13,IF(H101="A",N101*[1]Contagem!$U$12,IF(H101="T",N101*[1]Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P101" s="105"/>
-      <c r="Q101" s="104"/>
-      <c r="R101" s="104"/>
-      <c r="S101" s="104"/>
-      <c r="T101" s="104"/>
+        <v>3</v>
+      </c>
+      <c r="P101" s="124"/>
+      <c r="Q101" s="97"/>
+      <c r="R101" s="97"/>
+      <c r="S101" s="97"/>
+      <c r="T101" s="97"/>
     </row>
     <row r="102" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A102" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="B102" s="117"/>
-      <c r="C102" s="117"/>
-      <c r="D102" s="117"/>
-      <c r="E102" s="117"/>
-      <c r="F102" s="117"/>
+      <c r="A102" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" s="98"/>
+      <c r="C102" s="98"/>
+      <c r="D102" s="98"/>
+      <c r="E102" s="98"/>
+      <c r="F102" s="98"/>
       <c r="G102" s="57" t="s">
         <v>30</v>
       </c>
@@ -9898,7 +10042,7 @@
         <v>31</v>
       </c>
       <c r="I102" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J102" s="57">
         <v>2</v>
@@ -9923,154 +10067,154 @@
         <f>IF(H102="I",N102*[1]Contagem!$U$11,IF(H102="E",N102*[1]Contagem!$U$13,IF(H102="A",N102*[1]Contagem!$U$12,IF(H102="T",N102*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P102" s="105"/>
-      <c r="Q102" s="104"/>
-      <c r="R102" s="104"/>
-      <c r="S102" s="104"/>
-      <c r="T102" s="104"/>
+      <c r="P102" s="124"/>
+      <c r="Q102" s="97"/>
+      <c r="R102" s="97"/>
+      <c r="S102" s="97"/>
+      <c r="T102" s="97"/>
     </row>
     <row r="103" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A103" s="117" t="s">
-        <v>111</v>
-      </c>
-      <c r="B103" s="117"/>
-      <c r="C103" s="117"/>
-      <c r="D103" s="117"/>
-      <c r="E103" s="117"/>
-      <c r="F103" s="117"/>
-      <c r="G103" s="57" t="s">
-        <v>30</v>
-      </c>
+      <c r="A103" s="98"/>
+      <c r="B103" s="98"/>
+      <c r="C103" s="98"/>
+      <c r="D103" s="98"/>
+      <c r="E103" s="98"/>
+      <c r="F103" s="98"/>
+      <c r="G103" s="57"/>
       <c r="H103" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I103" s="57">
-        <v>3</v>
-      </c>
-      <c r="J103" s="57">
-        <v>2</v>
-      </c>
+      <c r="I103" s="57"/>
+      <c r="J103" s="57"/>
       <c r="K103" s="57" t="str">
         <f t="shared" si="12"/>
-        <v>EEL</v>
+        <v/>
       </c>
       <c r="L103" s="66" t="str">
         <f t="shared" si="13"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M103" s="61" t="str">
         <f t="shared" si="14"/>
-        <v>Baixa</v>
-      </c>
-      <c r="N103" s="62">
+        <v/>
+      </c>
+      <c r="N103" s="62" t="str">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="O103" s="67">
+        <v/>
+      </c>
+      <c r="O103" s="67" t="e">
         <f>IF(H103="I",N103*[1]Contagem!$U$11,IF(H103="E",N103*[1]Contagem!$U$13,IF(H103="A",N103*[1]Contagem!$U$12,IF(H103="T",N103*[1]Contagem!$U$14,""))))</f>
-        <v>3</v>
-      </c>
-      <c r="P103" s="105"/>
-      <c r="Q103" s="104"/>
-      <c r="R103" s="104"/>
-      <c r="S103" s="104"/>
-      <c r="T103" s="104"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P103" s="97"/>
+      <c r="Q103" s="97"/>
+      <c r="R103" s="97"/>
+      <c r="S103" s="97"/>
+      <c r="T103" s="97"/>
     </row>
     <row r="104" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A104" s="117"/>
-      <c r="B104" s="117"/>
-      <c r="C104" s="117"/>
-      <c r="D104" s="117"/>
-      <c r="E104" s="117"/>
-      <c r="F104" s="117"/>
-      <c r="G104" s="57"/>
+      <c r="A104" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" s="108"/>
+      <c r="C104" s="108"/>
+      <c r="D104" s="108"/>
+      <c r="E104" s="108"/>
+      <c r="F104" s="108"/>
+      <c r="G104" s="57" t="s">
+        <v>29</v>
+      </c>
       <c r="H104" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I104" s="57"/>
-      <c r="J104" s="57"/>
+      <c r="I104" s="57">
+        <v>2</v>
+      </c>
+      <c r="J104" s="57">
+        <v>3</v>
+      </c>
       <c r="K104" s="57" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>ALIL</v>
       </c>
       <c r="L104" s="66" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M104" s="61" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N104" s="62" t="str">
+        <v>Baixa</v>
+      </c>
+      <c r="N104" s="62">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O104" s="67" t="e">
+        <v>7</v>
+      </c>
+      <c r="O104" s="67">
         <f>IF(H104="I",N104*[1]Contagem!$U$11,IF(H104="E",N104*[1]Contagem!$U$13,IF(H104="A",N104*[1]Contagem!$U$12,IF(H104="T",N104*[1]Contagem!$U$14,""))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P104" s="104"/>
-      <c r="Q104" s="104"/>
-      <c r="R104" s="104"/>
-      <c r="S104" s="104"/>
-      <c r="T104" s="104"/>
+        <v>7</v>
+      </c>
+      <c r="P104" s="97"/>
+      <c r="Q104" s="97"/>
+      <c r="R104" s="97"/>
+      <c r="S104" s="97"/>
+      <c r="T104" s="97"/>
     </row>
     <row r="105" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A105" s="143" t="s">
-        <v>112</v>
-      </c>
-      <c r="B105" s="143"/>
-      <c r="C105" s="143"/>
-      <c r="D105" s="143"/>
-      <c r="E105" s="143"/>
-      <c r="F105" s="143"/>
+      <c r="A105" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="98"/>
+      <c r="C105" s="98"/>
+      <c r="D105" s="98"/>
+      <c r="E105" s="98"/>
+      <c r="F105" s="98"/>
       <c r="G105" s="57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H105" s="58" t="s">
         <v>31</v>
       </c>
       <c r="I105" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" s="57">
         <v>3</v>
       </c>
       <c r="K105" s="57" t="str">
         <f t="shared" si="12"/>
-        <v>ALIL</v>
+        <v>EEA</v>
       </c>
       <c r="L105" s="66" t="str">
         <f t="shared" si="13"/>
-        <v>L</v>
+        <v>A</v>
       </c>
       <c r="M105" s="61" t="str">
         <f t="shared" si="14"/>
-        <v>Baixa</v>
+        <v>Média</v>
       </c>
       <c r="N105" s="62">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O105" s="67">
         <f>IF(H105="I",N105*[1]Contagem!$U$11,IF(H105="E",N105*[1]Contagem!$U$13,IF(H105="A",N105*[1]Contagem!$U$12,IF(H105="T",N105*[1]Contagem!$U$14,""))))</f>
-        <v>7</v>
-      </c>
-      <c r="P105" s="104"/>
-      <c r="Q105" s="104"/>
-      <c r="R105" s="104"/>
-      <c r="S105" s="104"/>
-      <c r="T105" s="104"/>
+        <v>4</v>
+      </c>
+      <c r="P105" s="97"/>
+      <c r="Q105" s="97"/>
+      <c r="R105" s="97"/>
+      <c r="S105" s="97"/>
+      <c r="T105" s="97"/>
     </row>
     <row r="106" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A106" s="117" t="s">
-        <v>113</v>
-      </c>
-      <c r="B106" s="117"/>
-      <c r="C106" s="117"/>
-      <c r="D106" s="117"/>
-      <c r="E106" s="117"/>
-      <c r="F106" s="117"/>
+      <c r="A106" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="98"/>
+      <c r="C106" s="98"/>
+      <c r="D106" s="98"/>
+      <c r="E106" s="98"/>
+      <c r="F106" s="98"/>
       <c r="G106" s="57" t="s">
         <v>30</v>
       </c>
@@ -10078,7 +10222,7 @@
         <v>31</v>
       </c>
       <c r="I106" s="57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J106" s="57">
         <v>3</v>
@@ -10103,109 +10247,107 @@
         <f>IF(H106="I",N106*[1]Contagem!$U$11,IF(H106="E",N106*[1]Contagem!$U$13,IF(H106="A",N106*[1]Contagem!$U$12,IF(H106="T",N106*[1]Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P106" s="104"/>
-      <c r="Q106" s="104"/>
-      <c r="R106" s="104"/>
-      <c r="S106" s="104"/>
-      <c r="T106" s="104"/>
-    </row>
-    <row r="107" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A107" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="B107" s="117"/>
-      <c r="C107" s="117"/>
-      <c r="D107" s="117"/>
-      <c r="E107" s="117"/>
-      <c r="F107" s="117"/>
-      <c r="G107" s="57" t="s">
-        <v>30</v>
-      </c>
+      <c r="P106" s="97"/>
+      <c r="Q106" s="97"/>
+      <c r="R106" s="97"/>
+      <c r="S106" s="97"/>
+      <c r="T106" s="97"/>
+    </row>
+    <row r="107" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1">
+      <c r="A107" s="102"/>
+      <c r="B107" s="103"/>
+      <c r="C107" s="103"/>
+      <c r="D107" s="103"/>
+      <c r="E107" s="103"/>
+      <c r="F107" s="104"/>
+      <c r="G107" s="18"/>
       <c r="H107" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I107" s="57">
-        <v>4</v>
-      </c>
-      <c r="J107" s="57">
-        <v>3</v>
-      </c>
-      <c r="K107" s="57" t="str">
-        <f t="shared" si="12"/>
-        <v>EEA</v>
-      </c>
-      <c r="L107" s="66" t="str">
-        <f t="shared" si="13"/>
-        <v>A</v>
-      </c>
-      <c r="M107" s="61" t="str">
-        <f t="shared" si="14"/>
-        <v>Média</v>
-      </c>
-      <c r="N107" s="62">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="O107" s="67">
-        <f>IF(H107="I",N107*[1]Contagem!$U$11,IF(H107="E",N107*[1]Contagem!$U$13,IF(H107="A",N107*[1]Contagem!$U$12,IF(H107="T",N107*[1]Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P107" s="104"/>
-      <c r="Q107" s="104"/>
-      <c r="R107" s="104"/>
-      <c r="S107" s="104"/>
-      <c r="T107" s="104"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18" t="str">
+        <f t="shared" ref="K107:K108" si="20">CONCATENATE(G107,L107)</f>
+        <v/>
+      </c>
+      <c r="L107" s="24" t="str">
+        <f t="shared" ref="L107:L108" si="21">IF(OR(ISBLANK(I107),ISBLANK(J107)),IF(OR(G107="ALI",G107="AIE"),"L",IF(ISBLANK(G107),"","A")),IF(G107="EE",IF(J107&gt;=3,IF(I107&gt;=5,"H","A"),IF(J107&gt;=2,IF(I107&gt;=16,"H",IF(I107&lt;=4,"L","A")),IF(I107&lt;=15,"L","A"))),IF(OR(G107="SE",G107="CE"),IF(J107&gt;=4,IF(I107&gt;=6,"H","A"),IF(J107&gt;=2,IF(I107&gt;=20,"H",IF(I107&lt;=5,"L","A")),IF(I107&lt;=19,"L","A"))),IF(OR(G107="ALI",G107="AIE"),IF(J107&gt;=6,IF(I107&gt;=20,"H","A"),IF(J107&gt;=2,IF(I107&gt;=51,"H",IF(I107&lt;=19,"L","A")),IF(I107&lt;=50,"L","A")))))))</f>
+        <v/>
+      </c>
+      <c r="M107" s="26" t="str">
+        <f t="shared" ref="M107:M108" si="22">IF(L107="L","Baixa",IF(L107="A","Média",IF(L107="","","Alta")))</f>
+        <v/>
+      </c>
+      <c r="N107" s="29" t="str">
+        <f t="shared" ref="N107:N108" si="23">IF(ISBLANK(G107),"",IF(G107="ALI",IF(L107="L",7,IF(L107="A",10,15)),IF(G107="AIE",IF(L107="L",5,IF(L107="A",7,10)),IF(G107="SE",IF(L107="L",4,IF(L107="A",5,7)),IF(OR(G107="EE",G107="CE"),IF(L107="L",3,IF(L107="A",4,6)))))))</f>
+        <v/>
+      </c>
+      <c r="O107" s="32" t="e">
+        <f>IF(H107="I",N107*Contagem!$U$11,IF(H107="E",N107*Contagem!$U$13,IF(H107="A",N107*Contagem!$U$12,IF(H107="T",N107*Contagem!$U$14,""))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P107" s="106"/>
+      <c r="Q107" s="107"/>
+      <c r="R107" s="107"/>
+      <c r="S107" s="107"/>
+      <c r="T107" s="107"/>
     </row>
     <row r="108" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A108" s="101"/>
-      <c r="B108" s="102"/>
-      <c r="C108" s="102"/>
-      <c r="D108" s="102"/>
-      <c r="E108" s="102"/>
-      <c r="F108" s="103"/>
+      <c r="A108" s="141" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="142"/>
+      <c r="C108" s="142"/>
+      <c r="D108" s="142"/>
+      <c r="E108" s="142"/>
+      <c r="F108" s="143"/>
       <c r="G108" s="18"/>
       <c r="H108" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
+      <c r="I108" s="18">
+        <v>4</v>
+      </c>
+      <c r="J108" s="18">
+        <v>2</v>
+      </c>
       <c r="K108" s="18" t="str">
-        <f t="shared" ref="K108:K109" si="20">CONCATENATE(G108,L108)</f>
-        <v/>
-      </c>
-      <c r="L108" s="24" t="str">
-        <f t="shared" ref="L108:L109" si="21">IF(OR(ISBLANK(I108),ISBLANK(J108)),IF(OR(G108="ALI",G108="AIE"),"L",IF(ISBLANK(G108),"","A")),IF(G108="EE",IF(J108&gt;=3,IF(I108&gt;=5,"H","A"),IF(J108&gt;=2,IF(I108&gt;=16,"H",IF(I108&lt;=4,"L","A")),IF(I108&lt;=15,"L","A"))),IF(OR(G108="SE",G108="CE"),IF(J108&gt;=4,IF(I108&gt;=6,"H","A"),IF(J108&gt;=2,IF(I108&gt;=20,"H",IF(I108&lt;=5,"L","A")),IF(I108&lt;=19,"L","A"))),IF(OR(G108="ALI",G108="AIE"),IF(J108&gt;=6,IF(I108&gt;=20,"H","A"),IF(J108&gt;=2,IF(I108&gt;=51,"H",IF(I108&lt;=19,"L","A")),IF(I108&lt;=50,"L","A")))))))</f>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>FALSE</v>
+      </c>
+      <c r="L108" s="24" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="M108" s="26" t="str">
-        <f t="shared" ref="M108:M109" si="22">IF(L108="L","Baixa",IF(L108="A","Média",IF(L108="","","Alta")))</f>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>Alta</v>
       </c>
       <c r="N108" s="29" t="str">
-        <f t="shared" ref="N108:N109" si="23">IF(ISBLANK(G108),"",IF(G108="ALI",IF(L108="L",7,IF(L108="A",10,15)),IF(G108="AIE",IF(L108="L",5,IF(L108="A",7,10)),IF(G108="SE",IF(L108="L",4,IF(L108="A",5,7)),IF(OR(G108="EE",G108="CE"),IF(L108="L",3,IF(L108="A",4,6)))))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O108" s="32" t="e">
         <f>IF(H108="I",N108*Contagem!$U$11,IF(H108="E",N108*Contagem!$U$13,IF(H108="A",N108*Contagem!$U$12,IF(H108="T",N108*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P108" s="96"/>
-      <c r="Q108" s="97"/>
-      <c r="R108" s="97"/>
-      <c r="S108" s="97"/>
-      <c r="T108" s="97"/>
+      <c r="P108" s="106"/>
+      <c r="Q108" s="107"/>
+      <c r="R108" s="107"/>
+      <c r="S108" s="107"/>
+      <c r="T108" s="107"/>
     </row>
     <row r="109" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A109" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="B109" s="99"/>
-      <c r="C109" s="99"/>
-      <c r="D109" s="99"/>
-      <c r="E109" s="99"/>
-      <c r="F109" s="100"/>
+      <c r="A109" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="B109" s="103"/>
+      <c r="C109" s="103"/>
+      <c r="D109" s="103"/>
+      <c r="E109" s="103"/>
+      <c r="F109" s="104"/>
       <c r="G109" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H109" s="58" t="s">
         <v>31</v>
@@ -10217,40 +10359,40 @@
         <v>2</v>
       </c>
       <c r="K109" s="18" t="str">
-        <f t="shared" si="20"/>
-        <v>ALIL</v>
+        <f t="shared" ref="K109:K110" si="24">CONCATENATE(G109,L109)</f>
+        <v>EEL</v>
       </c>
       <c r="L109" s="24" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="L109:L110" si="25">IF(OR(ISBLANK(I109),ISBLANK(J109)),IF(OR(G109="ALI",G109="AIE"),"L",IF(ISBLANK(G109),"","A")),IF(G109="EE",IF(J109&gt;=3,IF(I109&gt;=5,"H","A"),IF(J109&gt;=2,IF(I109&gt;=16,"H",IF(I109&lt;=4,"L","A")),IF(I109&lt;=15,"L","A"))),IF(OR(G109="SE",G109="CE"),IF(J109&gt;=4,IF(I109&gt;=6,"H","A"),IF(J109&gt;=2,IF(I109&gt;=20,"H",IF(I109&lt;=5,"L","A")),IF(I109&lt;=19,"L","A"))),IF(OR(G109="ALI",G109="AIE"),IF(J109&gt;=6,IF(I109&gt;=20,"H","A"),IF(J109&gt;=2,IF(I109&gt;=51,"H",IF(I109&lt;=19,"L","A")),IF(I109&lt;=50,"L","A")))))))</f>
         <v>L</v>
       </c>
       <c r="M109" s="26" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="M109:M110" si="26">IF(L109="L","Baixa",IF(L109="A","Média",IF(L109="","","Alta")))</f>
         <v>Baixa</v>
       </c>
       <c r="N109" s="29">
-        <f t="shared" si="23"/>
-        <v>7</v>
+        <f t="shared" ref="N109:N110" si="27">IF(ISBLANK(G109),"",IF(G109="ALI",IF(L109="L",7,IF(L109="A",10,15)),IF(G109="AIE",IF(L109="L",5,IF(L109="A",7,10)),IF(G109="SE",IF(L109="L",4,IF(L109="A",5,7)),IF(OR(G109="EE",G109="CE"),IF(L109="L",3,IF(L109="A",4,6)))))))</f>
+        <v>3</v>
       </c>
       <c r="O109" s="32">
         <f>IF(H109="I",N109*Contagem!$U$11,IF(H109="E",N109*Contagem!$U$13,IF(H109="A",N109*Contagem!$U$12,IF(H109="T",N109*Contagem!$U$14,""))))</f>
-        <v>7</v>
-      </c>
-      <c r="P109" s="96"/>
-      <c r="Q109" s="97"/>
-      <c r="R109" s="97"/>
-      <c r="S109" s="97"/>
-      <c r="T109" s="97"/>
+        <v>3</v>
+      </c>
+      <c r="P109" s="106"/>
+      <c r="Q109" s="107"/>
+      <c r="R109" s="107"/>
+      <c r="S109" s="107"/>
+      <c r="T109" s="107"/>
     </row>
     <row r="110" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A110" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="B110" s="102"/>
-      <c r="C110" s="102"/>
-      <c r="D110" s="102"/>
-      <c r="E110" s="102"/>
-      <c r="F110" s="103"/>
+      <c r="A110" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="B110" s="103"/>
+      <c r="C110" s="103"/>
+      <c r="D110" s="103"/>
+      <c r="E110" s="103"/>
+      <c r="F110" s="104"/>
       <c r="G110" s="18" t="s">
         <v>30</v>
       </c>
@@ -10264,40 +10406,40 @@
         <v>2</v>
       </c>
       <c r="K110" s="18" t="str">
-        <f t="shared" ref="K110:K111" si="24">CONCATENATE(G110,L110)</f>
+        <f t="shared" si="24"/>
         <v>EEL</v>
       </c>
       <c r="L110" s="24" t="str">
-        <f t="shared" ref="L110:L111" si="25">IF(OR(ISBLANK(I110),ISBLANK(J110)),IF(OR(G110="ALI",G110="AIE"),"L",IF(ISBLANK(G110),"","A")),IF(G110="EE",IF(J110&gt;=3,IF(I110&gt;=5,"H","A"),IF(J110&gt;=2,IF(I110&gt;=16,"H",IF(I110&lt;=4,"L","A")),IF(I110&lt;=15,"L","A"))),IF(OR(G110="SE",G110="CE"),IF(J110&gt;=4,IF(I110&gt;=6,"H","A"),IF(J110&gt;=2,IF(I110&gt;=20,"H",IF(I110&lt;=5,"L","A")),IF(I110&lt;=19,"L","A"))),IF(OR(G110="ALI",G110="AIE"),IF(J110&gt;=6,IF(I110&gt;=20,"H","A"),IF(J110&gt;=2,IF(I110&gt;=51,"H",IF(I110&lt;=19,"L","A")),IF(I110&lt;=50,"L","A")))))))</f>
+        <f t="shared" si="25"/>
         <v>L</v>
       </c>
       <c r="M110" s="26" t="str">
-        <f t="shared" ref="M110:M111" si="26">IF(L110="L","Baixa",IF(L110="A","Média",IF(L110="","","Alta")))</f>
+        <f t="shared" si="26"/>
         <v>Baixa</v>
       </c>
       <c r="N110" s="29">
-        <f t="shared" ref="N110:N111" si="27">IF(ISBLANK(G110),"",IF(G110="ALI",IF(L110="L",7,IF(L110="A",10,15)),IF(G110="AIE",IF(L110="L",5,IF(L110="A",7,10)),IF(G110="SE",IF(L110="L",4,IF(L110="A",5,7)),IF(OR(G110="EE",G110="CE"),IF(L110="L",3,IF(L110="A",4,6)))))))</f>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="O110" s="32">
         <f>IF(H110="I",N110*Contagem!$U$11,IF(H110="E",N110*Contagem!$U$13,IF(H110="A",N110*Contagem!$U$12,IF(H110="T",N110*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P110" s="96"/>
-      <c r="Q110" s="97"/>
-      <c r="R110" s="97"/>
-      <c r="S110" s="97"/>
-      <c r="T110" s="97"/>
+      <c r="P110" s="106"/>
+      <c r="Q110" s="107"/>
+      <c r="R110" s="107"/>
+      <c r="S110" s="107"/>
+      <c r="T110" s="107"/>
     </row>
     <row r="111" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="101" t="s">
-        <v>76</v>
-      </c>
-      <c r="B111" s="102"/>
-      <c r="C111" s="102"/>
-      <c r="D111" s="102"/>
-      <c r="E111" s="102"/>
-      <c r="F111" s="103"/>
+      <c r="A111" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111" s="103"/>
+      <c r="C111" s="103"/>
+      <c r="D111" s="103"/>
+      <c r="E111" s="103"/>
+      <c r="F111" s="104"/>
       <c r="G111" s="18" t="s">
         <v>30</v>
       </c>
@@ -10305,48 +10447,48 @@
         <v>31</v>
       </c>
       <c r="I111" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J111" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K111" s="18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="K111:K112" si="28">CONCATENATE(G111,L111)</f>
         <v>EEL</v>
       </c>
       <c r="L111" s="24" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="L111:L112" si="29">IF(OR(ISBLANK(I111),ISBLANK(J111)),IF(OR(G111="ALI",G111="AIE"),"L",IF(ISBLANK(G111),"","A")),IF(G111="EE",IF(J111&gt;=3,IF(I111&gt;=5,"H","A"),IF(J111&gt;=2,IF(I111&gt;=16,"H",IF(I111&lt;=4,"L","A")),IF(I111&lt;=15,"L","A"))),IF(OR(G111="SE",G111="CE"),IF(J111&gt;=4,IF(I111&gt;=6,"H","A"),IF(J111&gt;=2,IF(I111&gt;=20,"H",IF(I111&lt;=5,"L","A")),IF(I111&lt;=19,"L","A"))),IF(OR(G111="ALI",G111="AIE"),IF(J111&gt;=6,IF(I111&gt;=20,"H","A"),IF(J111&gt;=2,IF(I111&gt;=51,"H",IF(I111&lt;=19,"L","A")),IF(I111&lt;=50,"L","A")))))))</f>
         <v>L</v>
       </c>
       <c r="M111" s="26" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="M111:M112" si="30">IF(L111="L","Baixa",IF(L111="A","Média",IF(L111="","","Alta")))</f>
         <v>Baixa</v>
       </c>
       <c r="N111" s="29">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="N111:N112" si="31">IF(ISBLANK(G111),"",IF(G111="ALI",IF(L111="L",7,IF(L111="A",10,15)),IF(G111="AIE",IF(L111="L",5,IF(L111="A",7,10)),IF(G111="SE",IF(L111="L",4,IF(L111="A",5,7)),IF(OR(G111="EE",G111="CE"),IF(L111="L",3,IF(L111="A",4,6)))))))</f>
         <v>3</v>
       </c>
       <c r="O111" s="32">
         <f>IF(H111="I",N111*Contagem!$U$11,IF(H111="E",N111*Contagem!$U$13,IF(H111="A",N111*Contagem!$U$12,IF(H111="T",N111*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P111" s="96"/>
-      <c r="Q111" s="97"/>
-      <c r="R111" s="97"/>
-      <c r="S111" s="97"/>
-      <c r="T111" s="97"/>
+      <c r="P111" s="106"/>
+      <c r="Q111" s="107"/>
+      <c r="R111" s="107"/>
+      <c r="S111" s="107"/>
+      <c r="T111" s="107"/>
     </row>
     <row r="112" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A112" s="101" t="s">
-        <v>77</v>
-      </c>
-      <c r="B112" s="102"/>
-      <c r="C112" s="102"/>
-      <c r="D112" s="102"/>
-      <c r="E112" s="102"/>
-      <c r="F112" s="103"/>
+      <c r="A112" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" s="103"/>
+      <c r="C112" s="103"/>
+      <c r="D112" s="103"/>
+      <c r="E112" s="103"/>
+      <c r="F112" s="104"/>
       <c r="G112" s="18" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H112" s="58" t="s">
         <v>31</v>
@@ -10355,170 +10497,170 @@
         <v>1</v>
       </c>
       <c r="J112" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K112" s="18" t="str">
-        <f t="shared" ref="K112:K113" si="28">CONCATENATE(G112,L112)</f>
-        <v>EEL</v>
+        <f t="shared" si="28"/>
+        <v>CEL</v>
       </c>
       <c r="L112" s="24" t="str">
-        <f t="shared" ref="L112:L113" si="29">IF(OR(ISBLANK(I112),ISBLANK(J112)),IF(OR(G112="ALI",G112="AIE"),"L",IF(ISBLANK(G112),"","A")),IF(G112="EE",IF(J112&gt;=3,IF(I112&gt;=5,"H","A"),IF(J112&gt;=2,IF(I112&gt;=16,"H",IF(I112&lt;=4,"L","A")),IF(I112&lt;=15,"L","A"))),IF(OR(G112="SE",G112="CE"),IF(J112&gt;=4,IF(I112&gt;=6,"H","A"),IF(J112&gt;=2,IF(I112&gt;=20,"H",IF(I112&lt;=5,"L","A")),IF(I112&lt;=19,"L","A"))),IF(OR(G112="ALI",G112="AIE"),IF(J112&gt;=6,IF(I112&gt;=20,"H","A"),IF(J112&gt;=2,IF(I112&gt;=51,"H",IF(I112&lt;=19,"L","A")),IF(I112&lt;=50,"L","A")))))))</f>
+        <f t="shared" si="29"/>
         <v>L</v>
       </c>
       <c r="M112" s="26" t="str">
-        <f t="shared" ref="M112:M113" si="30">IF(L112="L","Baixa",IF(L112="A","Média",IF(L112="","","Alta")))</f>
+        <f t="shared" si="30"/>
         <v>Baixa</v>
       </c>
       <c r="N112" s="29">
-        <f t="shared" ref="N112:N113" si="31">IF(ISBLANK(G112),"",IF(G112="ALI",IF(L112="L",7,IF(L112="A",10,15)),IF(G112="AIE",IF(L112="L",5,IF(L112="A",7,10)),IF(G112="SE",IF(L112="L",4,IF(L112="A",5,7)),IF(OR(G112="EE",G112="CE"),IF(L112="L",3,IF(L112="A",4,6)))))))</f>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="O112" s="32">
         <f>IF(H112="I",N112*Contagem!$U$11,IF(H112="E",N112*Contagem!$U$13,IF(H112="A",N112*Contagem!$U$12,IF(H112="T",N112*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P112" s="96"/>
-      <c r="Q112" s="97"/>
-      <c r="R112" s="97"/>
-      <c r="S112" s="97"/>
-      <c r="T112" s="97"/>
-    </row>
-    <row r="113" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="B113" s="102"/>
-      <c r="C113" s="102"/>
-      <c r="D113" s="102"/>
-      <c r="E113" s="102"/>
-      <c r="F113" s="103"/>
-      <c r="G113" s="18" t="s">
-        <v>54</v>
-      </c>
+      <c r="P112" s="106"/>
+      <c r="Q112" s="107"/>
+      <c r="R112" s="107"/>
+      <c r="S112" s="107"/>
+      <c r="T112" s="107"/>
+    </row>
+    <row r="113" spans="1:20" ht="18" customHeight="1">
+      <c r="A113" s="102"/>
+      <c r="B113" s="103"/>
+      <c r="C113" s="103"/>
+      <c r="D113" s="103"/>
+      <c r="E113" s="103"/>
+      <c r="F113" s="104"/>
+      <c r="G113" s="18"/>
       <c r="H113" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I113" s="18">
-        <v>1</v>
-      </c>
-      <c r="J113" s="18">
-        <v>2</v>
-      </c>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
       <c r="K113" s="18" t="str">
-        <f t="shared" si="28"/>
-        <v>CEL</v>
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="L113" s="24" t="str">
-        <f t="shared" si="29"/>
-        <v>L</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="M113" s="26" t="str">
-        <f t="shared" si="30"/>
-        <v>Baixa</v>
-      </c>
-      <c r="N113" s="29">
-        <f t="shared" si="31"/>
-        <v>3</v>
-      </c>
-      <c r="O113" s="32">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N113" s="29" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O113" s="32" t="e">
         <f>IF(H113="I",N113*Contagem!$U$11,IF(H113="E",N113*Contagem!$U$13,IF(H113="A",N113*Contagem!$U$12,IF(H113="T",N113*Contagem!$U$14,""))))</f>
-        <v>3</v>
-      </c>
-      <c r="P113" s="96"/>
-      <c r="Q113" s="97"/>
-      <c r="R113" s="97"/>
-      <c r="S113" s="97"/>
-      <c r="T113" s="97"/>
-    </row>
-    <row r="114" spans="1:20" ht="18" customHeight="1">
-      <c r="A114" s="101"/>
-      <c r="B114" s="102"/>
-      <c r="C114" s="102"/>
-      <c r="D114" s="102"/>
-      <c r="E114" s="102"/>
-      <c r="F114" s="103"/>
-      <c r="G114" s="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P113" s="106"/>
+      <c r="Q113" s="107"/>
+      <c r="R113" s="107"/>
+      <c r="S113" s="107"/>
+      <c r="T113" s="107"/>
+    </row>
+    <row r="114" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A114" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" s="113"/>
+      <c r="C114" s="113"/>
+      <c r="D114" s="113"/>
+      <c r="E114" s="113"/>
+      <c r="F114" s="114"/>
+      <c r="G114" s="57"/>
       <c r="H114" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18" t="str">
+      <c r="I114" s="57"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="57" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L114" s="24" t="str">
+      <c r="L114" s="66" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M114" s="26" t="str">
+      <c r="M114" s="61" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N114" s="29" t="str">
+      <c r="N114" s="62" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O114" s="32" t="e">
-        <f>IF(H114="I",N114*Contagem!$U$11,IF(H114="E",N114*Contagem!$U$13,IF(H114="A",N114*Contagem!$U$12,IF(H114="T",N114*Contagem!$U$14,""))))</f>
+      <c r="O114" s="67" t="e">
+        <f>IF(H114="I",N114*[1]Contagem!$U$11,IF(H114="E",N114*[1]Contagem!$U$13,IF(H114="A",N114*[1]Contagem!$U$12,IF(H114="T",N114*[1]Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P114" s="96"/>
+      <c r="P114" s="124"/>
       <c r="Q114" s="97"/>
       <c r="R114" s="97"/>
       <c r="S114" s="97"/>
       <c r="T114" s="97"/>
     </row>
     <row r="115" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="134" t="s">
-        <v>102</v>
-      </c>
-      <c r="B115" s="135"/>
-      <c r="C115" s="135"/>
-      <c r="D115" s="135"/>
-      <c r="E115" s="135"/>
-      <c r="F115" s="136"/>
-      <c r="G115" s="57"/>
+      <c r="A115" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B115" s="98"/>
+      <c r="C115" s="98"/>
+      <c r="D115" s="98"/>
+      <c r="E115" s="98"/>
+      <c r="F115" s="98"/>
+      <c r="G115" s="57" t="s">
+        <v>49</v>
+      </c>
       <c r="H115" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I115" s="57"/>
-      <c r="J115" s="57"/>
+      <c r="I115" s="57">
+        <v>14</v>
+      </c>
+      <c r="J115" s="57">
+        <v>3</v>
+      </c>
       <c r="K115" s="57" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>SEA</v>
       </c>
       <c r="L115" s="66" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M115" s="61" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="N115" s="62" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N115" s="62">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O115" s="67" t="e">
+        <v>5</v>
+      </c>
+      <c r="O115" s="67">
         <f>IF(H115="I",N115*[1]Contagem!$U$11,IF(H115="E",N115*[1]Contagem!$U$13,IF(H115="A",N115*[1]Contagem!$U$12,IF(H115="T",N115*[1]Contagem!$U$14,""))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P115" s="105"/>
-      <c r="Q115" s="104"/>
-      <c r="R115" s="104"/>
-      <c r="S115" s="104"/>
-      <c r="T115" s="104"/>
+        <v>5</v>
+      </c>
+      <c r="P115" s="97"/>
+      <c r="Q115" s="97"/>
+      <c r="R115" s="97"/>
+      <c r="S115" s="97"/>
+      <c r="T115" s="97"/>
     </row>
     <row r="116" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A116" s="117" t="s">
-        <v>103</v>
-      </c>
-      <c r="B116" s="117"/>
-      <c r="C116" s="117"/>
-      <c r="D116" s="117"/>
-      <c r="E116" s="117"/>
-      <c r="F116" s="117"/>
+      <c r="A116" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B116" s="98"/>
+      <c r="C116" s="98"/>
+      <c r="D116" s="98"/>
+      <c r="E116" s="98"/>
+      <c r="F116" s="98"/>
       <c r="G116" s="57" t="s">
         <v>49</v>
       </c>
@@ -10551,21 +10693,21 @@
         <f>IF(H116="I",N116*[1]Contagem!$U$11,IF(H116="E",N116*[1]Contagem!$U$13,IF(H116="A",N116*[1]Contagem!$U$12,IF(H116="T",N116*[1]Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P116" s="104"/>
-      <c r="Q116" s="104"/>
-      <c r="R116" s="104"/>
-      <c r="S116" s="104"/>
-      <c r="T116" s="104"/>
+      <c r="P116" s="97"/>
+      <c r="Q116" s="97"/>
+      <c r="R116" s="97"/>
+      <c r="S116" s="97"/>
+      <c r="T116" s="97"/>
     </row>
     <row r="117" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A117" s="117" t="s">
-        <v>104</v>
-      </c>
-      <c r="B117" s="117"/>
-      <c r="C117" s="117"/>
-      <c r="D117" s="117"/>
-      <c r="E117" s="117"/>
-      <c r="F117" s="117"/>
+      <c r="A117" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B117" s="98"/>
+      <c r="C117" s="98"/>
+      <c r="D117" s="98"/>
+      <c r="E117" s="98"/>
+      <c r="F117" s="98"/>
       <c r="G117" s="57" t="s">
         <v>49</v>
       </c>
@@ -10573,7 +10715,7 @@
         <v>31</v>
       </c>
       <c r="I117" s="57">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J117" s="57">
         <v>3</v>
@@ -10598,21 +10740,21 @@
         <f>IF(H117="I",N117*[1]Contagem!$U$11,IF(H117="E",N117*[1]Contagem!$U$13,IF(H117="A",N117*[1]Contagem!$U$12,IF(H117="T",N117*[1]Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P117" s="104"/>
-      <c r="Q117" s="104"/>
-      <c r="R117" s="104"/>
-      <c r="S117" s="104"/>
-      <c r="T117" s="104"/>
+      <c r="P117" s="97"/>
+      <c r="Q117" s="97"/>
+      <c r="R117" s="97"/>
+      <c r="S117" s="97"/>
+      <c r="T117" s="97"/>
     </row>
     <row r="118" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A118" s="117" t="s">
-        <v>105</v>
-      </c>
-      <c r="B118" s="117"/>
-      <c r="C118" s="117"/>
-      <c r="D118" s="117"/>
-      <c r="E118" s="117"/>
-      <c r="F118" s="117"/>
+      <c r="A118" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="B118" s="98"/>
+      <c r="C118" s="98"/>
+      <c r="D118" s="98"/>
+      <c r="E118" s="98"/>
+      <c r="F118" s="98"/>
       <c r="G118" s="57" t="s">
         <v>49</v>
       </c>
@@ -10620,93 +10762,93 @@
         <v>31</v>
       </c>
       <c r="I118" s="57">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J118" s="57">
         <v>3</v>
       </c>
       <c r="K118" s="57" t="str">
+        <f>CONCATENATE(G118,L118)</f>
+        <v>SEH</v>
+      </c>
+      <c r="L118" s="66" t="str">
+        <f t="shared" si="9"/>
+        <v>H</v>
+      </c>
+      <c r="M118" s="61" t="str">
+        <f>IF(L118="L","Baixa",IF(L118="A","Média",IF(L118="","","Alta")))</f>
+        <v>Alta</v>
+      </c>
+      <c r="N118" s="62">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="O118" s="67">
+        <f>IF(H118="I",N118*[1]Contagem!$U$11,IF(H118="E",N118*[1]Contagem!$U$13,IF(H118="A",N118*[1]Contagem!$U$12,IF(H118="T",N118*[1]Contagem!$U$14,""))))</f>
+        <v>7</v>
+      </c>
+      <c r="P118" s="97"/>
+      <c r="Q118" s="97"/>
+      <c r="R118" s="97"/>
+      <c r="S118" s="97"/>
+      <c r="T118" s="97"/>
+    </row>
+    <row r="119" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A119" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B119" s="98"/>
+      <c r="C119" s="98"/>
+      <c r="D119" s="98"/>
+      <c r="E119" s="98"/>
+      <c r="F119" s="98"/>
+      <c r="G119" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="H119" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I119" s="57">
+        <v>12</v>
+      </c>
+      <c r="J119" s="57">
+        <v>3</v>
+      </c>
+      <c r="K119" s="57" t="str">
         <f t="shared" si="8"/>
         <v>SEA</v>
       </c>
-      <c r="L118" s="66" t="str">
-        <f t="shared" si="9"/>
+      <c r="L119" s="66" t="str">
+        <f>IF(OR(ISBLANK(I119),ISBLANK(J119)),IF(OR(G119="ALI",G119="AIE"),"L",IF(ISBLANK(G119),"","A")),IF(G119="EE",IF(J119&gt;=3,IF(I119&gt;=5,"H","A"),IF(J119&gt;=2,IF(I119&gt;=16,"H",IF(I119&lt;=4,"L","A")),IF(I119&lt;=15,"L","A"))),IF(OR(G119="SE",G119="CE"),IF(J119&gt;=4,IF(I119&gt;=6,"H","A"),IF(J119&gt;=2,IF(I119&gt;=20,"H",IF(I119&lt;=5,"L","A")),IF(I119&lt;=19,"L","A"))),IF(OR(G119="ALI",G119="AIE"),IF(J119&gt;=6,IF(I119&gt;=20,"H","A"),IF(J119&gt;=2,IF(I119&gt;=51,"H",IF(I119&lt;=19,"L","A")),IF(I119&lt;=50,"L","A")))))))</f>
         <v>A</v>
       </c>
-      <c r="M118" s="61" t="str">
+      <c r="M119" s="61" t="str">
         <f t="shared" si="10"/>
         <v>Média</v>
       </c>
-      <c r="N118" s="62">
-        <f t="shared" si="11"/>
+      <c r="N119" s="62">
+        <f>IF(ISBLANK(G119),"",IF(G119="ALI",IF(L119="L",7,IF(L119="A",10,15)),IF(G119="AIE",IF(L119="L",5,IF(L119="A",7,10)),IF(G119="SE",IF(L119="L",4,IF(L119="A",5,7)),IF(OR(G119="EE",G119="CE"),IF(L119="L",3,IF(L119="A",4,6)))))))</f>
         <v>5</v>
-      </c>
-      <c r="O118" s="67">
-        <f>IF(H118="I",N118*[1]Contagem!$U$11,IF(H118="E",N118*[1]Contagem!$U$13,IF(H118="A",N118*[1]Contagem!$U$12,IF(H118="T",N118*[1]Contagem!$U$14,""))))</f>
-        <v>5</v>
-      </c>
-      <c r="P118" s="104"/>
-      <c r="Q118" s="104"/>
-      <c r="R118" s="104"/>
-      <c r="S118" s="104"/>
-      <c r="T118" s="104"/>
-    </row>
-    <row r="119" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A119" s="117" t="s">
-        <v>106</v>
-      </c>
-      <c r="B119" s="117"/>
-      <c r="C119" s="117"/>
-      <c r="D119" s="117"/>
-      <c r="E119" s="117"/>
-      <c r="F119" s="117"/>
-      <c r="G119" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="H119" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="I119" s="57">
-        <v>20</v>
-      </c>
-      <c r="J119" s="57">
-        <v>3</v>
-      </c>
-      <c r="K119" s="57" t="str">
-        <f>CONCATENATE(G119,L119)</f>
-        <v>SEH</v>
-      </c>
-      <c r="L119" s="66" t="str">
-        <f t="shared" si="9"/>
-        <v>H</v>
-      </c>
-      <c r="M119" s="61" t="str">
-        <f>IF(L119="L","Baixa",IF(L119="A","Média",IF(L119="","","Alta")))</f>
-        <v>Alta</v>
-      </c>
-      <c r="N119" s="62">
-        <f t="shared" si="11"/>
-        <v>7</v>
       </c>
       <c r="O119" s="67">
         <f>IF(H119="I",N119*[1]Contagem!$U$11,IF(H119="E",N119*[1]Contagem!$U$13,IF(H119="A",N119*[1]Contagem!$U$12,IF(H119="T",N119*[1]Contagem!$U$14,""))))</f>
-        <v>7</v>
-      </c>
-      <c r="P119" s="104"/>
-      <c r="Q119" s="104"/>
-      <c r="R119" s="104"/>
-      <c r="S119" s="104"/>
-      <c r="T119" s="104"/>
+        <v>5</v>
+      </c>
+      <c r="P119" s="97"/>
+      <c r="Q119" s="97"/>
+      <c r="R119" s="97"/>
+      <c r="S119" s="97"/>
+      <c r="T119" s="97"/>
     </row>
     <row r="120" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="B120" s="117"/>
-      <c r="C120" s="117"/>
-      <c r="D120" s="117"/>
-      <c r="E120" s="117"/>
-      <c r="F120" s="117"/>
+      <c r="A120" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B120" s="110"/>
+      <c r="C120" s="110"/>
+      <c r="D120" s="110"/>
+      <c r="E120" s="110"/>
+      <c r="F120" s="111"/>
       <c r="G120" s="57" t="s">
         <v>49</v>
       </c>
@@ -10714,13 +10856,13 @@
         <v>31</v>
       </c>
       <c r="I120" s="57">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J120" s="57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K120" s="57" t="str">
-        <f t="shared" si="8"/>
+        <f>CONCATENATE(G120,L120)</f>
         <v>SEA</v>
       </c>
       <c r="L120" s="66" t="str">
@@ -10728,7 +10870,7 @@
         <v>A</v>
       </c>
       <c r="M120" s="61" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(L120="L","Baixa",IF(L120="A","Média",IF(L120="","","Alta")))</f>
         <v>Média</v>
       </c>
       <c r="N120" s="62">
@@ -10739,21 +10881,21 @@
         <f>IF(H120="I",N120*[1]Contagem!$U$11,IF(H120="E",N120*[1]Contagem!$U$13,IF(H120="A",N120*[1]Contagem!$U$12,IF(H120="T",N120*[1]Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P120" s="104"/>
-      <c r="Q120" s="104"/>
-      <c r="R120" s="104"/>
-      <c r="S120" s="104"/>
-      <c r="T120" s="104"/>
+      <c r="P120" s="124"/>
+      <c r="Q120" s="97"/>
+      <c r="R120" s="97"/>
+      <c r="S120" s="97"/>
+      <c r="T120" s="97"/>
     </row>
     <row r="121" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="137" t="s">
-        <v>108</v>
-      </c>
-      <c r="B121" s="138"/>
-      <c r="C121" s="138"/>
-      <c r="D121" s="138"/>
-      <c r="E121" s="138"/>
-      <c r="F121" s="139"/>
+      <c r="A121" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B121" s="98"/>
+      <c r="C121" s="98"/>
+      <c r="D121" s="98"/>
+      <c r="E121" s="98"/>
+      <c r="F121" s="98"/>
       <c r="G121" s="57" t="s">
         <v>49</v>
       </c>
@@ -10761,13 +10903,13 @@
         <v>31</v>
       </c>
       <c r="I121" s="57">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J121" s="57">
         <v>2</v>
       </c>
       <c r="K121" s="57" t="str">
-        <f>CONCATENATE(G121,L121)</f>
+        <f t="shared" si="8"/>
         <v>SEA</v>
       </c>
       <c r="L121" s="66" t="str">
@@ -10775,7 +10917,7 @@
         <v>A</v>
       </c>
       <c r="M121" s="61" t="str">
-        <f>IF(L121="L","Baixa",IF(L121="A","Média",IF(L121="","","Alta")))</f>
+        <f t="shared" si="10"/>
         <v>Média</v>
       </c>
       <c r="N121" s="62">
@@ -10786,100 +10928,266 @@
         <f>IF(H121="I",N121*[1]Contagem!$U$11,IF(H121="E",N121*[1]Contagem!$U$13,IF(H121="A",N121*[1]Contagem!$U$12,IF(H121="T",N121*[1]Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P121" s="105"/>
-      <c r="Q121" s="104"/>
-      <c r="R121" s="104"/>
-      <c r="S121" s="104"/>
-      <c r="T121" s="104"/>
-    </row>
-    <row r="122" spans="1:20" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="B122" s="117"/>
-      <c r="C122" s="117"/>
-      <c r="D122" s="117"/>
-      <c r="E122" s="117"/>
-      <c r="F122" s="117"/>
-      <c r="G122" s="57" t="s">
-        <v>49</v>
-      </c>
+      <c r="P121" s="97"/>
+      <c r="Q121" s="97"/>
+      <c r="R121" s="97"/>
+      <c r="S121" s="97"/>
+      <c r="T121" s="97"/>
+    </row>
+    <row r="122" spans="1:20" ht="18" customHeight="1">
+      <c r="A122" s="55"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="56"/>
+      <c r="G122" s="18"/>
       <c r="H122" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I122" s="57">
-        <v>6</v>
-      </c>
-      <c r="J122" s="57">
-        <v>2</v>
-      </c>
-      <c r="K122" s="57" t="str">
-        <f t="shared" si="8"/>
-        <v>SEA</v>
-      </c>
-      <c r="L122" s="66" t="str">
-        <f>IF(OR(ISBLANK(I122),ISBLANK(J122)),IF(OR(G122="ALI",G122="AIE"),"L",IF(ISBLANK(G122),"","A")),IF(G122="EE",IF(J122&gt;=3,IF(I122&gt;=5,"H","A"),IF(J122&gt;=2,IF(I122&gt;=16,"H",IF(I122&lt;=4,"L","A")),IF(I122&lt;=15,"L","A"))),IF(OR(G122="SE",G122="CE"),IF(J122&gt;=4,IF(I122&gt;=6,"H","A"),IF(J122&gt;=2,IF(I122&gt;=20,"H",IF(I122&lt;=5,"L","A")),IF(I122&lt;=19,"L","A"))),IF(OR(G122="ALI",G122="AIE"),IF(J122&gt;=6,IF(I122&gt;=20,"H","A"),IF(J122&gt;=2,IF(I122&gt;=51,"H",IF(I122&lt;=19,"L","A")),IF(I122&lt;=50,"L","A")))))))</f>
-        <v>A</v>
-      </c>
-      <c r="M122" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>Média</v>
-      </c>
-      <c r="N122" s="62">
-        <f>IF(ISBLANK(G122),"",IF(G122="ALI",IF(L122="L",7,IF(L122="A",10,15)),IF(G122="AIE",IF(L122="L",5,IF(L122="A",7,10)),IF(G122="SE",IF(L122="L",4,IF(L122="A",5,7)),IF(OR(G122="EE",G122="CE"),IF(L122="L",3,IF(L122="A",4,6)))))))</f>
-        <v>5</v>
-      </c>
-      <c r="O122" s="67">
-        <f>IF(H122="I",N122*[1]Contagem!$U$11,IF(H122="E",N122*[1]Contagem!$U$13,IF(H122="A",N122*[1]Contagem!$U$12,IF(H122="T",N122*[1]Contagem!$U$14,""))))</f>
-        <v>5</v>
-      </c>
-      <c r="P122" s="104"/>
-      <c r="Q122" s="104"/>
-      <c r="R122" s="104"/>
-      <c r="S122" s="104"/>
-      <c r="T122" s="104"/>
-    </row>
-    <row r="123" spans="1:20" ht="18" customHeight="1">
-      <c r="A123" s="55"/>
-      <c r="B123" s="34"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="56"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18" t="str">
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L123" s="24" t="str">
+      <c r="L122" s="24" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M123" s="26" t="str">
+      <c r="M122" s="26" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N123" s="29" t="str">
+      <c r="N122" s="29" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="O123" s="32" t="e">
-        <f>IF(H123="I",N123*Contagem!$U$11,IF(H123="E",N123*Contagem!$U$13,IF(H123="A",N123*Contagem!$U$12,IF(H123="T",N123*Contagem!$U$14,""))))</f>
+      <c r="O122" s="32" t="e">
+        <f>IF(H122="I",N122*Contagem!$U$11,IF(H122="E",N122*Contagem!$U$13,IF(H122="A",N122*Contagem!$U$12,IF(H122="T",N122*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P123" s="96"/>
-      <c r="Q123" s="97"/>
-      <c r="R123" s="97"/>
-      <c r="S123" s="97"/>
-      <c r="T123" s="97"/>
+      <c r="P122" s="106"/>
+      <c r="Q122" s="107"/>
+      <c r="R122" s="107"/>
+      <c r="S122" s="107"/>
+      <c r="T122" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="239">
+  <mergeCells count="237">
+    <mergeCell ref="P107:T107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="P108:T108"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="P111:T111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="P112:T112"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="P109:T109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="P110:T110"/>
+    <mergeCell ref="P119:T119"/>
+    <mergeCell ref="P120:T120"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="P121:T121"/>
+    <mergeCell ref="P122:T122"/>
+    <mergeCell ref="P116:T116"/>
+    <mergeCell ref="P89:T89"/>
+    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="P83:T83"/>
+    <mergeCell ref="P84:T84"/>
+    <mergeCell ref="P85:T85"/>
+    <mergeCell ref="P86:T86"/>
+    <mergeCell ref="P87:T87"/>
+    <mergeCell ref="P88:T88"/>
+    <mergeCell ref="P104:T104"/>
+    <mergeCell ref="P100:T100"/>
+    <mergeCell ref="P103:T103"/>
+    <mergeCell ref="P102:T102"/>
+    <mergeCell ref="P101:T101"/>
+    <mergeCell ref="P106:T106"/>
+    <mergeCell ref="P113:T113"/>
+    <mergeCell ref="P114:T114"/>
+    <mergeCell ref="P115:T115"/>
+    <mergeCell ref="P117:T117"/>
+    <mergeCell ref="P118:T118"/>
+    <mergeCell ref="P105:T105"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P99:T99"/>
+    <mergeCell ref="P98:T98"/>
+    <mergeCell ref="P97:T97"/>
+    <mergeCell ref="P91:T91"/>
+    <mergeCell ref="P94:T94"/>
+    <mergeCell ref="P95:T95"/>
+    <mergeCell ref="P96:T96"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="P92:T92"/>
+    <mergeCell ref="P93:T93"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="P77:T77"/>
+    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A1:O3"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="P29:T29"/>
     <mergeCell ref="A38:F38"/>
@@ -10904,221 +11212,6 @@
     <mergeCell ref="P34:T34"/>
     <mergeCell ref="P35:T35"/>
     <mergeCell ref="P36:T36"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A1:O3"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="P90:T90"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P99:T99"/>
-    <mergeCell ref="P98:T98"/>
-    <mergeCell ref="P97:T97"/>
-    <mergeCell ref="P91:T91"/>
-    <mergeCell ref="P94:T94"/>
-    <mergeCell ref="P95:T95"/>
-    <mergeCell ref="P96:T96"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="P92:T92"/>
-    <mergeCell ref="P93:T93"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="P74:T74"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="P78:T78"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="P122:T122"/>
-    <mergeCell ref="P123:T123"/>
-    <mergeCell ref="P117:T117"/>
-    <mergeCell ref="P89:T89"/>
-    <mergeCell ref="P82:T82"/>
-    <mergeCell ref="P83:T83"/>
-    <mergeCell ref="P84:T84"/>
-    <mergeCell ref="P85:T85"/>
-    <mergeCell ref="P86:T86"/>
-    <mergeCell ref="P87:T87"/>
-    <mergeCell ref="P88:T88"/>
-    <mergeCell ref="P105:T105"/>
-    <mergeCell ref="P100:T100"/>
-    <mergeCell ref="P101:T101"/>
-    <mergeCell ref="P104:T104"/>
-    <mergeCell ref="P103:T103"/>
-    <mergeCell ref="P102:T102"/>
-    <mergeCell ref="P107:T107"/>
-    <mergeCell ref="P114:T114"/>
-    <mergeCell ref="P115:T115"/>
-    <mergeCell ref="P116:T116"/>
-    <mergeCell ref="P118:T118"/>
-    <mergeCell ref="P119:T119"/>
-    <mergeCell ref="P106:T106"/>
-    <mergeCell ref="P120:T120"/>
-    <mergeCell ref="P121:T121"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="P108:T108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="P109:T109"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="P112:T112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="P113:T113"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="P110:T110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="P111:T111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11152,88 +11245,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="158"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="147"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="121"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="159"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="148"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="154"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="148"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="150"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="145" t="str">
+      <c r="A4" s="151" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="149" t="str">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="154" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="150"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="155"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="145" t="str">
+      <c r="A5" s="151" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="149" t="str">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="154" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="150"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="155"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="3" t="str">
@@ -11244,58 +11337,58 @@
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="152" t="str">
+      <c r="F6" s="157" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 500</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="152" t="str">
+      <c r="G6" s="83"/>
+      <c r="H6" s="157" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
-        <v xml:space="preserve"> Custo= R$ 217.500,00</v>
-      </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="151" t="str">
+        <v xml:space="preserve"> Custo= R$ 212.000,00</v>
+      </c>
+      <c r="I6" s="82"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="156" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 435</v>
-      </c>
-      <c r="L6" s="150"/>
+        <v>PF  = 424</v>
+      </c>
+      <c r="L6" s="155"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="155" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="146" t="s">
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146" t="s">
+      <c r="H7" s="152"/>
+      <c r="I7" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="147"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="147"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="153"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="154"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="148"/>
+      <c r="A8" s="149"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="150"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="13"/>
@@ -11342,7 +11435,7 @@
       <c r="B11" s="17"/>
       <c r="C11" s="20">
         <f>COUNTIF(CF,"EEA")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="21" t="s">
@@ -11353,7 +11446,7 @@
       </c>
       <c r="G11" s="20">
         <f>C11*4</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="22"/>
@@ -11406,7 +11499,7 @@
       </c>
       <c r="C14" s="20">
         <f>SUM(C10:C12)</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -11415,12 +11508,12 @@
       </c>
       <c r="G14" s="20">
         <f>SUM(G10:G12)</f>
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="30">
         <f>IF($G$45&lt;&gt;0,G14/$G$45,"")</f>
-        <v>0.55402298850574716</v>
+        <v>0.55896226415094341</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
@@ -11563,7 +11656,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="35">
         <f>IF($G$45&lt;&gt;0,G21/$G$45,"")</f>
-        <v>9.4252873563218389E-2</v>
+        <v>9.6698113207547176E-2</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
@@ -11706,7 +11799,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="39">
         <f>IF($G$45&lt;&gt;0,G28/$G$45,"")</f>
-        <v>9.8850574712643677E-2</v>
+        <v>0.10141509433962265</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -11747,7 +11840,7 @@
       </c>
       <c r="C31" s="20">
         <f>COUNTIF(CF,"ALIL")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
@@ -11758,7 +11851,7 @@
       </c>
       <c r="G31" s="20">
         <f>C31*7</f>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
@@ -11835,7 +11928,7 @@
       </c>
       <c r="C35" s="20">
         <f>SUM(C31:C33)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -11844,12 +11937,12 @@
       </c>
       <c r="G35" s="20">
         <f>SUM(G31:G33)</f>
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="40">
         <f>IF($G$45&lt;&gt;0,G35/$G$45,"")</f>
-        <v>0.25287356321839083</v>
+        <v>0.24292452830188679</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -12037,7 +12130,7 @@
       <c r="F45" s="17"/>
       <c r="G45" s="20">
         <f>SUM(G14+G21+G28+G35+G42)</f>
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
@@ -12056,7 +12149,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="20">
         <f>(C10+C11+C12)*4+(C17+C18+C19)*5+(C24+C25+C26)*4+(C31+C32+C33)*7+(C38+C39+C40)*5</f>
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -12075,7 +12168,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="20">
         <f>(C31+C32+C33)*35+(C38+C39+C40)*15</f>
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
@@ -12194,11 +12287,11 @@
       <c r="B55" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="75"/>
-      <c r="D55" s="73"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="43">
-        <f>SUMIF(Funções!$H$8:$H$123,"I",Funções!$N$8:$N$123)</f>
-        <v>435</v>
+        <f>SUMIF(Funções!$H$8:$H$122,"I",Funções!$N$8:$N$122)</f>
+        <v>424</v>
       </c>
       <c r="F55" s="43">
         <f>Contagem!U11</f>
@@ -12206,7 +12299,7 @@
       </c>
       <c r="G55" s="43">
         <f t="shared" ref="G55:G58" si="0">F55*E55</f>
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="H55" s="44"/>
       <c r="I55" s="44"/>
@@ -12221,10 +12314,10 @@
       <c r="B56" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="73"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
       <c r="E56" s="43">
-        <f>SUMIF(Funções!$H$8:$H$123,"A",Funções!$N$8:$N$123)</f>
+        <f>SUMIF(Funções!$H$8:$H$122,"A",Funções!$N$8:$N$122)</f>
         <v>0</v>
       </c>
       <c r="F56" s="43">
@@ -12240,7 +12333,7 @@
       <c r="J56" s="44"/>
       <c r="K56" s="46">
         <f>Contagem!W5</f>
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="L56" s="25"/>
     </row>
@@ -12249,10 +12342,10 @@
       <c r="B57" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="75"/>
-      <c r="D57" s="73"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="83"/>
       <c r="E57" s="43">
-        <f>SUMIF(Funções!$H$8:$H$123,"E",Funções!$N$8:$N$123)</f>
+        <f>SUMIF(Funções!$H$8:$H$122,"E",Funções!$N$8:$N$122)</f>
         <v>0</v>
       </c>
       <c r="F57" s="43">
@@ -12274,10 +12367,10 @@
       <c r="B58" s="144" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="75"/>
-      <c r="D58" s="73"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="83"/>
       <c r="E58" s="43">
-        <f>SUMIF(Funções!$H$8:$H$123,"T",Funções!$N$8:$N$123)</f>
+        <f>SUMIF(Funções!$H$8:$H$122,"T",Funções!$N$8:$N$122)</f>
         <v>0</v>
       </c>
       <c r="F58" s="43">
@@ -12310,6 +12403,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="A1:L3"/>
     <mergeCell ref="B58:D58"/>
@@ -12326,8 +12421,6 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:F8"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B55:D55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/2-Requisitos/1.5-Planilha_de_Contagem/nova contagem.xlsx
+++ b/2-Requisitos/1.5-Planilha_de_Contagem/nova contagem.xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="111">
   <si>
     <t>Sumário da Contagem</t>
   </si>
@@ -568,25 +568,10 @@
     <t>Relatórios</t>
   </si>
   <si>
-    <t>Contas a Receber</t>
-  </si>
-  <si>
-    <t>Contas a Pagar</t>
-  </si>
-  <si>
-    <t>DRE</t>
-  </si>
-  <si>
     <t>Razão</t>
   </si>
   <si>
     <t>Livro Diário</t>
-  </si>
-  <si>
-    <t>Balancete</t>
-  </si>
-  <si>
-    <t>Declaração Sem Pendências</t>
   </si>
   <si>
     <t>Realizar Leitura Gás</t>
@@ -1548,8 +1533,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1559,14 +1560,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1574,25 +1579,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1603,29 +1591,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1637,6 +1616,60 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1662,69 +1695,29 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1732,7 +1725,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1746,16 +1738,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2351,6 +2336,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2996,6 +3029,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3609,6 +3690,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3642,9 +3771,7 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="U14">
-            <v>0</v>
-          </cell>
+          <cell r="U14"/>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -3941,36 +4068,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="72"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="80"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
@@ -3979,34 +4106,34 @@
       <c r="AI1" s="2"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="75"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="83"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -4016,34 +4143,34 @@
       <c r="AI2" s="2"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="78"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="86"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -4053,45 +4180,45 @@
       <c r="AI3" s="2"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="82" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="81"/>
+      <c r="S4" s="71"/>
       <c r="T4" s="4">
         <v>500</v>
       </c>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="81"/>
-      <c r="W4" s="84">
+      <c r="V4" s="71"/>
+      <c r="W4" s="92">
         <f>W5*T4</f>
-        <v>217500</v>
-      </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="81"/>
+        <v>205500</v>
+      </c>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="71"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
@@ -4101,41 +4228,41 @@
       <c r="AI4" s="2"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="82" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="81"/>
-      <c r="W5" s="86">
+      <c r="V5" s="71"/>
+      <c r="W5" s="74">
         <f>SUM(Y11:Y14)</f>
-        <v>435</v>
-      </c>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="81"/>
+        <v>411</v>
+      </c>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="71"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
@@ -4145,36 +4272,36 @@
       <c r="AI5" s="2"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="81"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="71"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -4184,38 +4311,38 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="92" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="V7" s="80"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="81"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="71"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -4225,38 +4352,38 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="92" t="s">
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="V8" s="80"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="81"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="71"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -4302,46 +4429,46 @@
       <c r="AI9" s="2"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="91" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="81"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="19"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="89" t="s">
+      <c r="O10" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="82" t="s">
+      <c r="P10" s="79"/>
+      <c r="Q10" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="82" t="s">
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="82" t="s">
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="81"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="71"/>
       <c r="AC10" s="23"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -4351,46 +4478,46 @@
       <c r="AI10" s="2"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="91" t="s">
+      <c r="A11" s="81"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="81"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="71"/>
       <c r="L11" s="19"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="92" t="s">
+      <c r="O11" s="81"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="81"/>
-      <c r="S11" s="86">
+      <c r="R11" s="71"/>
+      <c r="S11" s="74">
         <f>Sumário!E55</f>
-        <v>435</v>
-      </c>
-      <c r="T11" s="81"/>
-      <c r="U11" s="90">
+        <v>411</v>
+      </c>
+      <c r="T11" s="71"/>
+      <c r="U11" s="75">
         <v>1</v>
       </c>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="86">
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="74">
         <f t="shared" ref="Y11:Y14" si="0">S11*U11</f>
-        <v>435</v>
-      </c>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="81"/>
+        <v>411</v>
+      </c>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="71"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -4400,46 +4527,46 @@
       <c r="AI11" s="2"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
-      <c r="A12" s="73"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="91" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="81"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="19"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="92" t="s">
+      <c r="O12" s="81"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="R12" s="80"/>
-      <c r="S12" s="86">
+      <c r="R12" s="73"/>
+      <c r="S12" s="74">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="81"/>
-      <c r="U12" s="90">
+      <c r="T12" s="71"/>
+      <c r="U12" s="75">
         <v>1</v>
       </c>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="86">
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="81"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="71"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -4449,46 +4576,46 @@
       <c r="AI12" s="2"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="91" t="s">
+      <c r="A13" s="81"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="71"/>
       <c r="L13" s="19"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="92" t="s">
+      <c r="O13" s="81"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="80"/>
-      <c r="S13" s="86">
+      <c r="R13" s="73"/>
+      <c r="S13" s="74">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="81"/>
-      <c r="U13" s="90">
+      <c r="T13" s="71"/>
+      <c r="U13" s="75">
         <v>1</v>
       </c>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="86">
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="81"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="71"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -4498,8 +4625,8 @@
       <c r="AI13" s="2"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -4512,26 +4639,26 @@
       <c r="L14" s="2"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="86">
+      <c r="O14" s="84"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="74">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="81"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="86">
+      <c r="T14" s="71"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="81"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="71"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -4591,17 +4718,17 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="88" t="s">
+      <c r="K16" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -4620,34 +4747,34 @@
       <c r="AI16" s="2"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="87"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="72"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="80"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -4657,34 +4784,34 @@
       <c r="AI17" s="2"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="75"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="83"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -4694,34 +4821,34 @@
       <c r="AI18" s="2"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="75"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="83"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
@@ -4731,34 +4858,34 @@
       <c r="AI19" s="2"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
-      <c r="A20" s="73"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="74"/>
-      <c r="AB20" s="75"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="83"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
@@ -4768,34 +4895,34 @@
       <c r="AI20" s="2"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
-      <c r="A21" s="73"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="75"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="83"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -4805,34 +4932,34 @@
       <c r="AI21" s="2"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="75"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="83"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
@@ -4842,34 +4969,34 @@
       <c r="AI22" s="2"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="75"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="83"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
@@ -4879,34 +5006,34 @@
       <c r="AI23" s="2"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="75"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="83"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
@@ -4916,34 +5043,34 @@
       <c r="AI24" s="2"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
-      <c r="A25" s="73"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="75"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="83"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
@@ -4953,34 +5080,34 @@
       <c r="AI25" s="2"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
-      <c r="A26" s="73"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="74"/>
-      <c r="AA26" s="74"/>
-      <c r="AB26" s="75"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="83"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -4990,34 +5117,34 @@
       <c r="AI26" s="2"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="74"/>
-      <c r="AA27" s="74"/>
-      <c r="AB27" s="75"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="82"/>
+      <c r="AB27" s="83"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
@@ -5027,34 +5154,34 @@
       <c r="AI27" s="2"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
-      <c r="A28" s="73"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="74"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="74"/>
-      <c r="X28" s="74"/>
-      <c r="Y28" s="74"/>
-      <c r="Z28" s="74"/>
-      <c r="AA28" s="74"/>
-      <c r="AB28" s="75"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="82"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="82"/>
+      <c r="AB28" s="83"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
@@ -5064,34 +5191,34 @@
       <c r="AI28" s="2"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
-      <c r="A29" s="73"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="74"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="74"/>
-      <c r="AA29" s="74"/>
-      <c r="AB29" s="75"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="82"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="82"/>
+      <c r="AB29" s="83"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
@@ -5101,34 +5228,34 @@
       <c r="AI29" s="2"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
-      <c r="A30" s="73"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="74"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="74"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="74"/>
-      <c r="AA30" s="74"/>
-      <c r="AB30" s="75"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="83"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -5138,34 +5265,34 @@
       <c r="AI30" s="2"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
-      <c r="A31" s="73"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="74"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="74"/>
-      <c r="AA31" s="74"/>
-      <c r="AB31" s="75"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="83"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
@@ -5175,34 +5302,34 @@
       <c r="AI31" s="2"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
-      <c r="A32" s="73"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="74"/>
-      <c r="T32" s="74"/>
-      <c r="U32" s="74"/>
-      <c r="V32" s="74"/>
-      <c r="W32" s="74"/>
-      <c r="X32" s="74"/>
-      <c r="Y32" s="74"/>
-      <c r="Z32" s="74"/>
-      <c r="AA32" s="74"/>
-      <c r="AB32" s="75"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="82"/>
+      <c r="AB32" s="83"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
@@ -5212,34 +5339,34 @@
       <c r="AI32" s="2"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
-      <c r="A33" s="73"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74"/>
-      <c r="U33" s="74"/>
-      <c r="V33" s="74"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="74"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="74"/>
-      <c r="AA33" s="74"/>
-      <c r="AB33" s="75"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="82"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="82"/>
+      <c r="U33" s="82"/>
+      <c r="V33" s="82"/>
+      <c r="W33" s="82"/>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="82"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="82"/>
+      <c r="AB33" s="83"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
@@ -5249,34 +5376,34 @@
       <c r="AI33" s="2"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
-      <c r="A34" s="73"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="74"/>
-      <c r="S34" s="74"/>
-      <c r="T34" s="74"/>
-      <c r="U34" s="74"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="74"/>
-      <c r="Y34" s="74"/>
-      <c r="Z34" s="74"/>
-      <c r="AA34" s="74"/>
-      <c r="AB34" s="75"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="82"/>
+      <c r="AB34" s="83"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
@@ -5286,34 +5413,34 @@
       <c r="AI34" s="2"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
-      <c r="A35" s="73"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74"/>
-      <c r="U35" s="74"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="74"/>
-      <c r="AB35" s="75"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="83"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
@@ -5323,34 +5450,34 @@
       <c r="AI35" s="2"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
-      <c r="A36" s="73"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
-      <c r="T36" s="74"/>
-      <c r="U36" s="74"/>
-      <c r="V36" s="74"/>
-      <c r="W36" s="74"/>
-      <c r="X36" s="74"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="74"/>
-      <c r="AA36" s="74"/>
-      <c r="AB36" s="75"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="83"/>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
@@ -5360,34 +5487,34 @@
       <c r="AI36" s="2"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
-      <c r="A37" s="73"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="74"/>
-      <c r="AA37" s="74"/>
-      <c r="AB37" s="75"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="82"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="82"/>
+      <c r="W37" s="82"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="82"/>
+      <c r="Z37" s="82"/>
+      <c r="AA37" s="82"/>
+      <c r="AB37" s="83"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
@@ -5397,34 +5524,34 @@
       <c r="AI37" s="2"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
-      <c r="A38" s="76"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="77"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="77"/>
-      <c r="S38" s="77"/>
-      <c r="T38" s="77"/>
-      <c r="U38" s="77"/>
-      <c r="V38" s="77"/>
-      <c r="W38" s="77"/>
-      <c r="X38" s="77"/>
-      <c r="Y38" s="77"/>
-      <c r="Z38" s="77"/>
-      <c r="AA38" s="77"/>
-      <c r="AB38" s="78"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="85"/>
+      <c r="X38" s="85"/>
+      <c r="Y38" s="85"/>
+      <c r="Z38" s="85"/>
+      <c r="AA38" s="85"/>
+      <c r="AB38" s="86"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
@@ -5481,17 +5608,17 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="88" t="s">
+      <c r="K40" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="77"/>
-      <c r="R40" s="77"/>
-      <c r="S40" s="77"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -5510,34 +5637,34 @@
       <c r="AI40" s="2"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="87"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
-      <c r="W41" s="71"/>
-      <c r="X41" s="71"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="71"/>
-      <c r="AB41" s="72"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="79"/>
+      <c r="U41" s="79"/>
+      <c r="V41" s="79"/>
+      <c r="W41" s="79"/>
+      <c r="X41" s="79"/>
+      <c r="Y41" s="79"/>
+      <c r="Z41" s="79"/>
+      <c r="AA41" s="79"/>
+      <c r="AB41" s="80"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
@@ -5547,34 +5674,34 @@
       <c r="AI41" s="2"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
-      <c r="A42" s="73"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
-      <c r="T42" s="74"/>
-      <c r="U42" s="74"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
-      <c r="X42" s="74"/>
-      <c r="Y42" s="74"/>
-      <c r="Z42" s="74"/>
-      <c r="AA42" s="74"/>
-      <c r="AB42" s="75"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="82"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="82"/>
+      <c r="U42" s="82"/>
+      <c r="V42" s="82"/>
+      <c r="W42" s="82"/>
+      <c r="X42" s="82"/>
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="82"/>
+      <c r="AA42" s="82"/>
+      <c r="AB42" s="83"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
@@ -5584,34 +5711,34 @@
       <c r="AI42" s="2"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
-      <c r="A43" s="73"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
-      <c r="T43" s="74"/>
-      <c r="U43" s="74"/>
-      <c r="V43" s="74"/>
-      <c r="W43" s="74"/>
-      <c r="X43" s="74"/>
-      <c r="Y43" s="74"/>
-      <c r="Z43" s="74"/>
-      <c r="AA43" s="74"/>
-      <c r="AB43" s="75"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="82"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="82"/>
+      <c r="U43" s="82"/>
+      <c r="V43" s="82"/>
+      <c r="W43" s="82"/>
+      <c r="X43" s="82"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="82"/>
+      <c r="AA43" s="82"/>
+      <c r="AB43" s="83"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
@@ -5621,34 +5748,34 @@
       <c r="AI43" s="2"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
-      <c r="A44" s="73"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="74"/>
-      <c r="S44" s="74"/>
-      <c r="T44" s="74"/>
-      <c r="U44" s="74"/>
-      <c r="V44" s="74"/>
-      <c r="W44" s="74"/>
-      <c r="X44" s="74"/>
-      <c r="Y44" s="74"/>
-      <c r="Z44" s="74"/>
-      <c r="AA44" s="74"/>
-      <c r="AB44" s="75"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="82"/>
+      <c r="R44" s="82"/>
+      <c r="S44" s="82"/>
+      <c r="T44" s="82"/>
+      <c r="U44" s="82"/>
+      <c r="V44" s="82"/>
+      <c r="W44" s="82"/>
+      <c r="X44" s="82"/>
+      <c r="Y44" s="82"/>
+      <c r="Z44" s="82"/>
+      <c r="AA44" s="82"/>
+      <c r="AB44" s="83"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
@@ -5658,34 +5785,34 @@
       <c r="AI44" s="2"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
-      <c r="A45" s="73"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="74"/>
-      <c r="R45" s="74"/>
-      <c r="S45" s="74"/>
-      <c r="T45" s="74"/>
-      <c r="U45" s="74"/>
-      <c r="V45" s="74"/>
-      <c r="W45" s="74"/>
-      <c r="X45" s="74"/>
-      <c r="Y45" s="74"/>
-      <c r="Z45" s="74"/>
-      <c r="AA45" s="74"/>
-      <c r="AB45" s="75"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="82"/>
+      <c r="AA45" s="82"/>
+      <c r="AB45" s="83"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
@@ -5695,34 +5822,34 @@
       <c r="AI45" s="2"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
-      <c r="A46" s="73"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
-      <c r="T46" s="74"/>
-      <c r="U46" s="74"/>
-      <c r="V46" s="74"/>
-      <c r="W46" s="74"/>
-      <c r="X46" s="74"/>
-      <c r="Y46" s="74"/>
-      <c r="Z46" s="74"/>
-      <c r="AA46" s="74"/>
-      <c r="AB46" s="75"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
+      <c r="O46" s="82"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="82"/>
+      <c r="R46" s="82"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="82"/>
+      <c r="U46" s="82"/>
+      <c r="V46" s="82"/>
+      <c r="W46" s="82"/>
+      <c r="X46" s="82"/>
+      <c r="Y46" s="82"/>
+      <c r="Z46" s="82"/>
+      <c r="AA46" s="82"/>
+      <c r="AB46" s="83"/>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
@@ -5732,34 +5859,34 @@
       <c r="AI46" s="2"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
-      <c r="A47" s="73"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
-      <c r="T47" s="74"/>
-      <c r="U47" s="74"/>
-      <c r="V47" s="74"/>
-      <c r="W47" s="74"/>
-      <c r="X47" s="74"/>
-      <c r="Y47" s="74"/>
-      <c r="Z47" s="74"/>
-      <c r="AA47" s="74"/>
-      <c r="AB47" s="75"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="82"/>
+      <c r="T47" s="82"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="82"/>
+      <c r="W47" s="82"/>
+      <c r="X47" s="82"/>
+      <c r="Y47" s="82"/>
+      <c r="Z47" s="82"/>
+      <c r="AA47" s="82"/>
+      <c r="AB47" s="83"/>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
@@ -5769,34 +5896,34 @@
       <c r="AI47" s="2"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
-      <c r="A48" s="73"/>
-      <c r="B48" s="74"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="74"/>
-      <c r="S48" s="74"/>
-      <c r="T48" s="74"/>
-      <c r="U48" s="74"/>
-      <c r="V48" s="74"/>
-      <c r="W48" s="74"/>
-      <c r="X48" s="74"/>
-      <c r="Y48" s="74"/>
-      <c r="Z48" s="74"/>
-      <c r="AA48" s="74"/>
-      <c r="AB48" s="75"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="82"/>
+      <c r="R48" s="82"/>
+      <c r="S48" s="82"/>
+      <c r="T48" s="82"/>
+      <c r="U48" s="82"/>
+      <c r="V48" s="82"/>
+      <c r="W48" s="82"/>
+      <c r="X48" s="82"/>
+      <c r="Y48" s="82"/>
+      <c r="Z48" s="82"/>
+      <c r="AA48" s="82"/>
+      <c r="AB48" s="83"/>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
@@ -5806,34 +5933,34 @@
       <c r="AI48" s="2"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
-      <c r="A49" s="73"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
-      <c r="L49" s="74"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="74"/>
-      <c r="P49" s="74"/>
-      <c r="Q49" s="74"/>
-      <c r="R49" s="74"/>
-      <c r="S49" s="74"/>
-      <c r="T49" s="74"/>
-      <c r="U49" s="74"/>
-      <c r="V49" s="74"/>
-      <c r="W49" s="74"/>
-      <c r="X49" s="74"/>
-      <c r="Y49" s="74"/>
-      <c r="Z49" s="74"/>
-      <c r="AA49" s="74"/>
-      <c r="AB49" s="75"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="82"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="82"/>
+      <c r="U49" s="82"/>
+      <c r="V49" s="82"/>
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="82"/>
+      <c r="AB49" s="83"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
@@ -5843,34 +5970,34 @@
       <c r="AI49" s="2"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
-      <c r="A50" s="73"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="74"/>
-      <c r="P50" s="74"/>
-      <c r="Q50" s="74"/>
-      <c r="R50" s="74"/>
-      <c r="S50" s="74"/>
-      <c r="T50" s="74"/>
-      <c r="U50" s="74"/>
-      <c r="V50" s="74"/>
-      <c r="W50" s="74"/>
-      <c r="X50" s="74"/>
-      <c r="Y50" s="74"/>
-      <c r="Z50" s="74"/>
-      <c r="AA50" s="74"/>
-      <c r="AB50" s="75"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="82"/>
+      <c r="U50" s="82"/>
+      <c r="V50" s="82"/>
+      <c r="W50" s="82"/>
+      <c r="X50" s="82"/>
+      <c r="Y50" s="82"/>
+      <c r="Z50" s="82"/>
+      <c r="AA50" s="82"/>
+      <c r="AB50" s="83"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -5880,34 +6007,34 @@
       <c r="AI50" s="2"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
-      <c r="A51" s="73"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="74"/>
-      <c r="P51" s="74"/>
-      <c r="Q51" s="74"/>
-      <c r="R51" s="74"/>
-      <c r="S51" s="74"/>
-      <c r="T51" s="74"/>
-      <c r="U51" s="74"/>
-      <c r="V51" s="74"/>
-      <c r="W51" s="74"/>
-      <c r="X51" s="74"/>
-      <c r="Y51" s="74"/>
-      <c r="Z51" s="74"/>
-      <c r="AA51" s="74"/>
-      <c r="AB51" s="75"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="82"/>
+      <c r="U51" s="82"/>
+      <c r="V51" s="82"/>
+      <c r="W51" s="82"/>
+      <c r="X51" s="82"/>
+      <c r="Y51" s="82"/>
+      <c r="Z51" s="82"/>
+      <c r="AA51" s="82"/>
+      <c r="AB51" s="83"/>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
@@ -5917,34 +6044,34 @@
       <c r="AI51" s="2"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
-      <c r="A52" s="73"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="74"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="74"/>
-      <c r="L52" s="74"/>
-      <c r="M52" s="74"/>
-      <c r="N52" s="74"/>
-      <c r="O52" s="74"/>
-      <c r="P52" s="74"/>
-      <c r="Q52" s="74"/>
-      <c r="R52" s="74"/>
-      <c r="S52" s="74"/>
-      <c r="T52" s="74"/>
-      <c r="U52" s="74"/>
-      <c r="V52" s="74"/>
-      <c r="W52" s="74"/>
-      <c r="X52" s="74"/>
-      <c r="Y52" s="74"/>
-      <c r="Z52" s="74"/>
-      <c r="AA52" s="74"/>
-      <c r="AB52" s="75"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="82"/>
+      <c r="T52" s="82"/>
+      <c r="U52" s="82"/>
+      <c r="V52" s="82"/>
+      <c r="W52" s="82"/>
+      <c r="X52" s="82"/>
+      <c r="Y52" s="82"/>
+      <c r="Z52" s="82"/>
+      <c r="AA52" s="82"/>
+      <c r="AB52" s="83"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
@@ -5954,34 +6081,34 @@
       <c r="AI52" s="2"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
-      <c r="A53" s="73"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="74"/>
-      <c r="M53" s="74"/>
-      <c r="N53" s="74"/>
-      <c r="O53" s="74"/>
-      <c r="P53" s="74"/>
-      <c r="Q53" s="74"/>
-      <c r="R53" s="74"/>
-      <c r="S53" s="74"/>
-      <c r="T53" s="74"/>
-      <c r="U53" s="74"/>
-      <c r="V53" s="74"/>
-      <c r="W53" s="74"/>
-      <c r="X53" s="74"/>
-      <c r="Y53" s="74"/>
-      <c r="Z53" s="74"/>
-      <c r="AA53" s="74"/>
-      <c r="AB53" s="75"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="82"/>
+      <c r="P53" s="82"/>
+      <c r="Q53" s="82"/>
+      <c r="R53" s="82"/>
+      <c r="S53" s="82"/>
+      <c r="T53" s="82"/>
+      <c r="U53" s="82"/>
+      <c r="V53" s="82"/>
+      <c r="W53" s="82"/>
+      <c r="X53" s="82"/>
+      <c r="Y53" s="82"/>
+      <c r="Z53" s="82"/>
+      <c r="AA53" s="82"/>
+      <c r="AB53" s="83"/>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
@@ -5991,34 +6118,34 @@
       <c r="AI53" s="2"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
-      <c r="A54" s="73"/>
-      <c r="B54" s="74"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="74"/>
-      <c r="L54" s="74"/>
-      <c r="M54" s="74"/>
-      <c r="N54" s="74"/>
-      <c r="O54" s="74"/>
-      <c r="P54" s="74"/>
-      <c r="Q54" s="74"/>
-      <c r="R54" s="74"/>
-      <c r="S54" s="74"/>
-      <c r="T54" s="74"/>
-      <c r="U54" s="74"/>
-      <c r="V54" s="74"/>
-      <c r="W54" s="74"/>
-      <c r="X54" s="74"/>
-      <c r="Y54" s="74"/>
-      <c r="Z54" s="74"/>
-      <c r="AA54" s="74"/>
-      <c r="AB54" s="75"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="82"/>
+      <c r="O54" s="82"/>
+      <c r="P54" s="82"/>
+      <c r="Q54" s="82"/>
+      <c r="R54" s="82"/>
+      <c r="S54" s="82"/>
+      <c r="T54" s="82"/>
+      <c r="U54" s="82"/>
+      <c r="V54" s="82"/>
+      <c r="W54" s="82"/>
+      <c r="X54" s="82"/>
+      <c r="Y54" s="82"/>
+      <c r="Z54" s="82"/>
+      <c r="AA54" s="82"/>
+      <c r="AB54" s="83"/>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
@@ -6028,34 +6155,34 @@
       <c r="AI54" s="2"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
-      <c r="A55" s="73"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="74"/>
-      <c r="L55" s="74"/>
-      <c r="M55" s="74"/>
-      <c r="N55" s="74"/>
-      <c r="O55" s="74"/>
-      <c r="P55" s="74"/>
-      <c r="Q55" s="74"/>
-      <c r="R55" s="74"/>
-      <c r="S55" s="74"/>
-      <c r="T55" s="74"/>
-      <c r="U55" s="74"/>
-      <c r="V55" s="74"/>
-      <c r="W55" s="74"/>
-      <c r="X55" s="74"/>
-      <c r="Y55" s="74"/>
-      <c r="Z55" s="74"/>
-      <c r="AA55" s="74"/>
-      <c r="AB55" s="75"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="82"/>
+      <c r="Q55" s="82"/>
+      <c r="R55" s="82"/>
+      <c r="S55" s="82"/>
+      <c r="T55" s="82"/>
+      <c r="U55" s="82"/>
+      <c r="V55" s="82"/>
+      <c r="W55" s="82"/>
+      <c r="X55" s="82"/>
+      <c r="Y55" s="82"/>
+      <c r="Z55" s="82"/>
+      <c r="AA55" s="82"/>
+      <c r="AB55" s="83"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
@@ -6065,34 +6192,34 @@
       <c r="AI55" s="2"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
-      <c r="A56" s="73"/>
-      <c r="B56" s="74"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
-      <c r="L56" s="74"/>
-      <c r="M56" s="74"/>
-      <c r="N56" s="74"/>
-      <c r="O56" s="74"/>
-      <c r="P56" s="74"/>
-      <c r="Q56" s="74"/>
-      <c r="R56" s="74"/>
-      <c r="S56" s="74"/>
-      <c r="T56" s="74"/>
-      <c r="U56" s="74"/>
-      <c r="V56" s="74"/>
-      <c r="W56" s="74"/>
-      <c r="X56" s="74"/>
-      <c r="Y56" s="74"/>
-      <c r="Z56" s="74"/>
-      <c r="AA56" s="74"/>
-      <c r="AB56" s="75"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="82"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="82"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="82"/>
+      <c r="Q56" s="82"/>
+      <c r="R56" s="82"/>
+      <c r="S56" s="82"/>
+      <c r="T56" s="82"/>
+      <c r="U56" s="82"/>
+      <c r="V56" s="82"/>
+      <c r="W56" s="82"/>
+      <c r="X56" s="82"/>
+      <c r="Y56" s="82"/>
+      <c r="Z56" s="82"/>
+      <c r="AA56" s="82"/>
+      <c r="AB56" s="83"/>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
@@ -6102,34 +6229,34 @@
       <c r="AI56" s="2"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
-      <c r="A57" s="73"/>
-      <c r="B57" s="74"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="74"/>
-      <c r="M57" s="74"/>
-      <c r="N57" s="74"/>
-      <c r="O57" s="74"/>
-      <c r="P57" s="74"/>
-      <c r="Q57" s="74"/>
-      <c r="R57" s="74"/>
-      <c r="S57" s="74"/>
-      <c r="T57" s="74"/>
-      <c r="U57" s="74"/>
-      <c r="V57" s="74"/>
-      <c r="W57" s="74"/>
-      <c r="X57" s="74"/>
-      <c r="Y57" s="74"/>
-      <c r="Z57" s="74"/>
-      <c r="AA57" s="74"/>
-      <c r="AB57" s="75"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="82"/>
+      <c r="P57" s="82"/>
+      <c r="Q57" s="82"/>
+      <c r="R57" s="82"/>
+      <c r="S57" s="82"/>
+      <c r="T57" s="82"/>
+      <c r="U57" s="82"/>
+      <c r="V57" s="82"/>
+      <c r="W57" s="82"/>
+      <c r="X57" s="82"/>
+      <c r="Y57" s="82"/>
+      <c r="Z57" s="82"/>
+      <c r="AA57" s="82"/>
+      <c r="AB57" s="83"/>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
@@ -6139,34 +6266,34 @@
       <c r="AI57" s="2"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
-      <c r="A58" s="73"/>
-      <c r="B58" s="74"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="74"/>
-      <c r="L58" s="74"/>
-      <c r="M58" s="74"/>
-      <c r="N58" s="74"/>
-      <c r="O58" s="74"/>
-      <c r="P58" s="74"/>
-      <c r="Q58" s="74"/>
-      <c r="R58" s="74"/>
-      <c r="S58" s="74"/>
-      <c r="T58" s="74"/>
-      <c r="U58" s="74"/>
-      <c r="V58" s="74"/>
-      <c r="W58" s="74"/>
-      <c r="X58" s="74"/>
-      <c r="Y58" s="74"/>
-      <c r="Z58" s="74"/>
-      <c r="AA58" s="74"/>
-      <c r="AB58" s="75"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="82"/>
+      <c r="L58" s="82"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="82"/>
+      <c r="O58" s="82"/>
+      <c r="P58" s="82"/>
+      <c r="Q58" s="82"/>
+      <c r="R58" s="82"/>
+      <c r="S58" s="82"/>
+      <c r="T58" s="82"/>
+      <c r="U58" s="82"/>
+      <c r="V58" s="82"/>
+      <c r="W58" s="82"/>
+      <c r="X58" s="82"/>
+      <c r="Y58" s="82"/>
+      <c r="Z58" s="82"/>
+      <c r="AA58" s="82"/>
+      <c r="AB58" s="83"/>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
@@ -6176,34 +6303,34 @@
       <c r="AI58" s="2"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
-      <c r="A59" s="73"/>
-      <c r="B59" s="74"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="74"/>
-      <c r="K59" s="74"/>
-      <c r="L59" s="74"/>
-      <c r="M59" s="74"/>
-      <c r="N59" s="74"/>
-      <c r="O59" s="74"/>
-      <c r="P59" s="74"/>
-      <c r="Q59" s="74"/>
-      <c r="R59" s="74"/>
-      <c r="S59" s="74"/>
-      <c r="T59" s="74"/>
-      <c r="U59" s="74"/>
-      <c r="V59" s="74"/>
-      <c r="W59" s="74"/>
-      <c r="X59" s="74"/>
-      <c r="Y59" s="74"/>
-      <c r="Z59" s="74"/>
-      <c r="AA59" s="74"/>
-      <c r="AB59" s="75"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="82"/>
+      <c r="L59" s="82"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="82"/>
+      <c r="O59" s="82"/>
+      <c r="P59" s="82"/>
+      <c r="Q59" s="82"/>
+      <c r="R59" s="82"/>
+      <c r="S59" s="82"/>
+      <c r="T59" s="82"/>
+      <c r="U59" s="82"/>
+      <c r="V59" s="82"/>
+      <c r="W59" s="82"/>
+      <c r="X59" s="82"/>
+      <c r="Y59" s="82"/>
+      <c r="Z59" s="82"/>
+      <c r="AA59" s="82"/>
+      <c r="AB59" s="83"/>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
@@ -6213,34 +6340,34 @@
       <c r="AI59" s="2"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
-      <c r="A60" s="76"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="77"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="77"/>
-      <c r="M60" s="77"/>
-      <c r="N60" s="77"/>
-      <c r="O60" s="77"/>
-      <c r="P60" s="77"/>
-      <c r="Q60" s="77"/>
-      <c r="R60" s="77"/>
-      <c r="S60" s="77"/>
-      <c r="T60" s="77"/>
-      <c r="U60" s="77"/>
-      <c r="V60" s="77"/>
-      <c r="W60" s="77"/>
-      <c r="X60" s="77"/>
-      <c r="Y60" s="77"/>
-      <c r="Z60" s="77"/>
-      <c r="AA60" s="77"/>
-      <c r="AB60" s="78"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="85"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="85"/>
+      <c r="M60" s="85"/>
+      <c r="N60" s="85"/>
+      <c r="O60" s="85"/>
+      <c r="P60" s="85"/>
+      <c r="Q60" s="85"/>
+      <c r="R60" s="85"/>
+      <c r="S60" s="85"/>
+      <c r="T60" s="85"/>
+      <c r="U60" s="85"/>
+      <c r="V60" s="85"/>
+      <c r="W60" s="85"/>
+      <c r="X60" s="85"/>
+      <c r="Y60" s="85"/>
+      <c r="Z60" s="85"/>
+      <c r="AA60" s="85"/>
+      <c r="AB60" s="86"/>
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
@@ -6288,13 +6415,32 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="A1:AB3"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="A41:AB60"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:B14"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="F7:T7"/>
     <mergeCell ref="X7:AB7"/>
     <mergeCell ref="X8:AB8"/>
     <mergeCell ref="F6:AB6"/>
@@ -6311,32 +6457,13 @@
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="Y10:AB10"/>
     <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="A41:AB60"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:B14"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="F7:T7"/>
-    <mergeCell ref="A1:AB3"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="U12:X12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf"/>
@@ -6352,8 +6479,8 @@
   <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N122" sqref="N122:N126"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -6376,23 +6503,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -6400,21 +6527,21 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="121"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -6422,21 +6549,21 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="121"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -6444,89 +6571,89 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="137" t="str">
+      <c r="A4" s="127" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="129" t="str">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="114" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="81"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="71"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="136" t="str">
+      <c r="A5" s="126" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="129" t="str">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="114" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="81"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="71"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="136" t="str">
+      <c r="A6" s="126" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="129" t="str">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="114" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 500</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="135" t="str">
+      <c r="G6" s="71"/>
+      <c r="H6" s="125" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
-        <v xml:space="preserve"> Custo= R$ 217.500,00</v>
-      </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="122" t="str">
+        <v xml:space="preserve"> Custo= R$ 205.500,00</v>
+      </c>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="117" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 435</v>
-      </c>
-      <c r="O6" s="123"/>
+        <v>PF  = 411</v>
+      </c>
+      <c r="O6" s="118"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -6534,14 +6661,14 @@
       <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
@@ -6569,23 +6696,23 @@
       <c r="O7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="130" t="s">
+      <c r="P7" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="131"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="124"/>
     </row>
     <row r="8" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="122"/>
       <c r="G8" s="53" t="s">
         <v>29</v>
       </c>
@@ -6625,14 +6752,14 @@
       <c r="T8" s="60"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="134"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="53" t="s">
         <v>30</v>
       </c>
@@ -6665,21 +6792,21 @@
         <f>IF(H9="I",N9*[1]Contagem!$U$11,IF(H9="E",N9*[1]Contagem!$U$13,IF(H9="A",N9*[1]Contagem!$U$12,IF(H9="T",N9*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
     </row>
     <row r="10" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="134"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="53" t="s">
         <v>30</v>
       </c>
@@ -6712,21 +6839,21 @@
         <f>IF(H10="I",N10*[1]Contagem!$U$11,IF(H10="E",N10*[1]Contagem!$U$13,IF(H10="A",N10*[1]Contagem!$U$12,IF(H10="T",N10*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
     </row>
     <row r="11" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="134"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="53" t="s">
         <v>30</v>
       </c>
@@ -6759,21 +6886,21 @@
         <f>IF(H11="I",N11*[1]Contagem!$U$11,IF(H11="E",N11*[1]Contagem!$U$13,IF(H11="A",N11*[1]Contagem!$U$12,IF(H11="T",N11*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
     </row>
     <row r="12" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="53" t="s">
         <v>54</v>
       </c>
@@ -6806,19 +6933,19 @@
         <f>IF(H12="I",N12*[1]Contagem!$U$11,IF(H12="E",N12*[1]Contagem!$U$13,IF(H12="A",N12*[1]Contagem!$U$12,IF(H12="T",N12*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
-      <c r="A13" s="96"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
       <c r="G13" s="18"/>
       <c r="H13" s="54" t="s">
         <v>31</v>
@@ -6845,21 +6972,21 @@
         <f>IF(H13="I",N13*Contagem!$U$11,IF(H13="E",N13*Contagem!$U$13,IF(H13="A",N13*Contagem!$U$12,IF(H13="T",N13*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
     </row>
     <row r="14" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
       <c r="G14" s="53" t="s">
         <v>29</v>
       </c>
@@ -6892,21 +7019,21 @@
         <f>IF(H14="I",N14*[1]Contagem!$U$11,IF(H14="E",N14*[1]Contagem!$U$13,IF(H14="A",N14*[1]Contagem!$U$12,IF(H14="T",N14*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="53" t="s">
         <v>30</v>
       </c>
@@ -6939,21 +7066,21 @@
         <f>IF(H15="I",N15*[1]Contagem!$U$11,IF(H15="E",N15*[1]Contagem!$U$13,IF(H15="A",N15*[1]Contagem!$U$12,IF(H15="T",N15*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
     </row>
     <row r="16" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="53" t="s">
         <v>30</v>
       </c>
@@ -6986,21 +7113,21 @@
         <f>IF(H16="I",N16*[1]Contagem!$U$11,IF(H16="E",N16*[1]Contagem!$U$13,IF(H16="A",N16*[1]Contagem!$U$12,IF(H16="T",N16*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="100"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
     </row>
     <row r="17" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="53" t="s">
         <v>30</v>
       </c>
@@ -7033,21 +7160,21 @@
         <f>IF(H17="I",N17*[1]Contagem!$U$11,IF(H17="E",N17*[1]Contagem!$U$13,IF(H17="A",N17*[1]Contagem!$U$12,IF(H17="T",N17*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="100"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
     </row>
     <row r="18" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
       <c r="G18" s="53" t="s">
         <v>54</v>
       </c>
@@ -7080,19 +7207,19 @@
         <f>IF(H18="I",N18*[1]Contagem!$U$11,IF(H18="E",N18*[1]Contagem!$U$13,IF(H18="A",N18*[1]Contagem!$U$12,IF(H18="T",N18*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="100"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="96"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
       <c r="G19" s="18"/>
       <c r="H19" s="54" t="s">
         <v>31</v>
@@ -7119,21 +7246,21 @@
         <f>IF(H19="I",N19*Contagem!$U$11,IF(H19="E",N19*Contagem!$U$13,IF(H19="A",N19*Contagem!$U$12,IF(H19="T",N19*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
     </row>
     <row r="20" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
       <c r="G20" s="53" t="s">
         <v>29</v>
       </c>
@@ -7166,21 +7293,21 @@
         <f>IF(H20="I",N20*[1]Contagem!$U$11,IF(H20="E",N20*[1]Contagem!$U$13,IF(H20="A",N20*[1]Contagem!$U$12,IF(H20="T",N20*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
     </row>
     <row r="21" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="53" t="s">
         <v>30</v>
       </c>
@@ -7213,21 +7340,21 @@
         <f>IF(H21="I",N21*[1]Contagem!$U$11,IF(H21="E",N21*[1]Contagem!$U$13,IF(H21="A",N21*[1]Contagem!$U$12,IF(H21="T",N21*[1]Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
     </row>
     <row r="22" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="53" t="s">
         <v>30</v>
       </c>
@@ -7260,21 +7387,21 @@
         <f>IF(H22="I",N22*[1]Contagem!$U$11,IF(H22="E",N22*[1]Contagem!$U$13,IF(H22="A",N22*[1]Contagem!$U$12,IF(H22="T",N22*[1]Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="100"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="100"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
     </row>
     <row r="23" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="53" t="s">
         <v>30</v>
       </c>
@@ -7307,21 +7434,21 @@
         <f>IF(H23="I",N23*[1]Contagem!$U$11,IF(H23="E",N23*[1]Contagem!$U$13,IF(H23="A",N23*[1]Contagem!$U$12,IF(H23="T",N23*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
     </row>
     <row r="24" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
       <c r="G24" s="53" t="s">
         <v>54</v>
       </c>
@@ -7354,21 +7481,21 @@
         <f>IF(H24="I",N24*[1]Contagem!$U$11,IF(H24="E",N24*[1]Contagem!$U$13,IF(H24="A",N24*[1]Contagem!$U$12,IF(H24="T",N24*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
     </row>
     <row r="25" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="53" t="s">
         <v>30</v>
       </c>
@@ -7400,21 +7527,21 @@
       <c r="O25" s="63">
         <v>0</v>
       </c>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="100"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
     </row>
     <row r="26" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="53" t="s">
         <v>30</v>
       </c>
@@ -7446,21 +7573,21 @@
       <c r="O26" s="63">
         <v>0</v>
       </c>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
     </row>
     <row r="27" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
       <c r="G27" s="53" t="s">
         <v>30</v>
       </c>
@@ -7492,21 +7619,21 @@
       <c r="O27" s="63">
         <v>0</v>
       </c>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
     </row>
     <row r="28" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
       <c r="G28" s="53" t="s">
         <v>30</v>
       </c>
@@ -7538,21 +7665,21 @@
       <c r="O28" s="63">
         <v>0</v>
       </c>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="100"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
     </row>
     <row r="29" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
       <c r="G29" s="53" t="s">
         <v>54</v>
       </c>
@@ -7584,21 +7711,21 @@
       <c r="O29" s="63">
         <v>0</v>
       </c>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
     </row>
     <row r="30" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
       <c r="G30" s="53" t="s">
         <v>54</v>
       </c>
@@ -7630,19 +7757,19 @@
       <c r="O30" s="63">
         <v>0</v>
       </c>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="100"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
-      <c r="A31" s="96"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="98"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="99"/>
       <c r="G31" s="18"/>
       <c r="H31" s="54" t="s">
         <v>31</v>
@@ -7669,21 +7796,21 @@
         <f>IF(H31="I",N31*Contagem!$U$11,IF(H31="E",N31*Contagem!$U$13,IF(H31="A",N31*Contagem!$U$12,IF(H31="T",N31*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="96"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="96"/>
     </row>
     <row r="32" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="109"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="107"/>
       <c r="G32" s="53" t="s">
         <v>54</v>
       </c>
@@ -7716,19 +7843,19 @@
         <f>IF(H32="I",N32*[1]Contagem!$U$11,IF(H32="E",N32*[1]Contagem!$U$13,IF(H32="A",N32*[1]Contagem!$U$12,IF(H32="T",N32*[1]Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="100"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="98"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="99"/>
       <c r="G33" s="18"/>
       <c r="H33" s="54" t="s">
         <v>31</v>
@@ -7755,21 +7882,21 @@
         <f>IF(H33="I",N33*Contagem!$U$11,IF(H33="E",N33*Contagem!$U$13,IF(H33="A",N33*Contagem!$U$12,IF(H33="T",N33*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="96"/>
     </row>
     <row r="34" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
       <c r="G34" s="53" t="s">
         <v>29</v>
       </c>
@@ -7802,21 +7929,21 @@
         <f>IF(H34="I",N34*[1]Contagem!$U$11,IF(H34="E",N34*[1]Contagem!$U$13,IF(H34="A",N34*[1]Contagem!$U$12,IF(H34="T",N34*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="100"/>
-      <c r="R34" s="100"/>
-      <c r="S34" s="100"/>
-      <c r="T34" s="100"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
     </row>
     <row r="35" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
       <c r="G35" s="53" t="s">
         <v>30</v>
       </c>
@@ -7849,21 +7976,21 @@
         <f>IF(H35="I",N35*[1]Contagem!$U$11,IF(H35="E",N35*[1]Contagem!$U$13,IF(H35="A",N35*[1]Contagem!$U$12,IF(H35="T",N35*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="100"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="100"/>
-      <c r="T35" s="100"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
     </row>
     <row r="36" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="102"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
       <c r="G36" s="53" t="s">
         <v>30</v>
       </c>
@@ -7896,21 +8023,21 @@
         <f>IF(H36="I",N36*[1]Contagem!$U$11,IF(H36="E",N36*[1]Contagem!$U$13,IF(H36="A",N36*[1]Contagem!$U$12,IF(H36="T",N36*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="100"/>
-      <c r="S36" s="100"/>
-      <c r="T36" s="100"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
     </row>
     <row r="37" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
       <c r="G37" s="53" t="s">
         <v>30</v>
       </c>
@@ -7943,21 +8070,21 @@
         <f>IF(H37="I",N37*[1]Contagem!$U$11,IF(H37="E",N37*[1]Contagem!$U$13,IF(H37="A",N37*[1]Contagem!$U$12,IF(H37="T",N37*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="100"/>
-      <c r="S37" s="100"/>
-      <c r="T37" s="100"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="94"/>
     </row>
     <row r="38" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
       <c r="G38" s="53" t="s">
         <v>54</v>
       </c>
@@ -7990,19 +8117,19 @@
         <f>IF(H38="I",N38*[1]Contagem!$U$11,IF(H38="E",N38*[1]Contagem!$U$13,IF(H38="A",N38*[1]Contagem!$U$12,IF(H38="T",N38*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="100"/>
-      <c r="S38" s="100"/>
-      <c r="T38" s="100"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="94"/>
+      <c r="T38" s="94"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="A39" s="96"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="98"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="99"/>
       <c r="G39" s="18"/>
       <c r="H39" s="54" t="s">
         <v>31</v>
@@ -8029,21 +8156,21 @@
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P39" s="94"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="96"/>
     </row>
     <row r="40" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="139" t="s">
+      <c r="A40" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="141"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="111"/>
       <c r="G40" s="53" t="s">
         <v>29</v>
       </c>
@@ -8076,21 +8203,21 @@
         <f>IF(H40="I",N40*[1]Contagem!$U$11,IF(H40="E",N40*[1]Contagem!$U$13,IF(H40="A",N40*[1]Contagem!$U$12,IF(H40="T",N40*[1]Contagem!$U$14,""))))</f>
         <v>15</v>
       </c>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="100"/>
-      <c r="R40" s="100"/>
-      <c r="S40" s="100"/>
-      <c r="T40" s="100"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
     </row>
     <row r="41" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="132" t="s">
+      <c r="A41" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="134"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="104"/>
       <c r="G41" s="53" t="s">
         <v>30</v>
       </c>
@@ -8123,21 +8250,21 @@
         <f>IF(H41="I",N41*[1]Contagem!$U$11,IF(H41="E",N41*[1]Contagem!$U$13,IF(H41="A",N41*[1]Contagem!$U$12,IF(H41="T",N41*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P41" s="100"/>
-      <c r="Q41" s="100"/>
-      <c r="R41" s="100"/>
-      <c r="S41" s="100"/>
-      <c r="T41" s="100"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="94"/>
     </row>
     <row r="42" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="102"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
       <c r="G42" s="53" t="s">
         <v>30</v>
       </c>
@@ -8170,21 +8297,21 @@
         <f>IF(H42="I",N42*[1]Contagem!$U$11,IF(H42="E",N42*[1]Contagem!$U$13,IF(H42="A",N42*[1]Contagem!$U$12,IF(H42="T",N42*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P42" s="125"/>
-      <c r="Q42" s="100"/>
-      <c r="R42" s="100"/>
-      <c r="S42" s="100"/>
-      <c r="T42" s="100"/>
+      <c r="P42" s="100"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="94"/>
     </row>
     <row r="43" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A43" s="102" t="s">
+      <c r="A43" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
       <c r="G43" s="53" t="s">
         <v>30</v>
       </c>
@@ -8217,21 +8344,21 @@
         <f>IF(H43="I",N43*[1]Contagem!$U$11,IF(H43="E",N43*[1]Contagem!$U$13,IF(H43="A",N43*[1]Contagem!$U$12,IF(H43="T",N43*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P43" s="125"/>
-      <c r="Q43" s="100"/>
-      <c r="R43" s="100"/>
-      <c r="S43" s="100"/>
-      <c r="T43" s="100"/>
+      <c r="P43" s="100"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="94"/>
+      <c r="S43" s="94"/>
+      <c r="T43" s="94"/>
     </row>
     <row r="44" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="99" t="s">
+      <c r="A44" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
       <c r="G44" s="53" t="s">
         <v>54</v>
       </c>
@@ -8264,21 +8391,21 @@
         <f>IF(H44="I",N44*[1]Contagem!$U$11,IF(H44="E",N44*[1]Contagem!$U$13,IF(H44="A",N44*[1]Contagem!$U$12,IF(H44="T",N44*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="100"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="100"/>
-      <c r="T44" s="100"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
     </row>
     <row r="45" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="99" t="s">
+      <c r="A45" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
       <c r="G45" s="53" t="s">
         <v>30</v>
       </c>
@@ -8311,21 +8438,21 @@
         <f>IF(H45="I",N45*[1]Contagem!$U$11,IF(H45="E",N45*[1]Contagem!$U$13,IF(H45="A",N45*[1]Contagem!$U$12,IF(H45="T",N45*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P45" s="100"/>
-      <c r="Q45" s="100"/>
-      <c r="R45" s="100"/>
-      <c r="S45" s="100"/>
-      <c r="T45" s="100"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="94"/>
+      <c r="R45" s="94"/>
+      <c r="S45" s="94"/>
+      <c r="T45" s="94"/>
     </row>
     <row r="46" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A46" s="99" t="s">
+      <c r="A46" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="99"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
       <c r="G46" s="53" t="s">
         <v>30</v>
       </c>
@@ -8358,19 +8485,19 @@
         <f>IF(H46="I",N46*[1]Contagem!$U$11,IF(H46="E",N46*[1]Contagem!$U$13,IF(H46="A",N46*[1]Contagem!$U$12,IF(H46="T",N46*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="100"/>
-      <c r="S46" s="100"/>
-      <c r="T46" s="100"/>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="94"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="A47" s="96"/>
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="98"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="99"/>
       <c r="G47" s="18"/>
       <c r="H47" s="54" t="s">
         <v>31</v>
@@ -8397,21 +8524,21 @@
         <f>IF(H47="I",N47*Contagem!$U$11,IF(H47="E",N47*Contagem!$U$13,IF(H47="A",N47*Contagem!$U$12,IF(H47="T",N47*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P47" s="94"/>
-      <c r="Q47" s="95"/>
-      <c r="R47" s="95"/>
-      <c r="S47" s="95"/>
-      <c r="T47" s="95"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="96"/>
+      <c r="R47" s="96"/>
+      <c r="S47" s="96"/>
+      <c r="T47" s="96"/>
     </row>
     <row r="48" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="110" t="s">
+      <c r="A48" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="110"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
       <c r="G48" s="53" t="s">
         <v>29</v>
       </c>
@@ -8444,21 +8571,21 @@
         <f>IF(H48="I",N48*[1]Contagem!$U$11,IF(H48="E",N48*[1]Contagem!$U$13,IF(H48="A",N48*[1]Contagem!$U$12,IF(H48="T",N48*[1]Contagem!$U$14,""))))</f>
         <v>10</v>
       </c>
-      <c r="P48" s="100"/>
-      <c r="Q48" s="100"/>
-      <c r="R48" s="100"/>
-      <c r="S48" s="100"/>
-      <c r="T48" s="100"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="94"/>
+      <c r="R48" s="94"/>
+      <c r="S48" s="94"/>
+      <c r="T48" s="94"/>
     </row>
     <row r="49" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="102" t="s">
+      <c r="A49" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="102"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
       <c r="G49" s="53" t="s">
         <v>30</v>
       </c>
@@ -8491,21 +8618,21 @@
         <f>IF(H49="I",N49*[1]Contagem!$U$11,IF(H49="E",N49*[1]Contagem!$U$13,IF(H49="A",N49*[1]Contagem!$U$12,IF(H49="T",N49*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P49" s="100"/>
-      <c r="Q49" s="100"/>
-      <c r="R49" s="100"/>
-      <c r="S49" s="100"/>
-      <c r="T49" s="100"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="94"/>
+      <c r="R49" s="94"/>
+      <c r="S49" s="94"/>
+      <c r="T49" s="94"/>
     </row>
     <row r="50" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A50" s="102" t="s">
+      <c r="A50" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
       <c r="G50" s="53" t="s">
         <v>30</v>
       </c>
@@ -8538,21 +8665,21 @@
         <f>IF(H50="I",N50*[1]Contagem!$U$11,IF(H50="E",N50*[1]Contagem!$U$13,IF(H50="A",N50*[1]Contagem!$U$12,IF(H50="T",N50*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P50" s="100"/>
-      <c r="Q50" s="100"/>
-      <c r="R50" s="100"/>
-      <c r="S50" s="100"/>
-      <c r="T50" s="100"/>
+      <c r="P50" s="94"/>
+      <c r="Q50" s="94"/>
+      <c r="R50" s="94"/>
+      <c r="S50" s="94"/>
+      <c r="T50" s="94"/>
     </row>
     <row r="51" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A51" s="102" t="s">
+      <c r="A51" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="102"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
       <c r="G51" s="53" t="s">
         <v>30</v>
       </c>
@@ -8585,21 +8712,21 @@
         <f>IF(H51="I",N51*[1]Contagem!$U$11,IF(H51="E",N51*[1]Contagem!$U$13,IF(H51="A",N51*[1]Contagem!$U$12,IF(H51="T",N51*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P51" s="100"/>
-      <c r="Q51" s="100"/>
-      <c r="R51" s="100"/>
-      <c r="S51" s="100"/>
-      <c r="T51" s="100"/>
+      <c r="P51" s="94"/>
+      <c r="Q51" s="94"/>
+      <c r="R51" s="94"/>
+      <c r="S51" s="94"/>
+      <c r="T51" s="94"/>
     </row>
     <row r="52" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A52" s="99" t="s">
+      <c r="A52" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="99"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
       <c r="G52" s="53" t="s">
         <v>54</v>
       </c>
@@ -8632,21 +8759,21 @@
         <f>IF(H52="I",N52*[1]Contagem!$U$11,IF(H52="E",N52*[1]Contagem!$U$13,IF(H52="A",N52*[1]Contagem!$U$12,IF(H52="T",N52*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P52" s="100"/>
-      <c r="Q52" s="100"/>
-      <c r="R52" s="100"/>
-      <c r="S52" s="100"/>
-      <c r="T52" s="100"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="94"/>
+      <c r="T52" s="94"/>
     </row>
     <row r="53" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="99" t="s">
+      <c r="A53" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
       <c r="G53" s="53" t="s">
         <v>30</v>
       </c>
@@ -8679,21 +8806,21 @@
         <f>IF(H53="I",N53*[1]Contagem!$U$11,IF(H53="E",N53*[1]Contagem!$U$13,IF(H53="A",N53*[1]Contagem!$U$12,IF(H53="T",N53*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P53" s="100"/>
-      <c r="Q53" s="100"/>
-      <c r="R53" s="100"/>
-      <c r="S53" s="100"/>
-      <c r="T53" s="100"/>
+      <c r="P53" s="94"/>
+      <c r="Q53" s="94"/>
+      <c r="R53" s="94"/>
+      <c r="S53" s="94"/>
+      <c r="T53" s="94"/>
     </row>
     <row r="54" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A54" s="99" t="s">
+      <c r="A54" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
       <c r="G54" s="53" t="s">
         <v>30</v>
       </c>
@@ -8726,19 +8853,19 @@
         <f>IF(H54="I",N54*[1]Contagem!$U$11,IF(H54="E",N54*[1]Contagem!$U$13,IF(H54="A",N54*[1]Contagem!$U$12,IF(H54="T",N54*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P54" s="100"/>
-      <c r="Q54" s="100"/>
-      <c r="R54" s="100"/>
-      <c r="S54" s="100"/>
-      <c r="T54" s="100"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="94"/>
+      <c r="S54" s="94"/>
+      <c r="T54" s="94"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
-      <c r="A55" s="96"/>
-      <c r="B55" s="97"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="98"/>
+      <c r="A55" s="97"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="99"/>
       <c r="G55" s="18"/>
       <c r="H55" s="54" t="s">
         <v>31</v>
@@ -8765,21 +8892,21 @@
         <f>IF(H55="I",N55*Contagem!$U$11,IF(H55="E",N55*Contagem!$U$13,IF(H55="A",N55*Contagem!$U$12,IF(H55="T",N55*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P55" s="94"/>
-      <c r="Q55" s="95"/>
-      <c r="R55" s="95"/>
-      <c r="S55" s="95"/>
-      <c r="T55" s="95"/>
+      <c r="P55" s="95"/>
+      <c r="Q55" s="96"/>
+      <c r="R55" s="96"/>
+      <c r="S55" s="96"/>
+      <c r="T55" s="96"/>
     </row>
     <row r="56" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A56" s="110" t="s">
+      <c r="A56" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="B56" s="110"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="110"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
       <c r="G56" s="53" t="s">
         <v>29</v>
       </c>
@@ -8812,21 +8939,21 @@
         <f>IF(H56="I",N56*[1]Contagem!$U$11,IF(H56="E",N56*[1]Contagem!$U$13,IF(H56="A",N56*[1]Contagem!$U$12,IF(H56="T",N56*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P56" s="100"/>
-      <c r="Q56" s="100"/>
-      <c r="R56" s="100"/>
-      <c r="S56" s="100"/>
-      <c r="T56" s="100"/>
+      <c r="P56" s="94"/>
+      <c r="Q56" s="94"/>
+      <c r="R56" s="94"/>
+      <c r="S56" s="94"/>
+      <c r="T56" s="94"/>
     </row>
     <row r="57" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A57" s="102" t="s">
+      <c r="A57" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="102"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
       <c r="G57" s="53" t="s">
         <v>30</v>
       </c>
@@ -8859,21 +8986,21 @@
         <f>IF(H57="I",N57*[1]Contagem!$U$11,IF(H57="E",N57*[1]Contagem!$U$13,IF(H57="A",N57*[1]Contagem!$U$12,IF(H57="T",N57*[1]Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P57" s="100"/>
-      <c r="Q57" s="100"/>
-      <c r="R57" s="100"/>
-      <c r="S57" s="100"/>
-      <c r="T57" s="100"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="94"/>
+      <c r="R57" s="94"/>
+      <c r="S57" s="94"/>
+      <c r="T57" s="94"/>
     </row>
     <row r="58" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A58" s="102" t="s">
+      <c r="A58" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="102"/>
-      <c r="C58" s="102"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
       <c r="G58" s="53" t="s">
         <v>30</v>
       </c>
@@ -8906,21 +9033,21 @@
         <f>IF(H58="I",N58*[1]Contagem!$U$11,IF(H58="E",N58*[1]Contagem!$U$13,IF(H58="A",N58*[1]Contagem!$U$12,IF(H58="T",N58*[1]Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P58" s="100"/>
-      <c r="Q58" s="100"/>
-      <c r="R58" s="100"/>
-      <c r="S58" s="100"/>
-      <c r="T58" s="100"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="94"/>
+      <c r="R58" s="94"/>
+      <c r="S58" s="94"/>
+      <c r="T58" s="94"/>
     </row>
     <row r="59" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A59" s="102" t="s">
+      <c r="A59" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="102"/>
-      <c r="C59" s="102"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
       <c r="G59" s="53" t="s">
         <v>30</v>
       </c>
@@ -8953,19 +9080,19 @@
         <f>IF(H59="I",N59*[1]Contagem!$U$11,IF(H59="E",N59*[1]Contagem!$U$13,IF(H59="A",N59*[1]Contagem!$U$12,IF(H59="T",N59*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P59" s="100"/>
-      <c r="Q59" s="100"/>
-      <c r="R59" s="100"/>
-      <c r="S59" s="100"/>
-      <c r="T59" s="100"/>
+      <c r="P59" s="94"/>
+      <c r="Q59" s="94"/>
+      <c r="R59" s="94"/>
+      <c r="S59" s="94"/>
+      <c r="T59" s="94"/>
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
-      <c r="A60" s="96"/>
-      <c r="B60" s="97"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="98"/>
+      <c r="A60" s="97"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="99"/>
       <c r="G60" s="18"/>
       <c r="H60" s="54" t="s">
         <v>31</v>
@@ -8992,21 +9119,21 @@
         <f>IF(H60="I",N60*Contagem!$U$11,IF(H60="E",N60*Contagem!$U$13,IF(H60="A",N60*Contagem!$U$12,IF(H60="T",N60*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P60" s="94"/>
-      <c r="Q60" s="95"/>
-      <c r="R60" s="95"/>
-      <c r="S60" s="95"/>
-      <c r="T60" s="95"/>
+      <c r="P60" s="95"/>
+      <c r="Q60" s="96"/>
+      <c r="R60" s="96"/>
+      <c r="S60" s="96"/>
+      <c r="T60" s="96"/>
     </row>
     <row r="61" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="110"/>
-      <c r="C61" s="110"/>
-      <c r="D61" s="110"/>
-      <c r="E61" s="110"/>
-      <c r="F61" s="110"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
       <c r="G61" s="53" t="s">
         <v>29</v>
       </c>
@@ -9039,21 +9166,21 @@
         <f>IF(H61="I",N61*[1]Contagem!$U$11,IF(H61="E",N61*[1]Contagem!$U$13,IF(H61="A",N61*[1]Contagem!$U$12,IF(H61="T",N61*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P61" s="100"/>
-      <c r="Q61" s="100"/>
-      <c r="R61" s="100"/>
-      <c r="S61" s="100"/>
-      <c r="T61" s="100"/>
+      <c r="P61" s="94"/>
+      <c r="Q61" s="94"/>
+      <c r="R61" s="94"/>
+      <c r="S61" s="94"/>
+      <c r="T61" s="94"/>
     </row>
     <row r="62" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A62" s="102" t="s">
+      <c r="A62" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="102"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
+      <c r="B62" s="101"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
       <c r="G62" s="53" t="s">
         <v>30</v>
       </c>
@@ -9086,21 +9213,21 @@
         <f>IF(H62="I",N62*[1]Contagem!$U$11,IF(H62="E",N62*[1]Contagem!$U$13,IF(H62="A",N62*[1]Contagem!$U$12,IF(H62="T",N62*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P62" s="100"/>
-      <c r="Q62" s="100"/>
-      <c r="R62" s="100"/>
-      <c r="S62" s="100"/>
-      <c r="T62" s="100"/>
+      <c r="P62" s="94"/>
+      <c r="Q62" s="94"/>
+      <c r="R62" s="94"/>
+      <c r="S62" s="94"/>
+      <c r="T62" s="94"/>
     </row>
     <row r="63" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A63" s="102" t="s">
+      <c r="A63" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="102"/>
-      <c r="C63" s="102"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="102"/>
-      <c r="F63" s="102"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
       <c r="G63" s="53" t="s">
         <v>30</v>
       </c>
@@ -9133,21 +9260,21 @@
         <f>IF(H63="I",N63*[1]Contagem!$U$11,IF(H63="E",N63*[1]Contagem!$U$13,IF(H63="A",N63*[1]Contagem!$U$12,IF(H63="T",N63*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P63" s="100"/>
-      <c r="Q63" s="100"/>
-      <c r="R63" s="100"/>
-      <c r="S63" s="100"/>
-      <c r="T63" s="100"/>
+      <c r="P63" s="94"/>
+      <c r="Q63" s="94"/>
+      <c r="R63" s="94"/>
+      <c r="S63" s="94"/>
+      <c r="T63" s="94"/>
     </row>
     <row r="64" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A64" s="102" t="s">
+      <c r="A64" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="102"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="102"/>
-      <c r="F64" s="102"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
       <c r="G64" s="53" t="s">
         <v>30</v>
       </c>
@@ -9180,21 +9307,21 @@
         <f>IF(H64="I",N64*[1]Contagem!$U$11,IF(H64="E",N64*[1]Contagem!$U$13,IF(H64="A",N64*[1]Contagem!$U$12,IF(H64="T",N64*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P64" s="100"/>
-      <c r="Q64" s="100"/>
-      <c r="R64" s="100"/>
-      <c r="S64" s="100"/>
-      <c r="T64" s="100"/>
+      <c r="P64" s="94"/>
+      <c r="Q64" s="94"/>
+      <c r="R64" s="94"/>
+      <c r="S64" s="94"/>
+      <c r="T64" s="94"/>
     </row>
     <row r="65" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A65" s="102" t="s">
+      <c r="A65" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="102"/>
-      <c r="C65" s="102"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="102"/>
-      <c r="F65" s="102"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="101"/>
       <c r="G65" s="53" t="s">
         <v>54</v>
       </c>
@@ -9227,19 +9354,19 @@
         <f>IF(H65="I",N65*[1]Contagem!$U$11,IF(H65="E",N65*[1]Contagem!$U$13,IF(H65="A",N65*[1]Contagem!$U$12,IF(H65="T",N65*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P65" s="100"/>
-      <c r="Q65" s="100"/>
-      <c r="R65" s="100"/>
-      <c r="S65" s="100"/>
-      <c r="T65" s="100"/>
+      <c r="P65" s="94"/>
+      <c r="Q65" s="94"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="94"/>
+      <c r="T65" s="94"/>
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
-      <c r="A66" s="96"/>
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="98"/>
+      <c r="A66" s="97"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="99"/>
       <c r="G66" s="18"/>
       <c r="H66" s="54" t="s">
         <v>31</v>
@@ -9266,21 +9393,21 @@
         <f>IF(H66="I",N66*Contagem!$U$11,IF(H66="E",N66*Contagem!$U$13,IF(H66="A",N66*Contagem!$U$12,IF(H66="T",N66*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P66" s="94"/>
-      <c r="Q66" s="95"/>
-      <c r="R66" s="95"/>
-      <c r="S66" s="95"/>
-      <c r="T66" s="95"/>
+      <c r="P66" s="95"/>
+      <c r="Q66" s="96"/>
+      <c r="R66" s="96"/>
+      <c r="S66" s="96"/>
+      <c r="T66" s="96"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
-      <c r="A67" s="103" t="s">
+      <c r="A67" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="103"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
+      <c r="B67" s="128"/>
+      <c r="C67" s="128"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="128"/>
       <c r="G67" s="53" t="s">
         <v>29</v>
       </c>
@@ -9313,21 +9440,21 @@
         <f>IF(H67="I",N67*[1]Contagem!$U$11,IF(H67="E",N67*[1]Contagem!$U$13,IF(H67="A",N67*[1]Contagem!$U$12,IF(H67="T",N67*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P67" s="100"/>
-      <c r="Q67" s="100"/>
-      <c r="R67" s="100"/>
-      <c r="S67" s="100"/>
-      <c r="T67" s="100"/>
+      <c r="P67" s="94"/>
+      <c r="Q67" s="94"/>
+      <c r="R67" s="94"/>
+      <c r="S67" s="94"/>
+      <c r="T67" s="94"/>
     </row>
     <row r="68" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="102" t="s">
+      <c r="A68" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="102"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="102"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="101"/>
       <c r="G68" s="53" t="s">
         <v>30</v>
       </c>
@@ -9360,21 +9487,21 @@
         <f>IF(H68="I",N68*[1]Contagem!$U$11,IF(H68="E",N68*[1]Contagem!$U$13,IF(H68="A",N68*[1]Contagem!$U$12,IF(H68="T",N68*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P68" s="100"/>
-      <c r="Q68" s="100"/>
-      <c r="R68" s="100"/>
-      <c r="S68" s="100"/>
-      <c r="T68" s="100"/>
+      <c r="P68" s="94"/>
+      <c r="Q68" s="94"/>
+      <c r="R68" s="94"/>
+      <c r="S68" s="94"/>
+      <c r="T68" s="94"/>
     </row>
     <row r="69" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A69" s="102" t="s">
+      <c r="A69" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="102"/>
-      <c r="C69" s="102"/>
-      <c r="D69" s="102"/>
-      <c r="E69" s="102"/>
-      <c r="F69" s="102"/>
+      <c r="B69" s="101"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="101"/>
       <c r="G69" s="53" t="s">
         <v>30</v>
       </c>
@@ -9407,21 +9534,21 @@
         <f>IF(H69="I",N69*[1]Contagem!$U$11,IF(H69="E",N69*[1]Contagem!$U$13,IF(H69="A",N69*[1]Contagem!$U$12,IF(H69="T",N69*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P69" s="100"/>
-      <c r="Q69" s="100"/>
-      <c r="R69" s="100"/>
-      <c r="S69" s="100"/>
-      <c r="T69" s="100"/>
+      <c r="P69" s="94"/>
+      <c r="Q69" s="94"/>
+      <c r="R69" s="94"/>
+      <c r="S69" s="94"/>
+      <c r="T69" s="94"/>
     </row>
     <row r="70" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A70" s="102" t="s">
+      <c r="A70" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="102"/>
-      <c r="C70" s="102"/>
-      <c r="D70" s="102"/>
-      <c r="E70" s="102"/>
-      <c r="F70" s="102"/>
+      <c r="B70" s="101"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
       <c r="G70" s="53" t="s">
         <v>30</v>
       </c>
@@ -9454,21 +9581,21 @@
         <f>IF(H70="I",N70*[1]Contagem!$U$11,IF(H70="E",N70*[1]Contagem!$U$13,IF(H70="A",N70*[1]Contagem!$U$12,IF(H70="T",N70*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P70" s="100"/>
-      <c r="Q70" s="100"/>
-      <c r="R70" s="100"/>
-      <c r="S70" s="100"/>
-      <c r="T70" s="100"/>
+      <c r="P70" s="94"/>
+      <c r="Q70" s="94"/>
+      <c r="R70" s="94"/>
+      <c r="S70" s="94"/>
+      <c r="T70" s="94"/>
     </row>
     <row r="71" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A71" s="99" t="s">
+      <c r="A71" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="99"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99"/>
-      <c r="F71" s="99"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="112"/>
       <c r="G71" s="53" t="s">
         <v>54</v>
       </c>
@@ -9501,19 +9628,19 @@
         <f>IF(H71="I",N71*[1]Contagem!$U$11,IF(H71="E",N71*[1]Contagem!$U$13,IF(H71="A",N71*[1]Contagem!$U$12,IF(H71="T",N71*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P71" s="100"/>
-      <c r="Q71" s="100"/>
-      <c r="R71" s="100"/>
-      <c r="S71" s="100"/>
-      <c r="T71" s="100"/>
+      <c r="P71" s="94"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="94"/>
+      <c r="S71" s="94"/>
+      <c r="T71" s="94"/>
     </row>
     <row r="72" spans="1:20" s="68" customFormat="1" ht="18" customHeight="1">
-      <c r="A72" s="96"/>
-      <c r="B72" s="97"/>
-      <c r="C72" s="97"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="98"/>
+      <c r="A72" s="97"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="98"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="99"/>
       <c r="G72" s="18"/>
       <c r="H72" s="54" t="s">
         <v>31</v>
@@ -9540,21 +9667,21 @@
         <f>IF(H72="I",N72*Contagem!$U$11,IF(H72="E",N72*Contagem!$U$13,IF(H72="A",N72*Contagem!$U$12,IF(H72="T",N72*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P72" s="94"/>
-      <c r="Q72" s="95"/>
-      <c r="R72" s="95"/>
-      <c r="S72" s="95"/>
-      <c r="T72" s="95"/>
+      <c r="P72" s="95"/>
+      <c r="Q72" s="96"/>
+      <c r="R72" s="96"/>
+      <c r="S72" s="96"/>
+      <c r="T72" s="96"/>
     </row>
     <row r="73" spans="1:20" s="68" customFormat="1" ht="18" customHeight="1">
-      <c r="A73" s="111" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" s="112"/>
-      <c r="C73" s="112"/>
-      <c r="D73" s="112"/>
-      <c r="E73" s="112"/>
-      <c r="F73" s="113"/>
+      <c r="A73" s="129" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="130"/>
+      <c r="C73" s="130"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="131"/>
       <c r="G73" s="18" t="s">
         <v>29</v>
       </c>
@@ -9587,21 +9714,21 @@
         <f>IF(H73="I",N73*Contagem!$U$11,IF(H73="E",N73*Contagem!$U$13,IF(H73="A",N73*Contagem!$U$12,IF(H73="T",N73*Contagem!$U$14,""))))</f>
         <v>10</v>
       </c>
-      <c r="P73" s="94"/>
-      <c r="Q73" s="95"/>
-      <c r="R73" s="95"/>
-      <c r="S73" s="95"/>
-      <c r="T73" s="95"/>
+      <c r="P73" s="95"/>
+      <c r="Q73" s="96"/>
+      <c r="R73" s="96"/>
+      <c r="S73" s="96"/>
+      <c r="T73" s="96"/>
     </row>
     <row r="74" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A74" s="99" t="s">
+      <c r="A74" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="112"/>
+      <c r="E74" s="112"/>
+      <c r="F74" s="112"/>
       <c r="G74" s="53" t="s">
         <v>30</v>
       </c>
@@ -9634,21 +9761,21 @@
         <f>IF(H74="I",N74*[1]Contagem!$U$11,IF(H74="E",N74*[1]Contagem!$U$13,IF(H74="A",N74*[1]Contagem!$U$12,IF(H74="T",N74*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P74" s="100"/>
-      <c r="Q74" s="100"/>
-      <c r="R74" s="100"/>
-      <c r="S74" s="100"/>
-      <c r="T74" s="100"/>
+      <c r="P74" s="94"/>
+      <c r="Q74" s="94"/>
+      <c r="R74" s="94"/>
+      <c r="S74" s="94"/>
+      <c r="T74" s="94"/>
     </row>
     <row r="75" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A75" s="99" t="s">
+      <c r="A75" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="99"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="99"/>
-      <c r="F75" s="99"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="112"/>
+      <c r="E75" s="112"/>
+      <c r="F75" s="112"/>
       <c r="G75" s="53" t="s">
         <v>30</v>
       </c>
@@ -9681,21 +9808,21 @@
         <f>IF(H75="I",N75*[1]Contagem!$U$11,IF(H75="E",N75*[1]Contagem!$U$13,IF(H75="A",N75*[1]Contagem!$U$12,IF(H75="T",N75*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P75" s="100"/>
-      <c r="Q75" s="100"/>
-      <c r="R75" s="100"/>
-      <c r="S75" s="100"/>
-      <c r="T75" s="100"/>
+      <c r="P75" s="94"/>
+      <c r="Q75" s="94"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="94"/>
+      <c r="T75" s="94"/>
     </row>
     <row r="76" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A76" s="99" t="s">
+      <c r="A76" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="99"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="99"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="112"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="112"/>
       <c r="G76" s="53" t="s">
         <v>30</v>
       </c>
@@ -9728,19 +9855,19 @@
         <f>IF(H76="I",N76*[1]Contagem!$U$11,IF(H76="E",N76*[1]Contagem!$U$13,IF(H76="A",N76*[1]Contagem!$U$12,IF(H76="T",N76*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P76" s="100"/>
-      <c r="Q76" s="100"/>
-      <c r="R76" s="100"/>
-      <c r="S76" s="100"/>
-      <c r="T76" s="100"/>
+      <c r="P76" s="94"/>
+      <c r="Q76" s="94"/>
+      <c r="R76" s="94"/>
+      <c r="S76" s="94"/>
+      <c r="T76" s="94"/>
     </row>
     <row r="77" spans="1:20" ht="18" customHeight="1">
-      <c r="A77" s="96"/>
-      <c r="B77" s="97"/>
-      <c r="C77" s="97"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="98"/>
+      <c r="A77" s="97"/>
+      <c r="B77" s="98"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="98"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="99"/>
       <c r="G77" s="18"/>
       <c r="H77" s="54" t="s">
         <v>31</v>
@@ -9767,21 +9894,21 @@
         <f>IF(H77="I",N77*Contagem!$U$11,IF(H77="E",N77*Contagem!$U$13,IF(H77="A",N77*Contagem!$U$12,IF(H77="T",N77*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P77" s="94"/>
-      <c r="Q77" s="95"/>
-      <c r="R77" s="95"/>
-      <c r="S77" s="95"/>
-      <c r="T77" s="95"/>
+      <c r="P77" s="95"/>
+      <c r="Q77" s="96"/>
+      <c r="R77" s="96"/>
+      <c r="S77" s="96"/>
+      <c r="T77" s="96"/>
     </row>
     <row r="78" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A78" s="103" t="s">
+      <c r="A78" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B78" s="103"/>
-      <c r="C78" s="103"/>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="103"/>
+      <c r="B78" s="128"/>
+      <c r="C78" s="128"/>
+      <c r="D78" s="128"/>
+      <c r="E78" s="128"/>
+      <c r="F78" s="128"/>
       <c r="G78" s="53"/>
       <c r="H78" s="54" t="s">
         <v>31</v>
@@ -9808,21 +9935,21 @@
         <f>IF(H78="I",N78*[1]Contagem!$U$11,IF(H78="E",N78*[1]Contagem!$U$13,IF(H78="A",N78*[1]Contagem!$U$12,IF(H78="T",N78*[1]Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P78" s="100"/>
-      <c r="Q78" s="100"/>
-      <c r="R78" s="100"/>
-      <c r="S78" s="100"/>
-      <c r="T78" s="100"/>
+      <c r="P78" s="94"/>
+      <c r="Q78" s="94"/>
+      <c r="R78" s="94"/>
+      <c r="S78" s="94"/>
+      <c r="T78" s="94"/>
     </row>
     <row r="79" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A79" s="102" t="s">
+      <c r="A79" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="102"/>
-      <c r="C79" s="102"/>
-      <c r="D79" s="102"/>
-      <c r="E79" s="102"/>
-      <c r="F79" s="102"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="101"/>
+      <c r="F79" s="101"/>
       <c r="G79" s="53" t="s">
         <v>30</v>
       </c>
@@ -9855,21 +9982,21 @@
         <f>IF(H79="I",N79*[1]Contagem!$U$11,IF(H79="E",N79*[1]Contagem!$U$13,IF(H79="A",N79*[1]Contagem!$U$12,IF(H79="T",N79*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P79" s="100"/>
-      <c r="Q79" s="100"/>
-      <c r="R79" s="100"/>
-      <c r="S79" s="100"/>
-      <c r="T79" s="100"/>
+      <c r="P79" s="94"/>
+      <c r="Q79" s="94"/>
+      <c r="R79" s="94"/>
+      <c r="S79" s="94"/>
+      <c r="T79" s="94"/>
     </row>
     <row r="80" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A80" s="102" t="s">
+      <c r="A80" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="102"/>
-      <c r="C80" s="102"/>
-      <c r="D80" s="102"/>
-      <c r="E80" s="102"/>
-      <c r="F80" s="102"/>
+      <c r="B80" s="101"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="101"/>
+      <c r="F80" s="101"/>
       <c r="G80" s="53" t="s">
         <v>30</v>
       </c>
@@ -9902,21 +10029,21 @@
         <f>IF(H80="I",N80*[1]Contagem!$U$11,IF(H80="E",N80*[1]Contagem!$U$13,IF(H80="A",N80*[1]Contagem!$U$12,IF(H80="T",N80*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P80" s="100"/>
-      <c r="Q80" s="100"/>
-      <c r="R80" s="100"/>
-      <c r="S80" s="100"/>
-      <c r="T80" s="100"/>
+      <c r="P80" s="94"/>
+      <c r="Q80" s="94"/>
+      <c r="R80" s="94"/>
+      <c r="S80" s="94"/>
+      <c r="T80" s="94"/>
     </row>
     <row r="81" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A81" s="102" t="s">
+      <c r="A81" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="102"/>
-      <c r="C81" s="102"/>
-      <c r="D81" s="102"/>
-      <c r="E81" s="102"/>
-      <c r="F81" s="102"/>
+      <c r="B81" s="101"/>
+      <c r="C81" s="101"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="101"/>
+      <c r="F81" s="101"/>
       <c r="G81" s="53" t="s">
         <v>30</v>
       </c>
@@ -9949,11 +10076,11 @@
         <f>IF(H81="I",N81*[1]Contagem!$U$11,IF(H81="E",N81*[1]Contagem!$U$13,IF(H81="A",N81*[1]Contagem!$U$12,IF(H81="T",N81*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P81" s="100"/>
-      <c r="Q81" s="100"/>
-      <c r="R81" s="100"/>
-      <c r="S81" s="100"/>
-      <c r="T81" s="100"/>
+      <c r="P81" s="94"/>
+      <c r="Q81" s="94"/>
+      <c r="R81" s="94"/>
+      <c r="S81" s="94"/>
+      <c r="T81" s="94"/>
     </row>
     <row r="82" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
       <c r="A82" s="64"/>
@@ -9995,14 +10122,14 @@
       <c r="T82" s="60"/>
     </row>
     <row r="83" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A83" s="103" t="s">
+      <c r="A83" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="103"/>
-      <c r="C83" s="103"/>
-      <c r="D83" s="103"/>
-      <c r="E83" s="103"/>
-      <c r="F83" s="103"/>
+      <c r="B83" s="128"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="128"/>
+      <c r="F83" s="128"/>
       <c r="G83" s="53"/>
       <c r="H83" s="54" t="s">
         <v>31</v>
@@ -10029,21 +10156,21 @@
         <f>IF(H83="I",N83*[1]Contagem!$U$11,IF(H83="E",N83*[1]Contagem!$U$13,IF(H83="A",N83*[1]Contagem!$U$12,IF(H83="T",N83*[1]Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P83" s="100"/>
-      <c r="Q83" s="100"/>
-      <c r="R83" s="100"/>
-      <c r="S83" s="100"/>
-      <c r="T83" s="100"/>
+      <c r="P83" s="94"/>
+      <c r="Q83" s="94"/>
+      <c r="R83" s="94"/>
+      <c r="S83" s="94"/>
+      <c r="T83" s="94"/>
     </row>
     <row r="84" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A84" s="102" t="s">
+      <c r="A84" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="102"/>
-      <c r="C84" s="102"/>
-      <c r="D84" s="102"/>
-      <c r="E84" s="102"/>
-      <c r="F84" s="102"/>
+      <c r="B84" s="101"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="101"/>
+      <c r="F84" s="101"/>
       <c r="G84" s="53" t="s">
         <v>30</v>
       </c>
@@ -10076,21 +10203,21 @@
         <f>IF(H84="I",N84*[1]Contagem!$U$11,IF(H84="E",N84*[1]Contagem!$U$13,IF(H84="A",N84*[1]Contagem!$U$12,IF(H84="T",N84*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P84" s="100"/>
-      <c r="Q84" s="100"/>
-      <c r="R84" s="100"/>
-      <c r="S84" s="100"/>
-      <c r="T84" s="100"/>
+      <c r="P84" s="94"/>
+      <c r="Q84" s="94"/>
+      <c r="R84" s="94"/>
+      <c r="S84" s="94"/>
+      <c r="T84" s="94"/>
     </row>
     <row r="85" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A85" s="102" t="s">
+      <c r="A85" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="102"/>
-      <c r="C85" s="102"/>
-      <c r="D85" s="102"/>
-      <c r="E85" s="102"/>
-      <c r="F85" s="102"/>
+      <c r="B85" s="101"/>
+      <c r="C85" s="101"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="101"/>
+      <c r="F85" s="101"/>
       <c r="G85" s="53" t="s">
         <v>30</v>
       </c>
@@ -10123,21 +10250,21 @@
         <f>IF(H85="I",N85*[1]Contagem!$U$11,IF(H85="E",N85*[1]Contagem!$U$13,IF(H85="A",N85*[1]Contagem!$U$12,IF(H85="T",N85*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P85" s="100"/>
-      <c r="Q85" s="100"/>
-      <c r="R85" s="100"/>
-      <c r="S85" s="100"/>
-      <c r="T85" s="100"/>
+      <c r="P85" s="94"/>
+      <c r="Q85" s="94"/>
+      <c r="R85" s="94"/>
+      <c r="S85" s="94"/>
+      <c r="T85" s="94"/>
     </row>
     <row r="86" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A86" s="102" t="s">
+      <c r="A86" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="102"/>
-      <c r="C86" s="102"/>
-      <c r="D86" s="102"/>
-      <c r="E86" s="102"/>
-      <c r="F86" s="102"/>
+      <c r="B86" s="101"/>
+      <c r="C86" s="101"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="101"/>
+      <c r="F86" s="101"/>
       <c r="G86" s="53" t="s">
         <v>30</v>
       </c>
@@ -10170,19 +10297,19 @@
         <f>IF(H86="I",N86*[1]Contagem!$U$11,IF(H86="E",N86*[1]Contagem!$U$13,IF(H86="A",N86*[1]Contagem!$U$12,IF(H86="T",N86*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P86" s="100"/>
-      <c r="Q86" s="100"/>
-      <c r="R86" s="100"/>
-      <c r="S86" s="100"/>
-      <c r="T86" s="100"/>
+      <c r="P86" s="94"/>
+      <c r="Q86" s="94"/>
+      <c r="R86" s="94"/>
+      <c r="S86" s="94"/>
+      <c r="T86" s="94"/>
     </row>
     <row r="87" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A87" s="96"/>
-      <c r="B87" s="97"/>
-      <c r="C87" s="97"/>
-      <c r="D87" s="97"/>
-      <c r="E87" s="97"/>
-      <c r="F87" s="98"/>
+      <c r="A87" s="97"/>
+      <c r="B87" s="98"/>
+      <c r="C87" s="98"/>
+      <c r="D87" s="98"/>
+      <c r="E87" s="98"/>
+      <c r="F87" s="99"/>
       <c r="G87" s="18"/>
       <c r="H87" s="54" t="s">
         <v>31</v>
@@ -10209,21 +10336,21 @@
         <f>IF(H87="I",N87*Contagem!$U$11,IF(H87="E",N87*Contagem!$U$13,IF(H87="A",N87*Contagem!$U$12,IF(H87="T",N87*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P87" s="94"/>
-      <c r="Q87" s="95"/>
-      <c r="R87" s="95"/>
-      <c r="S87" s="95"/>
-      <c r="T87" s="95"/>
+      <c r="P87" s="95"/>
+      <c r="Q87" s="96"/>
+      <c r="R87" s="96"/>
+      <c r="S87" s="96"/>
+      <c r="T87" s="96"/>
     </row>
     <row r="88" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A88" s="117" t="s">
+      <c r="A88" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="118"/>
-      <c r="C88" s="118"/>
-      <c r="D88" s="118"/>
-      <c r="E88" s="118"/>
-      <c r="F88" s="119"/>
+      <c r="B88" s="136"/>
+      <c r="C88" s="136"/>
+      <c r="D88" s="136"/>
+      <c r="E88" s="136"/>
+      <c r="F88" s="137"/>
       <c r="G88" s="53"/>
       <c r="H88" s="54" t="s">
         <v>31</v>
@@ -10250,21 +10377,21 @@
         <f>IF(H88="I",N88*[1]Contagem!$U$11,IF(H88="E",N88*[1]Contagem!$U$13,IF(H88="A",N88*[1]Contagem!$U$12,IF(H88="T",N88*[1]Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P88" s="125"/>
-      <c r="Q88" s="100"/>
-      <c r="R88" s="100"/>
-      <c r="S88" s="100"/>
-      <c r="T88" s="100"/>
+      <c r="P88" s="100"/>
+      <c r="Q88" s="94"/>
+      <c r="R88" s="94"/>
+      <c r="S88" s="94"/>
+      <c r="T88" s="94"/>
     </row>
     <row r="89" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A89" s="114" t="s">
+      <c r="A89" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="B89" s="115"/>
-      <c r="C89" s="115"/>
-      <c r="D89" s="115"/>
-      <c r="E89" s="115"/>
-      <c r="F89" s="116"/>
+      <c r="B89" s="133"/>
+      <c r="C89" s="133"/>
+      <c r="D89" s="133"/>
+      <c r="E89" s="133"/>
+      <c r="F89" s="134"/>
       <c r="G89" s="53" t="s">
         <v>30</v>
       </c>
@@ -10297,21 +10424,21 @@
         <f>IF(H89="I",N89*[1]Contagem!$U$11,IF(H89="E",N89*[1]Contagem!$U$13,IF(H89="A",N89*[1]Contagem!$U$12,IF(H89="T",N89*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P89" s="100"/>
-      <c r="Q89" s="100"/>
-      <c r="R89" s="100"/>
-      <c r="S89" s="100"/>
-      <c r="T89" s="100"/>
+      <c r="P89" s="94"/>
+      <c r="Q89" s="94"/>
+      <c r="R89" s="94"/>
+      <c r="S89" s="94"/>
+      <c r="T89" s="94"/>
     </row>
     <row r="90" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A90" s="114" t="s">
+      <c r="A90" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="B90" s="115"/>
-      <c r="C90" s="115"/>
-      <c r="D90" s="115"/>
-      <c r="E90" s="115"/>
-      <c r="F90" s="116"/>
+      <c r="B90" s="133"/>
+      <c r="C90" s="133"/>
+      <c r="D90" s="133"/>
+      <c r="E90" s="133"/>
+      <c r="F90" s="134"/>
       <c r="G90" s="53" t="s">
         <v>30</v>
       </c>
@@ -10344,21 +10471,21 @@
         <f>IF(H90="I",N90*[1]Contagem!$U$11,IF(H90="E",N90*[1]Contagem!$U$13,IF(H90="A",N90*[1]Contagem!$U$12,IF(H90="T",N90*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P90" s="100"/>
-      <c r="Q90" s="100"/>
-      <c r="R90" s="100"/>
-      <c r="S90" s="100"/>
-      <c r="T90" s="100"/>
+      <c r="P90" s="94"/>
+      <c r="Q90" s="94"/>
+      <c r="R90" s="94"/>
+      <c r="S90" s="94"/>
+      <c r="T90" s="94"/>
     </row>
     <row r="91" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A91" s="114" t="s">
+      <c r="A91" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="B91" s="115"/>
-      <c r="C91" s="115"/>
-      <c r="D91" s="115"/>
-      <c r="E91" s="115"/>
-      <c r="F91" s="116"/>
+      <c r="B91" s="133"/>
+      <c r="C91" s="133"/>
+      <c r="D91" s="133"/>
+      <c r="E91" s="133"/>
+      <c r="F91" s="134"/>
       <c r="G91" s="53" t="s">
         <v>54</v>
       </c>
@@ -10391,21 +10518,21 @@
         <f>IF(H91="I",N91*[1]Contagem!$U$11,IF(H91="E",N91*[1]Contagem!$U$13,IF(H91="A",N91*[1]Contagem!$U$12,IF(H91="T",N91*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P91" s="100"/>
-      <c r="Q91" s="100"/>
-      <c r="R91" s="100"/>
-      <c r="S91" s="100"/>
-      <c r="T91" s="100"/>
+      <c r="P91" s="94"/>
+      <c r="Q91" s="94"/>
+      <c r="R91" s="94"/>
+      <c r="S91" s="94"/>
+      <c r="T91" s="94"/>
     </row>
     <row r="92" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A92" s="114" t="s">
+      <c r="A92" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="B92" s="115"/>
-      <c r="C92" s="115"/>
-      <c r="D92" s="115"/>
-      <c r="E92" s="115"/>
-      <c r="F92" s="116"/>
+      <c r="B92" s="133"/>
+      <c r="C92" s="133"/>
+      <c r="D92" s="133"/>
+      <c r="E92" s="133"/>
+      <c r="F92" s="134"/>
       <c r="G92" s="53" t="s">
         <v>30</v>
       </c>
@@ -10438,21 +10565,21 @@
         <f>IF(H92="I",N92*[1]Contagem!$U$11,IF(H92="E",N92*[1]Contagem!$U$13,IF(H92="A",N92*[1]Contagem!$U$12,IF(H92="T",N92*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P92" s="100"/>
-      <c r="Q92" s="100"/>
-      <c r="R92" s="100"/>
-      <c r="S92" s="100"/>
-      <c r="T92" s="100"/>
+      <c r="P92" s="94"/>
+      <c r="Q92" s="94"/>
+      <c r="R92" s="94"/>
+      <c r="S92" s="94"/>
+      <c r="T92" s="94"/>
     </row>
     <row r="93" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A93" s="114" t="s">
+      <c r="A93" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="115"/>
-      <c r="C93" s="115"/>
-      <c r="D93" s="115"/>
-      <c r="E93" s="115"/>
-      <c r="F93" s="116"/>
+      <c r="B93" s="133"/>
+      <c r="C93" s="133"/>
+      <c r="D93" s="133"/>
+      <c r="E93" s="133"/>
+      <c r="F93" s="134"/>
       <c r="G93" s="53" t="s">
         <v>49</v>
       </c>
@@ -10485,19 +10612,19 @@
         <f>IF(H93="I",N93*[1]Contagem!$U$11,IF(H93="E",N93*[1]Contagem!$U$13,IF(H93="A",N93*[1]Contagem!$U$12,IF(H93="T",N93*[1]Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P93" s="100"/>
-      <c r="Q93" s="100"/>
-      <c r="R93" s="100"/>
-      <c r="S93" s="100"/>
-      <c r="T93" s="100"/>
+      <c r="P93" s="94"/>
+      <c r="Q93" s="94"/>
+      <c r="R93" s="94"/>
+      <c r="S93" s="94"/>
+      <c r="T93" s="94"/>
     </row>
     <row r="94" spans="1:20" ht="18" customHeight="1">
-      <c r="A94" s="96"/>
-      <c r="B94" s="97"/>
-      <c r="C94" s="97"/>
-      <c r="D94" s="97"/>
-      <c r="E94" s="97"/>
-      <c r="F94" s="98"/>
+      <c r="A94" s="97"/>
+      <c r="B94" s="98"/>
+      <c r="C94" s="98"/>
+      <c r="D94" s="98"/>
+      <c r="E94" s="98"/>
+      <c r="F94" s="99"/>
       <c r="G94" s="18"/>
       <c r="H94" s="54" t="s">
         <v>31</v>
@@ -10524,21 +10651,21 @@
         <f>IF(H94="I",N94*Contagem!$U$11,IF(H94="E",N94*Contagem!$U$13,IF(H94="A",N94*Contagem!$U$12,IF(H94="T",N94*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P94" s="94"/>
-      <c r="Q94" s="95"/>
-      <c r="R94" s="95"/>
-      <c r="S94" s="95"/>
-      <c r="T94" s="95"/>
+      <c r="P94" s="95"/>
+      <c r="Q94" s="96"/>
+      <c r="R94" s="96"/>
+      <c r="S94" s="96"/>
+      <c r="T94" s="96"/>
     </row>
     <row r="95" spans="1:20" ht="18" customHeight="1">
-      <c r="A95" s="103" t="s">
+      <c r="A95" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="103"/>
-      <c r="C95" s="103"/>
-      <c r="D95" s="103"/>
-      <c r="E95" s="103"/>
-      <c r="F95" s="103"/>
+      <c r="B95" s="128"/>
+      <c r="C95" s="128"/>
+      <c r="D95" s="128"/>
+      <c r="E95" s="128"/>
+      <c r="F95" s="128"/>
       <c r="G95" s="53" t="s">
         <v>29</v>
       </c>
@@ -10571,21 +10698,21 @@
         <f>IF(H95="I",N95*[1]Contagem!$U$11,IF(H95="E",N95*[1]Contagem!$U$13,IF(H95="A",N95*[1]Contagem!$U$12,IF(H95="T",N95*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P95" s="100"/>
-      <c r="Q95" s="100"/>
-      <c r="R95" s="100"/>
-      <c r="S95" s="100"/>
-      <c r="T95" s="100"/>
+      <c r="P95" s="94"/>
+      <c r="Q95" s="94"/>
+      <c r="R95" s="94"/>
+      <c r="S95" s="94"/>
+      <c r="T95" s="94"/>
     </row>
     <row r="96" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A96" s="102" t="s">
+      <c r="A96" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B96" s="102"/>
-      <c r="C96" s="102"/>
-      <c r="D96" s="102"/>
-      <c r="E96" s="102"/>
-      <c r="F96" s="102"/>
+      <c r="B96" s="101"/>
+      <c r="C96" s="101"/>
+      <c r="D96" s="101"/>
+      <c r="E96" s="101"/>
+      <c r="F96" s="101"/>
       <c r="G96" s="53" t="s">
         <v>30</v>
       </c>
@@ -10618,21 +10745,21 @@
         <f>IF(H96="I",N96*[1]Contagem!$U$11,IF(H96="E",N96*[1]Contagem!$U$13,IF(H96="A",N96*[1]Contagem!$U$12,IF(H96="T",N96*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P96" s="100"/>
-      <c r="Q96" s="100"/>
-      <c r="R96" s="100"/>
-      <c r="S96" s="100"/>
-      <c r="T96" s="100"/>
+      <c r="P96" s="94"/>
+      <c r="Q96" s="94"/>
+      <c r="R96" s="94"/>
+      <c r="S96" s="94"/>
+      <c r="T96" s="94"/>
     </row>
     <row r="97" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A97" s="102" t="s">
+      <c r="A97" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B97" s="102"/>
-      <c r="C97" s="102"/>
-      <c r="D97" s="102"/>
-      <c r="E97" s="102"/>
-      <c r="F97" s="102"/>
+      <c r="B97" s="101"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="101"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="101"/>
       <c r="G97" s="53" t="s">
         <v>30</v>
       </c>
@@ -10665,21 +10792,21 @@
         <f>IF(H97="I",N97*[1]Contagem!$U$11,IF(H97="E",N97*[1]Contagem!$U$13,IF(H97="A",N97*[1]Contagem!$U$12,IF(H97="T",N97*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P97" s="100"/>
-      <c r="Q97" s="100"/>
-      <c r="R97" s="100"/>
-      <c r="S97" s="100"/>
-      <c r="T97" s="100"/>
+      <c r="P97" s="94"/>
+      <c r="Q97" s="94"/>
+      <c r="R97" s="94"/>
+      <c r="S97" s="94"/>
+      <c r="T97" s="94"/>
     </row>
     <row r="98" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A98" s="102" t="s">
+      <c r="A98" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="B98" s="102"/>
-      <c r="C98" s="102"/>
-      <c r="D98" s="102"/>
-      <c r="E98" s="102"/>
-      <c r="F98" s="102"/>
+      <c r="B98" s="101"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="101"/>
       <c r="G98" s="53" t="s">
         <v>30</v>
       </c>
@@ -10712,21 +10839,21 @@
         <f>IF(H98="I",N98*[1]Contagem!$U$11,IF(H98="E",N98*[1]Contagem!$U$13,IF(H98="A",N98*[1]Contagem!$U$12,IF(H98="T",N98*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P98" s="100"/>
-      <c r="Q98" s="100"/>
-      <c r="R98" s="100"/>
-      <c r="S98" s="100"/>
-      <c r="T98" s="100"/>
+      <c r="P98" s="94"/>
+      <c r="Q98" s="94"/>
+      <c r="R98" s="94"/>
+      <c r="S98" s="94"/>
+      <c r="T98" s="94"/>
     </row>
     <row r="99" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A99" s="99" t="s">
+      <c r="A99" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="B99" s="99"/>
-      <c r="C99" s="99"/>
-      <c r="D99" s="99"/>
-      <c r="E99" s="99"/>
-      <c r="F99" s="99"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="112"/>
       <c r="G99" s="53" t="s">
         <v>54</v>
       </c>
@@ -10759,19 +10886,19 @@
         <f>IF(H99="I",N99*[1]Contagem!$U$11,IF(H99="E",N99*[1]Contagem!$U$13,IF(H99="A",N99*[1]Contagem!$U$12,IF(H99="T",N99*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P99" s="100"/>
-      <c r="Q99" s="100"/>
-      <c r="R99" s="100"/>
-      <c r="S99" s="100"/>
-      <c r="T99" s="100"/>
+      <c r="P99" s="94"/>
+      <c r="Q99" s="94"/>
+      <c r="R99" s="94"/>
+      <c r="S99" s="94"/>
+      <c r="T99" s="94"/>
     </row>
     <row r="100" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A100" s="99"/>
-      <c r="B100" s="99"/>
-      <c r="C100" s="99"/>
-      <c r="D100" s="99"/>
-      <c r="E100" s="99"/>
-      <c r="F100" s="99"/>
+      <c r="A100" s="112"/>
+      <c r="B100" s="112"/>
+      <c r="C100" s="112"/>
+      <c r="D100" s="112"/>
+      <c r="E100" s="112"/>
+      <c r="F100" s="112"/>
       <c r="G100" s="53"/>
       <c r="H100" s="54" t="s">
         <v>31</v>
@@ -10798,21 +10925,21 @@
         <f>IF(H100="I",N100*[1]Contagem!$U$11,IF(H100="E",N100*[1]Contagem!$U$13,IF(H100="A",N100*[1]Contagem!$U$12,IF(H100="T",N100*[1]Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P100" s="100"/>
-      <c r="Q100" s="100"/>
-      <c r="R100" s="100"/>
-      <c r="S100" s="100"/>
-      <c r="T100" s="100"/>
+      <c r="P100" s="94"/>
+      <c r="Q100" s="94"/>
+      <c r="R100" s="94"/>
+      <c r="S100" s="94"/>
+      <c r="T100" s="94"/>
     </row>
     <row r="101" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A101" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="B101" s="105"/>
-      <c r="C101" s="105"/>
-      <c r="D101" s="105"/>
-      <c r="E101" s="105"/>
-      <c r="F101" s="106"/>
+      <c r="A101" s="138" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="139"/>
+      <c r="C101" s="139"/>
+      <c r="D101" s="139"/>
+      <c r="E101" s="139"/>
+      <c r="F101" s="140"/>
       <c r="G101" s="53" t="s">
         <v>29</v>
       </c>
@@ -10845,21 +10972,21 @@
         <f>IF(H101="I",N101*[1]Contagem!$U$11,IF(H101="E",N101*[1]Contagem!$U$13,IF(H101="A",N101*[1]Contagem!$U$12,IF(H101="T",N101*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P101" s="100"/>
-      <c r="Q101" s="100"/>
-      <c r="R101" s="100"/>
-      <c r="S101" s="100"/>
-      <c r="T101" s="100"/>
+      <c r="P101" s="94"/>
+      <c r="Q101" s="94"/>
+      <c r="R101" s="94"/>
+      <c r="S101" s="94"/>
+      <c r="T101" s="94"/>
     </row>
     <row r="102" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A102" s="114" t="s">
+      <c r="A102" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="B102" s="115"/>
-      <c r="C102" s="115"/>
-      <c r="D102" s="115"/>
-      <c r="E102" s="115"/>
-      <c r="F102" s="116"/>
+      <c r="B102" s="133"/>
+      <c r="C102" s="133"/>
+      <c r="D102" s="133"/>
+      <c r="E102" s="133"/>
+      <c r="F102" s="134"/>
       <c r="G102" s="53" t="s">
         <v>30</v>
       </c>
@@ -10892,21 +11019,21 @@
         <f>IF(H102="I",N102*[1]Contagem!$U$11,IF(H102="E",N102*[1]Contagem!$U$13,IF(H102="A",N102*[1]Contagem!$U$12,IF(H102="T",N102*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P102" s="125"/>
-      <c r="Q102" s="100"/>
-      <c r="R102" s="100"/>
-      <c r="S102" s="100"/>
-      <c r="T102" s="100"/>
+      <c r="P102" s="100"/>
+      <c r="Q102" s="94"/>
+      <c r="R102" s="94"/>
+      <c r="S102" s="94"/>
+      <c r="T102" s="94"/>
     </row>
     <row r="103" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A103" s="99" t="s">
+      <c r="A103" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="B103" s="99"/>
-      <c r="C103" s="99"/>
-      <c r="D103" s="99"/>
-      <c r="E103" s="99"/>
-      <c r="F103" s="99"/>
+      <c r="B103" s="112"/>
+      <c r="C103" s="112"/>
+      <c r="D103" s="112"/>
+      <c r="E103" s="112"/>
+      <c r="F103" s="112"/>
       <c r="G103" s="53" t="s">
         <v>30</v>
       </c>
@@ -10939,19 +11066,19 @@
         <f>IF(H103="I",N103*[1]Contagem!$U$11,IF(H103="E",N103*[1]Contagem!$U$13,IF(H103="A",N103*[1]Contagem!$U$12,IF(H103="T",N103*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P103" s="125"/>
-      <c r="Q103" s="100"/>
-      <c r="R103" s="100"/>
-      <c r="S103" s="100"/>
-      <c r="T103" s="100"/>
+      <c r="P103" s="100"/>
+      <c r="Q103" s="94"/>
+      <c r="R103" s="94"/>
+      <c r="S103" s="94"/>
+      <c r="T103" s="94"/>
     </row>
     <row r="104" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A104" s="99"/>
-      <c r="B104" s="99"/>
-      <c r="C104" s="99"/>
-      <c r="D104" s="99"/>
-      <c r="E104" s="99"/>
-      <c r="F104" s="99"/>
+      <c r="A104" s="112"/>
+      <c r="B104" s="112"/>
+      <c r="C104" s="112"/>
+      <c r="D104" s="112"/>
+      <c r="E104" s="112"/>
+      <c r="F104" s="112"/>
       <c r="G104" s="53"/>
       <c r="H104" s="54"/>
       <c r="I104" s="53"/>
@@ -10964,19 +11091,19 @@
         <v/>
       </c>
       <c r="O104" s="63"/>
-      <c r="P104" s="125"/>
-      <c r="Q104" s="100"/>
-      <c r="R104" s="100"/>
-      <c r="S104" s="100"/>
-      <c r="T104" s="100"/>
+      <c r="P104" s="100"/>
+      <c r="Q104" s="94"/>
+      <c r="R104" s="94"/>
+      <c r="S104" s="94"/>
+      <c r="T104" s="94"/>
     </row>
     <row r="105" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A105" s="99"/>
-      <c r="B105" s="99"/>
-      <c r="C105" s="99"/>
-      <c r="D105" s="99"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="99"/>
+      <c r="A105" s="112"/>
+      <c r="B105" s="112"/>
+      <c r="C105" s="112"/>
+      <c r="D105" s="112"/>
+      <c r="E105" s="112"/>
+      <c r="F105" s="112"/>
       <c r="G105" s="53"/>
       <c r="H105" s="54"/>
       <c r="I105" s="53"/>
@@ -10989,19 +11116,19 @@
         <v/>
       </c>
       <c r="O105" s="63"/>
-      <c r="P105" s="100"/>
-      <c r="Q105" s="100"/>
-      <c r="R105" s="100"/>
-      <c r="S105" s="100"/>
-      <c r="T105" s="100"/>
+      <c r="P105" s="94"/>
+      <c r="Q105" s="94"/>
+      <c r="R105" s="94"/>
+      <c r="S105" s="94"/>
+      <c r="T105" s="94"/>
     </row>
     <row r="106" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A106" s="99"/>
-      <c r="B106" s="99"/>
-      <c r="C106" s="99"/>
-      <c r="D106" s="99"/>
-      <c r="E106" s="99"/>
-      <c r="F106" s="99"/>
+      <c r="A106" s="112"/>
+      <c r="B106" s="112"/>
+      <c r="C106" s="112"/>
+      <c r="D106" s="112"/>
+      <c r="E106" s="112"/>
+      <c r="F106" s="112"/>
       <c r="G106" s="53"/>
       <c r="H106" s="54" t="s">
         <v>31</v>
@@ -11028,21 +11155,21 @@
         <f>IF(H106="I",N106*[1]Contagem!$U$11,IF(H106="E",N106*[1]Contagem!$U$13,IF(H106="A",N106*[1]Contagem!$U$12,IF(H106="T",N106*[1]Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P106" s="100"/>
-      <c r="Q106" s="100"/>
-      <c r="R106" s="100"/>
-      <c r="S106" s="100"/>
-      <c r="T106" s="100"/>
+      <c r="P106" s="94"/>
+      <c r="Q106" s="94"/>
+      <c r="R106" s="94"/>
+      <c r="S106" s="94"/>
+      <c r="T106" s="94"/>
     </row>
     <row r="107" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A107" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="B107" s="101"/>
-      <c r="C107" s="101"/>
-      <c r="D107" s="101"/>
-      <c r="E107" s="101"/>
-      <c r="F107" s="101"/>
+      <c r="A107" s="141" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="141"/>
+      <c r="C107" s="141"/>
+      <c r="D107" s="141"/>
+      <c r="E107" s="141"/>
+      <c r="F107" s="141"/>
       <c r="G107" s="53" t="s">
         <v>29</v>
       </c>
@@ -11075,21 +11202,21 @@
         <f>IF(H107="I",N107*[1]Contagem!$U$11,IF(H107="E",N107*[1]Contagem!$U$13,IF(H107="A",N107*[1]Contagem!$U$12,IF(H107="T",N107*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P107" s="100"/>
-      <c r="Q107" s="100"/>
-      <c r="R107" s="100"/>
-      <c r="S107" s="100"/>
-      <c r="T107" s="100"/>
+      <c r="P107" s="94"/>
+      <c r="Q107" s="94"/>
+      <c r="R107" s="94"/>
+      <c r="S107" s="94"/>
+      <c r="T107" s="94"/>
     </row>
     <row r="108" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A108" s="99" t="s">
-        <v>112</v>
-      </c>
-      <c r="B108" s="99"/>
-      <c r="C108" s="99"/>
-      <c r="D108" s="99"/>
-      <c r="E108" s="99"/>
-      <c r="F108" s="99"/>
+      <c r="A108" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="112"/>
+      <c r="C108" s="112"/>
+      <c r="D108" s="112"/>
+      <c r="E108" s="112"/>
+      <c r="F108" s="112"/>
       <c r="G108" s="53" t="s">
         <v>30</v>
       </c>
@@ -11122,21 +11249,21 @@
         <f>IF(H108="I",N108*[1]Contagem!$U$11,IF(H108="E",N108*[1]Contagem!$U$13,IF(H108="A",N108*[1]Contagem!$U$12,IF(H108="T",N108*[1]Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P108" s="100"/>
-      <c r="Q108" s="100"/>
-      <c r="R108" s="100"/>
-      <c r="S108" s="100"/>
-      <c r="T108" s="100"/>
+      <c r="P108" s="94"/>
+      <c r="Q108" s="94"/>
+      <c r="R108" s="94"/>
+      <c r="S108" s="94"/>
+      <c r="T108" s="94"/>
     </row>
     <row r="109" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A109" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="B109" s="99"/>
-      <c r="C109" s="99"/>
-      <c r="D109" s="99"/>
-      <c r="E109" s="99"/>
-      <c r="F109" s="99"/>
+      <c r="A109" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="112"/>
+      <c r="C109" s="112"/>
+      <c r="D109" s="112"/>
+      <c r="E109" s="112"/>
+      <c r="F109" s="112"/>
       <c r="G109" s="53" t="s">
         <v>30</v>
       </c>
@@ -11169,19 +11296,19 @@
         <f>IF(H109="I",N109*[1]Contagem!$U$11,IF(H109="E",N109*[1]Contagem!$U$13,IF(H109="A",N109*[1]Contagem!$U$12,IF(H109="T",N109*[1]Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P109" s="100"/>
-      <c r="Q109" s="100"/>
-      <c r="R109" s="100"/>
-      <c r="S109" s="100"/>
-      <c r="T109" s="100"/>
+      <c r="P109" s="94"/>
+      <c r="Q109" s="94"/>
+      <c r="R109" s="94"/>
+      <c r="S109" s="94"/>
+      <c r="T109" s="94"/>
     </row>
     <row r="110" spans="1:20" s="68" customFormat="1" ht="18" customHeight="1">
-      <c r="A110" s="96"/>
-      <c r="B110" s="97"/>
-      <c r="C110" s="97"/>
-      <c r="D110" s="97"/>
-      <c r="E110" s="97"/>
-      <c r="F110" s="98"/>
+      <c r="A110" s="97"/>
+      <c r="B110" s="98"/>
+      <c r="C110" s="98"/>
+      <c r="D110" s="98"/>
+      <c r="E110" s="98"/>
+      <c r="F110" s="99"/>
       <c r="G110" s="18"/>
       <c r="H110" s="54"/>
       <c r="I110" s="18"/>
@@ -11194,19 +11321,19 @@
         <v/>
       </c>
       <c r="O110" s="31"/>
-      <c r="P110" s="94"/>
-      <c r="Q110" s="95"/>
-      <c r="R110" s="95"/>
-      <c r="S110" s="95"/>
-      <c r="T110" s="95"/>
+      <c r="P110" s="95"/>
+      <c r="Q110" s="96"/>
+      <c r="R110" s="96"/>
+      <c r="S110" s="96"/>
+      <c r="T110" s="96"/>
     </row>
     <row r="111" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="99"/>
-      <c r="B111" s="99"/>
-      <c r="C111" s="99"/>
-      <c r="D111" s="99"/>
-      <c r="E111" s="99"/>
-      <c r="F111" s="99"/>
+      <c r="A111" s="112"/>
+      <c r="B111" s="112"/>
+      <c r="C111" s="112"/>
+      <c r="D111" s="112"/>
+      <c r="E111" s="112"/>
+      <c r="F111" s="112"/>
       <c r="G111" s="53"/>
       <c r="H111" s="54"/>
       <c r="I111" s="53"/>
@@ -11219,19 +11346,19 @@
         <v/>
       </c>
       <c r="O111" s="63"/>
-      <c r="P111" s="100"/>
-      <c r="Q111" s="100"/>
-      <c r="R111" s="100"/>
-      <c r="S111" s="100"/>
-      <c r="T111" s="100"/>
+      <c r="P111" s="94"/>
+      <c r="Q111" s="94"/>
+      <c r="R111" s="94"/>
+      <c r="S111" s="94"/>
+      <c r="T111" s="94"/>
     </row>
     <row r="112" spans="1:20" s="67" customFormat="1" ht="18" customHeight="1">
-      <c r="A112" s="96"/>
-      <c r="B112" s="97"/>
-      <c r="C112" s="97"/>
-      <c r="D112" s="97"/>
-      <c r="E112" s="97"/>
-      <c r="F112" s="98"/>
+      <c r="A112" s="97"/>
+      <c r="B112" s="98"/>
+      <c r="C112" s="98"/>
+      <c r="D112" s="98"/>
+      <c r="E112" s="98"/>
+      <c r="F112" s="99"/>
       <c r="G112" s="18"/>
       <c r="H112" s="54" t="s">
         <v>31</v>
@@ -11258,21 +11385,21 @@
         <f>IF(H112="I",N112*Contagem!$U$11,IF(H112="E",N112*Contagem!$U$13,IF(H112="A",N112*Contagem!$U$12,IF(H112="T",N112*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P112" s="94"/>
-      <c r="Q112" s="95"/>
-      <c r="R112" s="95"/>
-      <c r="S112" s="95"/>
-      <c r="T112" s="95"/>
+      <c r="P112" s="95"/>
+      <c r="Q112" s="96"/>
+      <c r="R112" s="96"/>
+      <c r="S112" s="96"/>
+      <c r="T112" s="96"/>
     </row>
     <row r="113" spans="1:20" s="67" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" s="112"/>
-      <c r="C113" s="112"/>
-      <c r="D113" s="112"/>
-      <c r="E113" s="112"/>
-      <c r="F113" s="113"/>
+      <c r="A113" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113" s="130"/>
+      <c r="C113" s="130"/>
+      <c r="D113" s="130"/>
+      <c r="E113" s="130"/>
+      <c r="F113" s="131"/>
       <c r="G113" s="18"/>
       <c r="H113" s="54" t="s">
         <v>31</v>
@@ -11299,21 +11426,21 @@
         <f>IF(H113="I",N113*Contagem!$U$11,IF(H113="E",N113*Contagem!$U$13,IF(H113="A",N113*Contagem!$U$12,IF(H113="T",N113*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P113" s="94"/>
-      <c r="Q113" s="95"/>
-      <c r="R113" s="95"/>
-      <c r="S113" s="95"/>
-      <c r="T113" s="95"/>
+      <c r="P113" s="95"/>
+      <c r="Q113" s="96"/>
+      <c r="R113" s="96"/>
+      <c r="S113" s="96"/>
+      <c r="T113" s="96"/>
     </row>
     <row r="114" spans="1:20" s="67" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="96" t="s">
+      <c r="A114" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="B114" s="97"/>
-      <c r="C114" s="97"/>
-      <c r="D114" s="97"/>
-      <c r="E114" s="97"/>
-      <c r="F114" s="98"/>
+      <c r="B114" s="98"/>
+      <c r="C114" s="98"/>
+      <c r="D114" s="98"/>
+      <c r="E114" s="98"/>
+      <c r="F114" s="99"/>
       <c r="G114" s="18" t="s">
         <v>30</v>
       </c>
@@ -11346,21 +11473,21 @@
         <f>IF(H114="I",N114*Contagem!$U$11,IF(H114="E",N114*Contagem!$U$13,IF(H114="A",N114*Contagem!$U$12,IF(H114="T",N114*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P114" s="94"/>
-      <c r="Q114" s="95"/>
-      <c r="R114" s="95"/>
-      <c r="S114" s="95"/>
-      <c r="T114" s="95"/>
+      <c r="P114" s="95"/>
+      <c r="Q114" s="96"/>
+      <c r="R114" s="96"/>
+      <c r="S114" s="96"/>
+      <c r="T114" s="96"/>
     </row>
     <row r="115" spans="1:20" s="67" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="96" t="s">
+      <c r="A115" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="B115" s="97"/>
-      <c r="C115" s="97"/>
-      <c r="D115" s="97"/>
-      <c r="E115" s="97"/>
-      <c r="F115" s="98"/>
+      <c r="B115" s="98"/>
+      <c r="C115" s="98"/>
+      <c r="D115" s="98"/>
+      <c r="E115" s="98"/>
+      <c r="F115" s="99"/>
       <c r="G115" s="18" t="s">
         <v>30</v>
       </c>
@@ -11393,21 +11520,21 @@
         <f>IF(H115="I",N115*Contagem!$U$11,IF(H115="E",N115*Contagem!$U$13,IF(H115="A",N115*Contagem!$U$12,IF(H115="T",N115*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P115" s="94"/>
-      <c r="Q115" s="95"/>
-      <c r="R115" s="95"/>
-      <c r="S115" s="95"/>
-      <c r="T115" s="95"/>
+      <c r="P115" s="95"/>
+      <c r="Q115" s="96"/>
+      <c r="R115" s="96"/>
+      <c r="S115" s="96"/>
+      <c r="T115" s="96"/>
     </row>
     <row r="116" spans="1:20" s="67" customFormat="1" ht="18" customHeight="1">
-      <c r="A116" s="96" t="s">
+      <c r="A116" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="B116" s="97"/>
-      <c r="C116" s="97"/>
-      <c r="D116" s="97"/>
-      <c r="E116" s="97"/>
-      <c r="F116" s="98"/>
+      <c r="B116" s="98"/>
+      <c r="C116" s="98"/>
+      <c r="D116" s="98"/>
+      <c r="E116" s="98"/>
+      <c r="F116" s="99"/>
       <c r="G116" s="18" t="s">
         <v>30</v>
       </c>
@@ -11440,21 +11567,21 @@
         <f>IF(H116="I",N116*Contagem!$U$11,IF(H116="E",N116*Contagem!$U$13,IF(H116="A",N116*Contagem!$U$12,IF(H116="T",N116*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P116" s="94"/>
-      <c r="Q116" s="95"/>
-      <c r="R116" s="95"/>
-      <c r="S116" s="95"/>
-      <c r="T116" s="95"/>
+      <c r="P116" s="95"/>
+      <c r="Q116" s="96"/>
+      <c r="R116" s="96"/>
+      <c r="S116" s="96"/>
+      <c r="T116" s="96"/>
     </row>
     <row r="117" spans="1:20" s="67" customFormat="1" ht="18" customHeight="1">
-      <c r="A117" s="96" t="s">
+      <c r="A117" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="B117" s="97"/>
-      <c r="C117" s="97"/>
-      <c r="D117" s="97"/>
-      <c r="E117" s="97"/>
-      <c r="F117" s="98"/>
+      <c r="B117" s="98"/>
+      <c r="C117" s="98"/>
+      <c r="D117" s="98"/>
+      <c r="E117" s="98"/>
+      <c r="F117" s="99"/>
       <c r="G117" s="18" t="s">
         <v>54</v>
       </c>
@@ -11487,19 +11614,19 @@
         <f>IF(H117="I",N117*Contagem!$U$11,IF(H117="E",N117*Contagem!$U$13,IF(H117="A",N117*Contagem!$U$12,IF(H117="T",N117*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P117" s="94"/>
-      <c r="Q117" s="95"/>
-      <c r="R117" s="95"/>
-      <c r="S117" s="95"/>
-      <c r="T117" s="95"/>
+      <c r="P117" s="95"/>
+      <c r="Q117" s="96"/>
+      <c r="R117" s="96"/>
+      <c r="S117" s="96"/>
+      <c r="T117" s="96"/>
     </row>
     <row r="118" spans="1:20" ht="18" customHeight="1">
-      <c r="A118" s="96"/>
-      <c r="B118" s="97"/>
-      <c r="C118" s="97"/>
-      <c r="D118" s="97"/>
-      <c r="E118" s="97"/>
-      <c r="F118" s="98"/>
+      <c r="A118" s="97"/>
+      <c r="B118" s="98"/>
+      <c r="C118" s="98"/>
+      <c r="D118" s="98"/>
+      <c r="E118" s="98"/>
+      <c r="F118" s="99"/>
       <c r="G118" s="18"/>
       <c r="H118" s="54" t="s">
         <v>31</v>
@@ -11526,21 +11653,21 @@
         <f>IF(H118="I",N118*Contagem!$U$11,IF(H118="E",N118*Contagem!$U$13,IF(H118="A",N118*Contagem!$U$12,IF(H118="T",N118*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P118" s="94"/>
-      <c r="Q118" s="95"/>
-      <c r="R118" s="95"/>
-      <c r="S118" s="95"/>
-      <c r="T118" s="95"/>
+      <c r="P118" s="95"/>
+      <c r="Q118" s="96"/>
+      <c r="R118" s="96"/>
+      <c r="S118" s="96"/>
+      <c r="T118" s="96"/>
     </row>
     <row r="119" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A119" s="104" t="s">
+      <c r="A119" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="B119" s="105"/>
-      <c r="C119" s="105"/>
-      <c r="D119" s="105"/>
-      <c r="E119" s="105"/>
-      <c r="F119" s="106"/>
+      <c r="B119" s="139"/>
+      <c r="C119" s="139"/>
+      <c r="D119" s="139"/>
+      <c r="E119" s="139"/>
+      <c r="F119" s="140"/>
       <c r="G119" s="53"/>
       <c r="H119" s="54" t="s">
         <v>31</v>
@@ -11567,21 +11694,21 @@
         <f>IF(H119="I",N119*[1]Contagem!$U$11,IF(H119="E",N119*[1]Contagem!$U$13,IF(H119="A",N119*[1]Contagem!$U$12,IF(H119="T",N119*[1]Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P119" s="125"/>
-      <c r="Q119" s="100"/>
-      <c r="R119" s="100"/>
-      <c r="S119" s="100"/>
-      <c r="T119" s="100"/>
+      <c r="P119" s="100"/>
+      <c r="Q119" s="94"/>
+      <c r="R119" s="94"/>
+      <c r="S119" s="94"/>
+      <c r="T119" s="94"/>
     </row>
     <row r="120" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="B120" s="99"/>
-      <c r="C120" s="99"/>
-      <c r="D120" s="99"/>
-      <c r="E120" s="99"/>
-      <c r="F120" s="99"/>
+      <c r="A120" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="B120" s="112"/>
+      <c r="C120" s="112"/>
+      <c r="D120" s="112"/>
+      <c r="E120" s="112"/>
+      <c r="F120" s="112"/>
       <c r="G120" s="53" t="s">
         <v>49</v>
       </c>
@@ -11614,21 +11741,21 @@
         <f>IF(H120="I",N120*[1]Contagem!$U$11,IF(H120="E",N120*[1]Contagem!$U$13,IF(H120="A",N120*[1]Contagem!$U$12,IF(H120="T",N120*[1]Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P120" s="100"/>
-      <c r="Q120" s="100"/>
-      <c r="R120" s="100"/>
-      <c r="S120" s="100"/>
-      <c r="T120" s="100"/>
+      <c r="P120" s="94"/>
+      <c r="Q120" s="94"/>
+      <c r="R120" s="94"/>
+      <c r="S120" s="94"/>
+      <c r="T120" s="94"/>
     </row>
     <row r="121" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="B121" s="99"/>
-      <c r="C121" s="99"/>
-      <c r="D121" s="99"/>
-      <c r="E121" s="99"/>
-      <c r="F121" s="99"/>
+      <c r="A121" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="B121" s="112"/>
+      <c r="C121" s="112"/>
+      <c r="D121" s="112"/>
+      <c r="E121" s="112"/>
+      <c r="F121" s="112"/>
       <c r="G121" s="53" t="s">
         <v>49</v>
       </c>
@@ -11660,254 +11787,129 @@
       <c r="O121" s="63">
         <v>7</v>
       </c>
-      <c r="P121" s="100"/>
-      <c r="Q121" s="100"/>
-      <c r="R121" s="100"/>
-      <c r="S121" s="100"/>
-      <c r="T121" s="100"/>
+      <c r="P121" s="94"/>
+      <c r="Q121" s="94"/>
+      <c r="R121" s="94"/>
+      <c r="S121" s="94"/>
+      <c r="T121" s="94"/>
     </row>
     <row r="122" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="B122" s="99"/>
-      <c r="C122" s="99"/>
-      <c r="D122" s="99"/>
-      <c r="E122" s="99"/>
-      <c r="F122" s="99"/>
-      <c r="G122" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="H122" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="I122" s="53">
-        <v>3</v>
-      </c>
-      <c r="J122" s="53">
-        <v>3</v>
-      </c>
-      <c r="K122" s="53" t="str">
-        <f>CONCATENATE(G122,L122)</f>
-        <v>SEL</v>
-      </c>
-      <c r="L122" s="62" t="str">
-        <f t="shared" si="32"/>
-        <v>L</v>
-      </c>
-      <c r="M122" s="57" t="str">
-        <f>IF(L122="L","Baixa",IF(L122="A","Média",IF(L122="","","Alta")))</f>
-        <v>Baixa</v>
-      </c>
-      <c r="N122" s="58">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="O122" s="63">
-        <f>IF(H122="I",N122*[1]Contagem!$U$11,IF(H122="E",N122*[1]Contagem!$U$13,IF(H122="A",N122*[1]Contagem!$U$12,IF(H122="T",N122*[1]Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P122" s="100"/>
-      <c r="Q122" s="100"/>
-      <c r="R122" s="100"/>
-      <c r="S122" s="100"/>
-      <c r="T122" s="100"/>
+      <c r="A122" s="112"/>
+      <c r="B122" s="112"/>
+      <c r="C122" s="112"/>
+      <c r="D122" s="112"/>
+      <c r="E122" s="112"/>
+      <c r="F122" s="112"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
+      <c r="L122" s="62"/>
+      <c r="M122" s="57"/>
+      <c r="N122" s="58"/>
+      <c r="O122" s="63"/>
+      <c r="P122" s="94"/>
+      <c r="Q122" s="94"/>
+      <c r="R122" s="94"/>
+      <c r="S122" s="94"/>
+      <c r="T122" s="94"/>
     </row>
     <row r="123" spans="1:20" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="B123" s="97"/>
-      <c r="C123" s="97"/>
-      <c r="D123" s="97"/>
-      <c r="E123" s="97"/>
-      <c r="F123" s="98"/>
-      <c r="G123" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H123" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="I123" s="18">
-        <v>10</v>
-      </c>
-      <c r="J123" s="18">
-        <v>2</v>
-      </c>
-      <c r="K123" s="18" t="str">
-        <f t="shared" ref="K123" si="33">CONCATENATE(G123,L123)</f>
-        <v>SEA</v>
-      </c>
-      <c r="L123" s="24" t="str">
-        <f t="shared" si="32"/>
-        <v>A</v>
-      </c>
-      <c r="M123" s="26" t="str">
-        <f t="shared" ref="M123" si="34">IF(L123="L","Baixa",IF(L123="A","Média",IF(L123="","","Alta")))</f>
-        <v>Média</v>
-      </c>
-      <c r="N123" s="58">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="O123" s="31">
-        <f>IF(H123="I",N123*Contagem!$U$11,IF(H123="E",N123*Contagem!$U$13,IF(H123="A",N123*Contagem!$U$12,IF(H123="T",N123*Contagem!$U$14,""))))</f>
-        <v>5</v>
-      </c>
-      <c r="P123" s="94"/>
-      <c r="Q123" s="95"/>
-      <c r="R123" s="95"/>
-      <c r="S123" s="95"/>
-      <c r="T123" s="95"/>
+      <c r="A123" s="97"/>
+      <c r="B123" s="98"/>
+      <c r="C123" s="98"/>
+      <c r="D123" s="98"/>
+      <c r="E123" s="98"/>
+      <c r="F123" s="99"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="26"/>
+      <c r="N123" s="58"/>
+      <c r="O123" s="31"/>
+      <c r="P123" s="95"/>
+      <c r="Q123" s="96"/>
+      <c r="R123" s="96"/>
+      <c r="S123" s="96"/>
+      <c r="T123" s="96"/>
     </row>
     <row r="124" spans="1:20" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="B124" s="97"/>
-      <c r="C124" s="97"/>
-      <c r="D124" s="97"/>
-      <c r="E124" s="97"/>
-      <c r="F124" s="98"/>
-      <c r="G124" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H124" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="I124" s="18">
-        <v>6</v>
-      </c>
-      <c r="J124" s="18">
-        <v>2</v>
-      </c>
-      <c r="K124" s="18" t="str">
-        <f t="shared" ref="K124:K125" si="35">CONCATENATE(G124,L124)</f>
-        <v>SEA</v>
-      </c>
-      <c r="L124" s="24" t="str">
-        <f t="shared" ref="L124:L125" si="36">IF(OR(ISBLANK(I124),ISBLANK(J124)),IF(OR(G124="ALI",G124="AIE"),"L",IF(ISBLANK(G124),"","A")),IF(G124="EE",IF(J124&gt;=3,IF(I124&gt;=5,"H","A"),IF(J124&gt;=2,IF(I124&gt;=16,"H",IF(I124&lt;=4,"L","A")),IF(I124&lt;=15,"L","A"))),IF(OR(G124="SE",G124="CE"),IF(J124&gt;=4,IF(I124&gt;=6,"H","A"),IF(J124&gt;=2,IF(I124&gt;=20,"H",IF(I124&lt;=5,"L","A")),IF(I124&lt;=19,"L","A"))),IF(OR(G124="ALI",G124="AIE"),IF(J124&gt;=6,IF(I124&gt;=20,"H","A"),IF(J124&gt;=2,IF(I124&gt;=51,"H",IF(I124&lt;=19,"L","A")),IF(I124&lt;=50,"L","A")))))))</f>
-        <v>A</v>
-      </c>
-      <c r="M124" s="26" t="str">
-        <f t="shared" ref="M124:M125" si="37">IF(L124="L","Baixa",IF(L124="A","Média",IF(L124="","","Alta")))</f>
-        <v>Média</v>
-      </c>
-      <c r="N124" s="58">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="O124" s="31">
-        <f>IF(H124="I",N124*Contagem!$U$11,IF(H124="E",N124*Contagem!$U$13,IF(H124="A",N124*Contagem!$U$12,IF(H124="T",N124*Contagem!$U$14,""))))</f>
-        <v>5</v>
-      </c>
-      <c r="P124" s="94"/>
-      <c r="Q124" s="95"/>
-      <c r="R124" s="95"/>
-      <c r="S124" s="95"/>
-      <c r="T124" s="95"/>
+      <c r="A124" s="97"/>
+      <c r="B124" s="98"/>
+      <c r="C124" s="98"/>
+      <c r="D124" s="98"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="99"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="26"/>
+      <c r="N124" s="58"/>
+      <c r="O124" s="31"/>
+      <c r="P124" s="95"/>
+      <c r="Q124" s="96"/>
+      <c r="R124" s="96"/>
+      <c r="S124" s="96"/>
+      <c r="T124" s="96"/>
     </row>
     <row r="125" spans="1:20" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A125" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="B125" s="97"/>
-      <c r="C125" s="97"/>
-      <c r="D125" s="97"/>
-      <c r="E125" s="97"/>
-      <c r="F125" s="98"/>
-      <c r="G125" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H125" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="I125" s="18">
-        <v>14</v>
-      </c>
-      <c r="J125" s="18">
-        <v>3</v>
-      </c>
-      <c r="K125" s="18" t="str">
-        <f t="shared" si="35"/>
-        <v>SEA</v>
-      </c>
-      <c r="L125" s="24" t="str">
-        <f t="shared" si="36"/>
-        <v>A</v>
-      </c>
-      <c r="M125" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Média</v>
-      </c>
-      <c r="N125" s="58">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="O125" s="31">
-        <f>IF(H125="I",N125*Contagem!$U$11,IF(H125="E",N125*Contagem!$U$13,IF(H125="A",N125*Contagem!$U$12,IF(H125="T",N125*Contagem!$U$14,""))))</f>
-        <v>5</v>
-      </c>
-      <c r="P125" s="94"/>
-      <c r="Q125" s="95"/>
-      <c r="R125" s="95"/>
-      <c r="S125" s="95"/>
-      <c r="T125" s="95"/>
+      <c r="A125" s="97"/>
+      <c r="B125" s="98"/>
+      <c r="C125" s="98"/>
+      <c r="D125" s="98"/>
+      <c r="E125" s="98"/>
+      <c r="F125" s="99"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="18"/>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="24"/>
+      <c r="M125" s="26"/>
+      <c r="N125" s="58"/>
+      <c r="O125" s="31"/>
+      <c r="P125" s="95"/>
+      <c r="Q125" s="96"/>
+      <c r="R125" s="96"/>
+      <c r="S125" s="96"/>
+      <c r="T125" s="96"/>
     </row>
     <row r="126" spans="1:20" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="B126" s="97"/>
-      <c r="C126" s="97"/>
-      <c r="D126" s="97"/>
-      <c r="E126" s="97"/>
-      <c r="F126" s="98"/>
-      <c r="G126" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H126" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="I126" s="18">
-        <v>14</v>
-      </c>
-      <c r="J126" s="18">
-        <v>3</v>
-      </c>
-      <c r="K126" s="18" t="str">
-        <f t="shared" ref="K126:K127" si="38">CONCATENATE(G126,L126)</f>
-        <v>SEA</v>
-      </c>
-      <c r="L126" s="24" t="str">
-        <f t="shared" ref="L126:L127" si="39">IF(OR(ISBLANK(I126),ISBLANK(J126)),IF(OR(G126="ALI",G126="AIE"),"L",IF(ISBLANK(G126),"","A")),IF(G126="EE",IF(J126&gt;=3,IF(I126&gt;=5,"H","A"),IF(J126&gt;=2,IF(I126&gt;=16,"H",IF(I126&lt;=4,"L","A")),IF(I126&lt;=15,"L","A"))),IF(OR(G126="SE",G126="CE"),IF(J126&gt;=4,IF(I126&gt;=6,"H","A"),IF(J126&gt;=2,IF(I126&gt;=20,"H",IF(I126&lt;=5,"L","A")),IF(I126&lt;=19,"L","A"))),IF(OR(G126="ALI",G126="AIE"),IF(J126&gt;=6,IF(I126&gt;=20,"H","A"),IF(J126&gt;=2,IF(I126&gt;=51,"H",IF(I126&lt;=19,"L","A")),IF(I126&lt;=50,"L","A")))))))</f>
-        <v>A</v>
-      </c>
-      <c r="M126" s="26" t="str">
-        <f t="shared" ref="M126:M127" si="40">IF(L126="L","Baixa",IF(L126="A","Média",IF(L126="","","Alta")))</f>
-        <v>Média</v>
-      </c>
-      <c r="N126" s="58">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="O126" s="31">
-        <f>IF(H126="I",N126*Contagem!$U$11,IF(H126="E",N126*Contagem!$U$13,IF(H126="A",N126*Contagem!$U$12,IF(H126="T",N126*Contagem!$U$14,""))))</f>
-        <v>5</v>
-      </c>
-      <c r="P126" s="94"/>
-      <c r="Q126" s="95"/>
-      <c r="R126" s="95"/>
-      <c r="S126" s="95"/>
-      <c r="T126" s="95"/>
+      <c r="A126" s="97"/>
+      <c r="B126" s="98"/>
+      <c r="C126" s="98"/>
+      <c r="D126" s="98"/>
+      <c r="E126" s="98"/>
+      <c r="F126" s="99"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="18"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="26"/>
+      <c r="N126" s="58"/>
+      <c r="O126" s="31"/>
+      <c r="P126" s="95"/>
+      <c r="Q126" s="96"/>
+      <c r="R126" s="96"/>
+      <c r="S126" s="96"/>
+      <c r="T126" s="96"/>
     </row>
     <row r="127" spans="1:20" s="69" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="96"/>
-      <c r="B127" s="97"/>
-      <c r="C127" s="97"/>
-      <c r="D127" s="97"/>
-      <c r="E127" s="97"/>
-      <c r="F127" s="98"/>
+      <c r="A127" s="97"/>
+      <c r="B127" s="98"/>
+      <c r="C127" s="98"/>
+      <c r="D127" s="98"/>
+      <c r="E127" s="98"/>
+      <c r="F127" s="99"/>
       <c r="G127" s="18"/>
       <c r="H127" s="54" t="s">
         <v>31</v>
@@ -11915,57 +11917,221 @@
       <c r="I127" s="18"/>
       <c r="J127" s="18"/>
       <c r="K127" s="18" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="K126:K127" si="33">CONCATENATE(G127,L127)</f>
         <v/>
       </c>
       <c r="L127" s="24" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="L126:L127" si="34">IF(OR(ISBLANK(I127),ISBLANK(J127)),IF(OR(G127="ALI",G127="AIE"),"L",IF(ISBLANK(G127),"","A")),IF(G127="EE",IF(J127&gt;=3,IF(I127&gt;=5,"H","A"),IF(J127&gt;=2,IF(I127&gt;=16,"H",IF(I127&lt;=4,"L","A")),IF(I127&lt;=15,"L","A"))),IF(OR(G127="SE",G127="CE"),IF(J127&gt;=4,IF(I127&gt;=6,"H","A"),IF(J127&gt;=2,IF(I127&gt;=20,"H",IF(I127&lt;=5,"L","A")),IF(I127&lt;=19,"L","A"))),IF(OR(G127="ALI",G127="AIE"),IF(J127&gt;=6,IF(I127&gt;=20,"H","A"),IF(J127&gt;=2,IF(I127&gt;=51,"H",IF(I127&lt;=19,"L","A")),IF(I127&lt;=50,"L","A")))))))</f>
         <v/>
       </c>
       <c r="M127" s="26" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="M126:M127" si="35">IF(L127="L","Baixa",IF(L127="A","Média",IF(L127="","","Alta")))</f>
         <v/>
       </c>
       <c r="N127" s="58" t="str">
-        <f t="shared" ref="N127" si="41">IF(ISBLANK(G127),"",IF(G127="ALI",IF(L127="L",7,IF(L127="A",10,15)),IF(G127="AIE",IF(L127="L",5,IF(L127="A",7,10)),IF(G127="SE",IF(L127="L",4,IF(L127="A",5,7)),IF(OR(G127="EE",G127="CE"),IF(L127="L",3,IF(L127="A",4,6)))))))</f>
+        <f t="shared" ref="N127" si="36">IF(ISBLANK(G127),"",IF(G127="ALI",IF(L127="L",7,IF(L127="A",10,15)),IF(G127="AIE",IF(L127="L",5,IF(L127="A",7,10)),IF(G127="SE",IF(L127="L",4,IF(L127="A",5,7)),IF(OR(G127="EE",G127="CE"),IF(L127="L",3,IF(L127="A",4,6)))))))</f>
         <v/>
       </c>
       <c r="O127" s="31" t="e">
         <f>IF(H127="I",N127*Contagem!$U$11,IF(H127="E",N127*Contagem!$U$13,IF(H127="A",N127*Contagem!$U$12,IF(H127="T",N127*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P127" s="94"/>
-      <c r="Q127" s="95"/>
-      <c r="R127" s="95"/>
-      <c r="S127" s="95"/>
-      <c r="T127" s="95"/>
+      <c r="P127" s="95"/>
+      <c r="Q127" s="96"/>
+      <c r="R127" s="96"/>
+      <c r="S127" s="96"/>
+      <c r="T127" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="248">
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="P112:T112"/>
-    <mergeCell ref="P113:T113"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="P116:T116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="P117:T117"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="P114:T114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="P115:T115"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="P109:T109"/>
+    <mergeCell ref="P123:T123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="P124:T124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="P125:T125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="P126:T126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="P127:T127"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="P105:T105"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="P110:T110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="P111:T111"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A1:O3"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="P96:T96"/>
+    <mergeCell ref="P97:T97"/>
+    <mergeCell ref="P98:T98"/>
+    <mergeCell ref="P83:T83"/>
+    <mergeCell ref="P94:T94"/>
+    <mergeCell ref="P95:T95"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="P77:T77"/>
+    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="P80:T80"/>
+    <mergeCell ref="P81:T81"/>
     <mergeCell ref="P118:T118"/>
     <mergeCell ref="P119:T119"/>
     <mergeCell ref="P122:T122"/>
@@ -11990,6 +12156,30 @@
     <mergeCell ref="P102:T102"/>
     <mergeCell ref="P106:T106"/>
     <mergeCell ref="P104:T104"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="P112:T112"/>
+    <mergeCell ref="P113:T113"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="P116:T116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="P117:T117"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="P114:T114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="P115:T115"/>
+    <mergeCell ref="P109:T109"/>
     <mergeCell ref="P103:T103"/>
     <mergeCell ref="P68:T68"/>
     <mergeCell ref="P69:T69"/>
@@ -12002,194 +12192,6 @@
     <mergeCell ref="P100:T100"/>
     <mergeCell ref="P99:T99"/>
     <mergeCell ref="P93:T93"/>
-    <mergeCell ref="P96:T96"/>
-    <mergeCell ref="P97:T97"/>
-    <mergeCell ref="P98:T98"/>
-    <mergeCell ref="P83:T83"/>
-    <mergeCell ref="P94:T94"/>
-    <mergeCell ref="P95:T95"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="P78:T78"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="P80:T80"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A1:O3"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="P105:T105"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="P110:T110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="P111:T111"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="P123:T123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="P124:T124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="P125:T125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="P126:T126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="P127:T127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12223,88 +12225,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="156"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="145"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="121"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="157"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="146"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="146"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="148"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="143" t="str">
+      <c r="A4" s="149" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="147" t="str">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="152" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="148"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="153"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="143" t="str">
+      <c r="A5" s="149" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="147" t="str">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="152" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="148"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="153"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="3" t="str">
@@ -12315,58 +12317,58 @@
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="150" t="str">
+      <c r="F6" s="155" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 500</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="150" t="str">
+      <c r="G6" s="71"/>
+      <c r="H6" s="155" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
-        <v xml:space="preserve"> Custo= R$ 217.500,00</v>
-      </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="149" t="str">
+        <v xml:space="preserve"> Custo= R$ 205.500,00</v>
+      </c>
+      <c r="I6" s="73"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="154" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
-        <v>PF  = 435</v>
-      </c>
-      <c r="L6" s="148"/>
+        <v>PF  = 411</v>
+      </c>
+      <c r="L6" s="153"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="153" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="144" t="s">
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144" t="s">
+      <c r="H7" s="150"/>
+      <c r="I7" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="145"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="151"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="152"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="146"/>
+      <c r="A8" s="147"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="148"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="13"/>
@@ -12491,7 +12493,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="29">
         <f>IF($G$45&lt;&gt;0,G14/$G$45,"")</f>
-        <v>0.54482758620689653</v>
+        <v>0.57664233576642332</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
@@ -12532,7 +12534,7 @@
       </c>
       <c r="C17" s="20">
         <f>COUNTIF(CF,"SEL")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="21" t="s">
@@ -12543,7 +12545,7 @@
       </c>
       <c r="G17" s="20">
         <f>C17*4</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -12556,7 +12558,7 @@
       <c r="B18" s="17"/>
       <c r="C18" s="20">
         <f>COUNTIF(CF,"SEA")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="21" t="s">
@@ -12567,7 +12569,7 @@
       </c>
       <c r="G18" s="20">
         <f>C18*5</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -12620,7 +12622,7 @@
       </c>
       <c r="C21" s="20">
         <f>SUM(C17:C19)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -12629,12 +12631,12 @@
       </c>
       <c r="G21" s="20">
         <f>SUM(G17:G19)</f>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="33">
         <f>IF($G$45&lt;&gt;0,G21/$G$45,"")</f>
-        <v>9.6551724137931033E-2</v>
+        <v>4.3795620437956206E-2</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
@@ -12777,7 +12779,7 @@
       <c r="H28" s="17"/>
       <c r="I28" s="37">
         <f>IF($G$45&lt;&gt;0,G28/$G$45,"")</f>
-        <v>9.8850574712643677E-2</v>
+        <v>0.10462287104622871</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -12920,7 +12922,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="38">
         <f>IF($G$45&lt;&gt;0,G35/$G$45,"")</f>
-        <v>0.25977011494252872</v>
+        <v>0.27493917274939172</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -13108,7 +13110,7 @@
       <c r="F45" s="17"/>
       <c r="G45" s="20">
         <f>SUM(G14+G21+G28+G35+G42)</f>
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
@@ -13127,7 +13129,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="20">
         <f>(C10+C11+C12)*4+(C17+C18+C19)*5+(C24+C25+C26)*4+(C31+C32+C33)*7+(C38+C39+C40)*5</f>
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -13265,11 +13267,11 @@
       <c r="B55" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="80"/>
-      <c r="D55" s="81"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="71"/>
       <c r="E55" s="41">
         <f>SUMIF(Funções!$H$8:$H$127,"I",Funções!$N$8:$N$127)</f>
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="F55" s="41">
         <f>Contagem!U11</f>
@@ -13277,7 +13279,7 @@
       </c>
       <c r="G55" s="41">
         <f t="shared" ref="G55:G58" si="0">F55*E55</f>
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="H55" s="42"/>
       <c r="I55" s="42"/>
@@ -13292,8 +13294,8 @@
       <c r="B56" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="80"/>
-      <c r="D56" s="81"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="71"/>
       <c r="E56" s="41">
         <f>SUMIF(Funções!$H$8:$H$127,"A",Funções!$N$8:$N$127)</f>
         <v>0</v>
@@ -13311,7 +13313,7 @@
       <c r="J56" s="42"/>
       <c r="K56" s="44">
         <f>Contagem!W5</f>
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L56" s="25"/>
     </row>
@@ -13320,8 +13322,8 @@
       <c r="B57" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="80"/>
-      <c r="D57" s="81"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="71"/>
       <c r="E57" s="41">
         <f>SUMIF(Funções!$H$8:$H$127,"E",Funções!$N$8:$N$127)</f>
         <v>0</v>
@@ -13345,8 +13347,8 @@
       <c r="B58" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="80"/>
-      <c r="D58" s="81"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="71"/>
       <c r="E58" s="41">
         <f>SUMIF(Funções!$H$8:$H$127,"T",Funções!$N$8:$N$127)</f>
         <v>0</v>
@@ -13381,6 +13383,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="A1:L3"/>
     <mergeCell ref="B58:D58"/>
@@ -13397,8 +13401,6 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:F8"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B55:D55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
